--- a/src/main/resources/data/Ultra - Season 02.xlsx
+++ b/src/main/resources/data/Ultra - Season 02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130CE81-A529-4E35-B1FD-3CD51FC7C902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E435495-8933-4E00-9615-2FA598FA332C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="400">
   <si>
     <t>Lead</t>
   </si>
@@ -1178,6 +1178,69 @@
   </si>
   <si>
     <t>Heracross</t>
+  </si>
+  <si>
+    <t>Ampharos</t>
+  </si>
+  <si>
+    <t>Ursaring</t>
+  </si>
+  <si>
+    <t>Togekiss</t>
+  </si>
+  <si>
+    <t>Zangoose</t>
+  </si>
+  <si>
+    <t>Scizor</t>
+  </si>
+  <si>
+    <t>Escavalier</t>
+  </si>
+  <si>
+    <t>Toxicroak</t>
+  </si>
+  <si>
+    <t>Venusaur</t>
+  </si>
+  <si>
+    <t>Primeape</t>
+  </si>
+  <si>
+    <t>Kangaskhan</t>
+  </si>
+  <si>
+    <t>Mewtwo_armored</t>
+  </si>
+  <si>
+    <t>Machamp</t>
+  </si>
+  <si>
+    <t>Breloom</t>
+  </si>
+  <si>
+    <t>Feraligatr</t>
+  </si>
+  <si>
+    <t>Obstagoon</t>
+  </si>
+  <si>
+    <t>obstagoon</t>
+  </si>
+  <si>
+    <t>Granbull</t>
+  </si>
+  <si>
+    <t>Lucario</t>
+  </si>
+  <si>
+    <t>Cloyster</t>
+  </si>
+  <si>
+    <t>Kingdra</t>
+  </si>
+  <si>
+    <t>Infernape</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,25 +2106,49 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D27" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E27" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>381</v>
+      </c>
       <c r="D28" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E28" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="D29" s="9" t="s">
         <v>331</v>
       </c>
@@ -2070,6 +2157,15 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D30" s="9" t="s">
         <v>331</v>
       </c>
@@ -2078,14 +2174,32 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D31" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E31" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D32" s="9" t="s">
         <v>331</v>
       </c>
@@ -2094,6 +2208,15 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D33" s="9" t="s">
         <v>331</v>
       </c>
@@ -2102,8 +2225,15 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D34" s="9" t="s">
         <v>331</v>
       </c>
@@ -2112,8 +2242,15 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D35" s="9" t="s">
         <v>331</v>
       </c>
@@ -2122,30 +2259,63 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D36" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E36" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D37" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E37" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D38" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E38" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D39" s="9" t="s">
         <v>331</v>
       </c>
@@ -2154,14 +2324,32 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="D40" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E40" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D41" s="9" t="s">
         <v>331</v>
       </c>
@@ -2170,14 +2358,32 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D42" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E42" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="D43" s="9" t="s">
         <v>331</v>
       </c>
@@ -2186,6 +2392,15 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="D44" s="9" t="s">
         <v>331</v>
       </c>
@@ -2194,6 +2409,15 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D45" s="9" t="s">
         <v>331</v>
       </c>
@@ -2202,6 +2426,15 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D46" s="9" t="s">
         <v>331</v>
       </c>
@@ -2210,6 +2443,15 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D47" s="9" t="s">
         <v>331</v>
       </c>
@@ -2218,30 +2460,63 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D48" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E48" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D49" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E49" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D50" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E50" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D51" s="9" t="s">
         <v>331</v>
       </c>
@@ -2250,14 +2525,32 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D52" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E52" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D53" s="9" t="s">
         <v>331</v>
       </c>
@@ -2266,9 +2559,15 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="A54" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="D54" s="9" t="s">
         <v>331</v>
       </c>
@@ -2277,9 +2576,15 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="D55" s="9" t="s">
         <v>331</v>
       </c>
@@ -2288,14 +2593,32 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D56" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E56" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D57" s="9" t="s">
         <v>331</v>
       </c>
@@ -2304,9 +2627,15 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="D58" s="9" t="s">
         <v>331</v>
       </c>
@@ -2315,6 +2644,15 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="D59" s="9" t="s">
         <v>331</v>
       </c>
@@ -2323,30 +2661,66 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D60" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E60" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D61" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E61" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="D62" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E62" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="D63" s="9" t="s">
         <v>331</v>
       </c>
@@ -2355,6 +2729,15 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D64" s="9" t="s">
         <v>331</v>
       </c>
@@ -2363,6 +2746,15 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D65" s="9" t="s">
         <v>331</v>
       </c>
@@ -2371,30 +2763,66 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="D66" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E66" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D67" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E67" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D68" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E68" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D69" s="9" t="s">
         <v>331</v>
       </c>
@@ -2403,41 +2831,83 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+      <c r="A70" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="D70" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E70" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D71" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E71" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D72" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E72" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D73" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E73" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D74" s="9" t="s">
         <v>331</v>
       </c>
@@ -2446,469 +2916,955 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D75" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E75" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="D76" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E76" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D77" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E77" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D78" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E78" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="D79" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E79" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D80" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E80" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+      <c r="A81" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>373</v>
+      </c>
       <c r="D81" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E81" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D82" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E82" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D83" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E83" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D84" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E84" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D85" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E85" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D86" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E86" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D87" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E87" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D88" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E88" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D89" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E89" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="A90" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="D90" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E90" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D91" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E91" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="D92" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E92" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D93" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E93" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D94" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E94" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="D95" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E95" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D96" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E96" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D97" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E97" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D98" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E98" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D99" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E99" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D100" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E100" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D101" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E101" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="D102" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E102" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D103" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E103" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D104" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E104" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="A105" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>396</v>
+      </c>
       <c r="D105" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E105" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D106" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E106" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D107" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E107" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D108" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E108" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D109" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E109" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D110" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E110" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D111" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E111" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D112" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E112" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="D113" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E113" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D114" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E114" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="D115" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E115" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D116" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E116" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D117" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E117" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D118" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E118" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D119" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E119" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D120" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E120" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="D121" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E121" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D122" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E122" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D123" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E123" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
+      <c r="A124" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D124" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E124" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
+      <c r="A125" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>376</v>
+      </c>
       <c r="D125" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E125" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D126" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E126" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D127" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E127" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="D128" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E128" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D129" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E129" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="D130" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E130" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2916,7 +3872,7 @@
         <v>331</v>
       </c>
       <c r="E131" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,7 +3880,7 @@
         <v>331</v>
       </c>
       <c r="E132" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2932,7 +3888,7 @@
         <v>331</v>
       </c>
       <c r="E133" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,7 +3896,7 @@
         <v>331</v>
       </c>
       <c r="E134" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2948,7 +3904,7 @@
         <v>331</v>
       </c>
       <c r="E135" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2956,7 +3912,7 @@
         <v>331</v>
       </c>
       <c r="E136" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,7 +3920,7 @@
         <v>331</v>
       </c>
       <c r="E137" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2975,7 +3931,7 @@
         <v>331</v>
       </c>
       <c r="E138" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2983,7 +3939,7 @@
         <v>331</v>
       </c>
       <c r="E139" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2991,7 +3947,7 @@
         <v>331</v>
       </c>
       <c r="E140" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2999,7 +3955,7 @@
         <v>331</v>
       </c>
       <c r="E141" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,7 +3963,7 @@
         <v>331</v>
       </c>
       <c r="E142" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,7 +3971,7 @@
         <v>331</v>
       </c>
       <c r="E143" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,7 +3979,7 @@
         <v>331</v>
       </c>
       <c r="E144" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,7 +3987,7 @@
         <v>331</v>
       </c>
       <c r="E145" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,7 +3998,7 @@
         <v>331</v>
       </c>
       <c r="E146" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,7 +4006,7 @@
         <v>331</v>
       </c>
       <c r="E147" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,7 +4014,7 @@
         <v>331</v>
       </c>
       <c r="E148" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,7 +4022,7 @@
         <v>331</v>
       </c>
       <c r="E149" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3074,7 +4030,7 @@
         <v>331</v>
       </c>
       <c r="E150" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,7 +4038,7 @@
         <v>331</v>
       </c>
       <c r="E151" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,7 +4046,7 @@
         <v>331</v>
       </c>
       <c r="E152" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,7 +4054,7 @@
         <v>331</v>
       </c>
       <c r="E153" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,7 +4065,7 @@
         <v>331</v>
       </c>
       <c r="E154" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,7 +4073,7 @@
         <v>331</v>
       </c>
       <c r="E155" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3125,7 +4081,7 @@
         <v>331</v>
       </c>
       <c r="E156" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3133,7 +4089,7 @@
         <v>331</v>
       </c>
       <c r="E157" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3144,7 +4100,7 @@
         <v>331</v>
       </c>
       <c r="E158" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3152,7 +4108,7 @@
         <v>331</v>
       </c>
       <c r="E159" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3160,7 +4116,7 @@
         <v>331</v>
       </c>
       <c r="E160" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3171,7 +4127,7 @@
         <v>331</v>
       </c>
       <c r="E161" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,7 +4135,7 @@
         <v>331</v>
       </c>
       <c r="E162" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3187,7 +4143,7 @@
         <v>331</v>
       </c>
       <c r="E163" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3195,7 +4151,7 @@
         <v>331</v>
       </c>
       <c r="E164" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3203,7 +4159,7 @@
         <v>331</v>
       </c>
       <c r="E165" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3211,7 +4167,7 @@
         <v>331</v>
       </c>
       <c r="E166" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3219,7 +4175,7 @@
         <v>331</v>
       </c>
       <c r="E167" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3230,7 +4186,7 @@
         <v>331</v>
       </c>
       <c r="E168" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3238,7 +4194,7 @@
         <v>331</v>
       </c>
       <c r="E169" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3246,7 +4202,7 @@
         <v>331</v>
       </c>
       <c r="E170" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,7 +4213,7 @@
         <v>331</v>
       </c>
       <c r="E171" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3265,7 +4221,7 @@
         <v>331</v>
       </c>
       <c r="E172" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3273,7 +4229,7 @@
         <v>331</v>
       </c>
       <c r="E173" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3281,7 +4237,7 @@
         <v>331</v>
       </c>
       <c r="E174" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3289,7 +4245,7 @@
         <v>331</v>
       </c>
       <c r="E175" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3297,7 +4253,7 @@
         <v>331</v>
       </c>
       <c r="E176" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.25">
@@ -3305,7 +4261,7 @@
         <v>331</v>
       </c>
       <c r="E177" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.25">
@@ -3313,7 +4269,7 @@
         <v>331</v>
       </c>
       <c r="E178" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.25">
@@ -3321,7 +4277,7 @@
         <v>331</v>
       </c>
       <c r="E179" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.25">
@@ -3329,7 +4285,7 @@
         <v>331</v>
       </c>
       <c r="E180" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.25">
@@ -3337,7 +4293,7 @@
         <v>331</v>
       </c>
       <c r="E181" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.25">
@@ -3345,7 +4301,7 @@
         <v>331</v>
       </c>
       <c r="E182" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.25">
@@ -3353,7 +4309,7 @@
         <v>331</v>
       </c>
       <c r="E183" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.25">
@@ -3361,7 +4317,7 @@
         <v>331</v>
       </c>
       <c r="E184" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.25">
@@ -3369,7 +4325,7 @@
         <v>331</v>
       </c>
       <c r="E185" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.25">
@@ -3377,7 +4333,7 @@
         <v>331</v>
       </c>
       <c r="E186" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="4:5" x14ac:dyDescent="0.25">
@@ -3385,7 +4341,7 @@
         <v>331</v>
       </c>
       <c r="E187" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.25">
@@ -3393,7 +4349,7 @@
         <v>331</v>
       </c>
       <c r="E188" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.25">
@@ -3401,7 +4357,7 @@
         <v>331</v>
       </c>
       <c r="E189" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.25">
@@ -3409,7 +4365,7 @@
         <v>331</v>
       </c>
       <c r="E190" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.25">
@@ -3417,7 +4373,7 @@
         <v>331</v>
       </c>
       <c r="E191" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.25">
@@ -3425,7 +4381,7 @@
         <v>331</v>
       </c>
       <c r="E192" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -3433,7 +4389,7 @@
         <v>331</v>
       </c>
       <c r="E193" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3441,7 +4397,7 @@
         <v>331</v>
       </c>
       <c r="E194" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -3449,7 +4405,7 @@
         <v>331</v>
       </c>
       <c r="E195" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,7 +4413,7 @@
         <v>331</v>
       </c>
       <c r="E196" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,7 +4421,7 @@
         <v>331</v>
       </c>
       <c r="E197" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -3473,7 +4429,7 @@
         <v>331</v>
       </c>
       <c r="E198" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -3481,7 +4437,7 @@
         <v>331</v>
       </c>
       <c r="E199" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -3492,7 +4448,7 @@
         <v>331</v>
       </c>
       <c r="E200" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,7 +4459,7 @@
         <v>331</v>
       </c>
       <c r="E201" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -3511,7 +4467,7 @@
         <v>331</v>
       </c>
       <c r="E202" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,7 +4475,7 @@
         <v>331</v>
       </c>
       <c r="E203" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -3527,7 +4483,7 @@
         <v>331</v>
       </c>
       <c r="E204" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -3535,7 +4491,7 @@
         <v>331</v>
       </c>
       <c r="E205" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -3543,7 +4499,7 @@
         <v>331</v>
       </c>
       <c r="E206" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -3551,7 +4507,7 @@
         <v>331</v>
       </c>
       <c r="E207" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -3559,7 +4515,7 @@
         <v>331</v>
       </c>
       <c r="E208" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,7 +4526,7 @@
         <v>331</v>
       </c>
       <c r="E209" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -3578,7 +4534,7 @@
         <v>331</v>
       </c>
       <c r="E210" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -3586,7 +4542,7 @@
         <v>331</v>
       </c>
       <c r="E211" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,7 +4553,7 @@
         <v>331</v>
       </c>
       <c r="E212" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,7 +4561,7 @@
         <v>331</v>
       </c>
       <c r="E213" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -3616,7 +4572,7 @@
         <v>331</v>
       </c>
       <c r="E214" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -3624,7 +4580,7 @@
         <v>331</v>
       </c>
       <c r="E215" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -3632,7 +4588,7 @@
         <v>331</v>
       </c>
       <c r="E216" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -3640,7 +4596,7 @@
         <v>331</v>
       </c>
       <c r="E217" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,7 +4604,7 @@
         <v>331</v>
       </c>
       <c r="E218" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -3656,7 +4612,7 @@
         <v>331</v>
       </c>
       <c r="E219" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -3664,7 +4620,7 @@
         <v>331</v>
       </c>
       <c r="E220" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -3672,7 +4628,7 @@
         <v>331</v>
       </c>
       <c r="E221" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -3680,7 +4636,7 @@
         <v>331</v>
       </c>
       <c r="E222" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -3688,7 +4644,7 @@
         <v>331</v>
       </c>
       <c r="E223" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -3696,7 +4652,7 @@
         <v>331</v>
       </c>
       <c r="E224" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -3704,7 +4660,7 @@
         <v>331</v>
       </c>
       <c r="E225" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -3712,7 +4668,7 @@
         <v>331</v>
       </c>
       <c r="E226" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,7 +4676,7 @@
         <v>331</v>
       </c>
       <c r="E227" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -3728,7 +4684,7 @@
         <v>331</v>
       </c>
       <c r="E228" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -3738,7 +4694,7 @@
         <v>331</v>
       </c>
       <c r="E229" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -3746,7 +4702,7 @@
         <v>331</v>
       </c>
       <c r="E230" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -3754,7 +4710,7 @@
         <v>331</v>
       </c>
       <c r="E231" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -3762,7 +4718,7 @@
         <v>331</v>
       </c>
       <c r="E232" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,7 +4726,7 @@
         <v>331</v>
       </c>
       <c r="E233" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -3781,7 +4737,7 @@
         <v>331</v>
       </c>
       <c r="E234" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -3789,7 +4745,7 @@
         <v>331</v>
       </c>
       <c r="E235" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -3797,7 +4753,7 @@
         <v>331</v>
       </c>
       <c r="E236" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -3808,7 +4764,7 @@
         <v>331</v>
       </c>
       <c r="E237" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -3816,7 +4772,7 @@
         <v>331</v>
       </c>
       <c r="E238" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -3824,7 +4780,7 @@
         <v>331</v>
       </c>
       <c r="E239" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -3832,7 +4788,7 @@
         <v>331</v>
       </c>
       <c r="E240" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -3840,7 +4796,7 @@
         <v>331</v>
       </c>
       <c r="E241" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -3848,7 +4804,7 @@
         <v>331</v>
       </c>
       <c r="E242" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,7 +4812,7 @@
         <v>331</v>
       </c>
       <c r="E243" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -3864,7 +4820,7 @@
         <v>331</v>
       </c>
       <c r="E244" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -3872,7 +4828,7 @@
         <v>331</v>
       </c>
       <c r="E245" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -3880,7 +4836,7 @@
         <v>331</v>
       </c>
       <c r="E246" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -3888,7 +4844,7 @@
         <v>331</v>
       </c>
       <c r="E247" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -3896,7 +4852,7 @@
         <v>331</v>
       </c>
       <c r="E248" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,7 +4860,7 @@
         <v>331</v>
       </c>
       <c r="E249" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,7 +4868,7 @@
         <v>331</v>
       </c>
       <c r="E250" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -3920,7 +4876,7 @@
         <v>331</v>
       </c>
       <c r="E251" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -3928,7 +4884,7 @@
         <v>331</v>
       </c>
       <c r="E252" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -3939,7 +4895,7 @@
         <v>331</v>
       </c>
       <c r="E253" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -3947,7 +4903,7 @@
         <v>331</v>
       </c>
       <c r="E254" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -3955,7 +4911,7 @@
         <v>331</v>
       </c>
       <c r="E255" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -3963,7 +4919,7 @@
         <v>331</v>
       </c>
       <c r="E256" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,7 +4927,7 @@
         <v>331</v>
       </c>
       <c r="E257" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -3979,7 +4935,7 @@
         <v>331</v>
       </c>
       <c r="E258" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -3987,7 +4943,7 @@
         <v>331</v>
       </c>
       <c r="E259" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -3995,7 +4951,7 @@
         <v>331</v>
       </c>
       <c r="E260" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,7 +4962,7 @@
         <v>331</v>
       </c>
       <c r="E261" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -4014,7 +4970,7 @@
         <v>331</v>
       </c>
       <c r="E262" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,7 +4978,7 @@
         <v>331</v>
       </c>
       <c r="E263" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -4030,7 +4986,7 @@
         <v>331</v>
       </c>
       <c r="E264" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -4038,7 +4994,7 @@
         <v>331</v>
       </c>
       <c r="E265" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -4046,7 +5002,7 @@
         <v>331</v>
       </c>
       <c r="E266" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -4054,7 +5010,7 @@
         <v>331</v>
       </c>
       <c r="E267" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -4062,7 +5018,7 @@
         <v>331</v>
       </c>
       <c r="E268" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -4070,7 +5026,7 @@
         <v>331</v>
       </c>
       <c r="E269" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -4078,7 +5034,7 @@
         <v>331</v>
       </c>
       <c r="E270" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -4086,7 +5042,7 @@
         <v>331</v>
       </c>
       <c r="E271" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,7 +5050,7 @@
         <v>331</v>
       </c>
       <c r="E272" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -4102,7 +5058,7 @@
         <v>331</v>
       </c>
       <c r="E273" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,7 +5066,7 @@
         <v>331</v>
       </c>
       <c r="E274" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -4118,7 +5074,7 @@
         <v>331</v>
       </c>
       <c r="E275" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -4126,7 +5082,7 @@
         <v>331</v>
       </c>
       <c r="E276" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -4134,7 +5090,7 @@
         <v>331</v>
       </c>
       <c r="E277" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -4142,7 +5098,7 @@
         <v>331</v>
       </c>
       <c r="E278" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,7 +5106,7 @@
         <v>331</v>
       </c>
       <c r="E279" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -4158,7 +5114,7 @@
         <v>331</v>
       </c>
       <c r="E280" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -4169,7 +5125,7 @@
         <v>331</v>
       </c>
       <c r="E281" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -4177,7 +5133,7 @@
         <v>331</v>
       </c>
       <c r="E282" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,7 +5141,7 @@
         <v>331</v>
       </c>
       <c r="E283" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -4193,7 +5149,7 @@
         <v>331</v>
       </c>
       <c r="E284" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -4202,7 +5158,7 @@
         <v>331</v>
       </c>
       <c r="E285" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -4210,7 +5166,7 @@
         <v>331</v>
       </c>
       <c r="E286" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -4218,7 +5174,7 @@
         <v>331</v>
       </c>
       <c r="E287" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -4226,7 +5182,7 @@
         <v>331</v>
       </c>
       <c r="E288" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="4:5" x14ac:dyDescent="0.25">
@@ -4234,7 +5190,7 @@
         <v>331</v>
       </c>
       <c r="E289" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="4:5" x14ac:dyDescent="0.25">
@@ -4242,7 +5198,7 @@
         <v>331</v>
       </c>
       <c r="E290" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="4:5" x14ac:dyDescent="0.25">
@@ -4250,7 +5206,7 @@
         <v>331</v>
       </c>
       <c r="E291" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="4:5" x14ac:dyDescent="0.25">
@@ -4258,7 +5214,7 @@
         <v>331</v>
       </c>
       <c r="E292" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="4:5" x14ac:dyDescent="0.25">
@@ -4266,7 +5222,7 @@
         <v>331</v>
       </c>
       <c r="E293" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="4:5" x14ac:dyDescent="0.25">
@@ -4274,7 +5230,7 @@
         <v>331</v>
       </c>
       <c r="E294" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="4:5" x14ac:dyDescent="0.25">
@@ -4282,7 +5238,7 @@
         <v>331</v>
       </c>
       <c r="E295" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="4:5" x14ac:dyDescent="0.25">
@@ -4290,7 +5246,7 @@
         <v>331</v>
       </c>
       <c r="E296" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="4:5" x14ac:dyDescent="0.25">
@@ -4298,7 +5254,7 @@
         <v>331</v>
       </c>
       <c r="E297" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="4:5" x14ac:dyDescent="0.25">
@@ -4306,7 +5262,7 @@
         <v>331</v>
       </c>
       <c r="E298" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="4:5" x14ac:dyDescent="0.25">
@@ -4314,7 +5270,7 @@
         <v>331</v>
       </c>
       <c r="E299" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="4:5" x14ac:dyDescent="0.25">
@@ -4322,7 +5278,7 @@
         <v>331</v>
       </c>
       <c r="E300" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="4:5" x14ac:dyDescent="0.25">
@@ -4330,7 +5286,7 @@
         <v>331</v>
       </c>
       <c r="E301" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4344,7 +5300,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A543:A1048576 C206 A206 C215 A207:C214 A215 C274 A274 A141:B141 C395 A395 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 C34 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A41:C140 A142:C205 C262 A216:C261 A263:C273 A262 B339:C339 A275:C338 A340:C394 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 A12:A19</xm:sqref>
+          <xm:sqref>A1 A543:A1048576 C206 A206 C215 A207:C214 A215 C274 A274 A141:B141 C395 A395 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 A142:C205 C262 A216:C261 A263:C273 A262 B339:C339 A275:C338 A340:C394 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 A74:A140 B107:C110 B111 C111:C112 B113:C140</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4354,10 +5310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6F3C74-44B5-471F-AE13-9C8CA1826F77}">
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,36 +5347,36 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <f>C2*100/B2</f>
-        <v>50</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" t="e">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <f t="shared" ref="D3:D66" si="0">C3*100/B3</f>
-        <v>#DIV/0!</v>
+        <v>39.024390243902438</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4429,15 +5385,15 @@
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4446,296 +5402,296 @@
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28.260869565217391</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>57.142857142857146</v>
+        <v>28.571428571428573</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>335</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21.739130434782609</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" t="e">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>29.411764705882351</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" t="e">
+        <v>5</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" t="e">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>57.142857142857146</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" t="e">
+        <v>3</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" t="e">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>163</v>
+        <v>394</v>
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" t="e">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" t="e">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" t="e">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" t="e">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>18</v>
+        <v>336</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
@@ -4743,186 +5699,186 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" t="e">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" s="8">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="8">
         <f>COUNTIF(History!A:A,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" t="e">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" t="e">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="8">
         <f>COUNTIF(History!A:A,A28)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" t="e">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="8">
         <f>COUNTIF(History!A:A,A29)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" t="e">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8">
         <f>COUNTIF(History!A:A,A30)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" t="e">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="8">
         <f>COUNTIF(History!A:A,A31)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" t="e">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="8">
         <f>COUNTIF(History!A:A,A32)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" t="e">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C33" s="8">
         <f>COUNTIF(History!A:A,A33)</f>
@@ -4935,28 +5891,28 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C34" s="8">
         <f>COUNTIF(History!A:A,A34)</f>
         <v>0</v>
       </c>
-      <c r="D34" t="e">
+      <c r="D34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="8">
         <f>COUNTIF(History!A:A,A35)</f>
@@ -4969,126 +5925,126 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36" s="8">
         <f>COUNTIF(History!A:A,A36)</f>
         <v>0</v>
       </c>
-      <c r="D36" t="e">
+      <c r="D36">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="8">
         <f>COUNTIF(History!A:A,A37)</f>
         <v>0</v>
       </c>
-      <c r="D37" t="e">
+      <c r="D37">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="8">
         <f>COUNTIF(History!A:A,A38)</f>
         <v>0</v>
       </c>
-      <c r="D38" t="e">
+      <c r="D38">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="8">
         <f>COUNTIF(History!A:A,A39)</f>
         <v>0</v>
       </c>
-      <c r="D39" t="e">
+      <c r="D39">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="8">
         <f>COUNTIF(History!A:A,A40)</f>
         <v>0</v>
       </c>
-      <c r="D40" t="e">
+      <c r="D40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="8">
         <f>COUNTIF(History!A:A,A41)</f>
         <v>0</v>
       </c>
-      <c r="D41" t="e">
+      <c r="D41">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="8">
         <f>COUNTIF(History!A:A,A42)</f>
         <v>0</v>
       </c>
-      <c r="D42" t="e">
+      <c r="D42">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>19</v>
+        <v>343</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
@@ -5105,7 +6061,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>338</v>
+        <v>16</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
@@ -5122,7 +6078,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
@@ -5139,7 +6095,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
@@ -5156,7 +6112,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
@@ -5173,24 +6129,24 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48" s="8">
         <f>COUNTIF(History!A:A,A48)</f>
-        <v>1</v>
-      </c>
-      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="e">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(History!A:C,A49)</f>
@@ -5207,7 +6163,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B50" s="8">
         <f>COUNTIF(History!A:C,A50)</f>
@@ -5224,7 +6180,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B51" s="8">
         <f>COUNTIF(History!A:C,A51)</f>
@@ -5241,7 +6197,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B52" s="8">
         <f>COUNTIF(History!A:C,A52)</f>
@@ -5258,24 +6214,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B53" s="8">
         <f>COUNTIF(History!A:C,A53)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C53" s="8">
         <f>COUNTIF(History!A:A,A53)</f>
-        <v>1</v>
-      </c>
-      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="e">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B54" s="8">
         <f>COUNTIF(History!A:C,A54)</f>
@@ -5292,7 +6248,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B55" s="8">
         <f>COUNTIF(History!A:C,A55)</f>
@@ -5309,7 +6265,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B56" s="8">
         <f>COUNTIF(History!A:C,A56)</f>
@@ -5326,24 +6282,24 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="8">
         <f>COUNTIF(History!A:C,A57)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" s="8">
         <f>COUNTIF(History!A:A,A57)</f>
-        <v>1</v>
-      </c>
-      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="e">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B58" s="8">
         <f>COUNTIF(History!A:C,A58)</f>
@@ -5360,7 +6316,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8">
         <f>COUNTIF(History!A:C,A59)</f>
@@ -5377,7 +6333,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="B60" s="8">
         <f>COUNTIF(History!A:C,A60)</f>
@@ -5394,7 +6350,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B61" s="8">
         <f>COUNTIF(History!A:C,A61)</f>
@@ -5411,7 +6367,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>339</v>
+        <v>48</v>
       </c>
       <c r="B62" s="8">
         <f>COUNTIF(History!A:C,A62)</f>
@@ -5428,7 +6384,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B63" s="8">
         <f>COUNTIF(History!A:C,A63)</f>
@@ -5445,7 +6401,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B64" s="8">
         <f>COUNTIF(History!A:C,A64)</f>
@@ -5462,7 +6418,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="B65" s="8">
         <f>COUNTIF(History!A:C,A65)</f>
@@ -5479,7 +6435,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="B66" s="8">
         <f>COUNTIF(History!A:C,A66)</f>
@@ -5496,7 +6452,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>94</v>
+        <v>338</v>
       </c>
       <c r="B67" s="8">
         <f>COUNTIF(History!A:C,A67)</f>
@@ -5513,7 +6469,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="B68" s="8">
         <f>COUNTIF(History!A:C,A68)</f>
@@ -5530,41 +6486,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="B69" s="8">
         <f>COUNTIF(History!A:C,A69)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="8">
         <f>COUNTIF(History!A:A,A69)</f>
-        <v>1</v>
-      </c>
-      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="e">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B70" s="8">
         <f>COUNTIF(History!A:C,A70)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="8">
         <f>COUNTIF(History!A:A,A70)</f>
-        <v>1</v>
-      </c>
-      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="e">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B71" s="8">
         <f>COUNTIF(History!A:C,A71)</f>
@@ -5581,7 +6537,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B72" s="8">
         <f>COUNTIF(History!A:C,A72)</f>
@@ -5598,7 +6554,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B73" s="8">
         <f>COUNTIF(History!A:C,A73)</f>
@@ -5615,7 +6571,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B74" s="8">
         <f>COUNTIF(History!A:C,A74)</f>
@@ -5632,7 +6588,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="B75" s="8">
         <f>COUNTIF(History!A:C,A75)</f>
@@ -5649,7 +6605,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="8">
         <f>COUNTIF(History!A:C,A76)</f>
@@ -5666,7 +6622,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B77" s="8">
         <f>COUNTIF(History!A:C,A77)</f>
@@ -5683,7 +6639,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="B78" s="8">
         <f>COUNTIF(History!A:C,A78)</f>
@@ -5700,7 +6656,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B79" s="8">
         <f>COUNTIF(History!A:C,A79)</f>
@@ -5717,7 +6673,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="B80" s="8">
         <f>COUNTIF(History!A:C,A80)</f>
@@ -5734,7 +6690,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="B81" s="8">
         <f>COUNTIF(History!A:C,A81)</f>
@@ -5751,7 +6707,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="B82" s="8">
         <f>COUNTIF(History!A:C,A82)</f>
@@ -5768,7 +6724,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B83" s="8">
         <f>COUNTIF(History!A:C,A83)</f>
@@ -5785,7 +6741,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B84" s="8">
         <f>COUNTIF(History!A:C,A84)</f>
@@ -5802,7 +6758,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B85" s="8">
         <f>COUNTIF(History!A:C,A85)</f>
@@ -5819,7 +6775,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B86" s="8">
         <f>COUNTIF(History!A:C,A86)</f>
@@ -5836,7 +6792,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B87" s="8">
         <f>COUNTIF(History!A:C,A87)</f>
@@ -5853,24 +6809,24 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B88" s="8">
         <f>COUNTIF(History!A:C,A88)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C88" s="8">
         <f>COUNTIF(History!A:A,A88)</f>
-        <v>1</v>
-      </c>
-      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="e">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B89" s="8">
         <f>COUNTIF(History!A:C,A89)</f>
@@ -5887,7 +6843,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B90" s="8">
         <f>COUNTIF(History!A:C,A90)</f>
@@ -5904,7 +6860,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B91" s="8">
         <f>COUNTIF(History!A:C,A91)</f>
@@ -5921,7 +6877,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B92" s="8">
         <f>COUNTIF(History!A:C,A92)</f>
@@ -5938,7 +6894,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="B93" s="8">
         <f>COUNTIF(History!A:C,A93)</f>
@@ -5955,7 +6911,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="B94" s="8">
         <f>COUNTIF(History!A:C,A94)</f>
@@ -5972,24 +6928,24 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B95" s="8">
         <f>COUNTIF(History!A:C,A95)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" s="8">
         <f>COUNTIF(History!A:A,A95)</f>
         <v>0</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="B96" s="8">
         <f>COUNTIF(History!A:C,A96)</f>
@@ -6006,7 +6962,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="B97" s="8">
         <f>COUNTIF(History!A:C,A97)</f>
@@ -6023,7 +6979,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>340</v>
+        <v>56</v>
       </c>
       <c r="B98" s="8">
         <f>COUNTIF(History!A:C,A98)</f>
@@ -6040,7 +6996,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="B99" s="8">
         <f>COUNTIF(History!A:C,A99)</f>
@@ -6057,7 +7013,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B100" s="8">
         <f>COUNTIF(History!A:C,A100)</f>
@@ -6074,7 +7030,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B101" s="8">
         <f>COUNTIF(History!A:C,A101)</f>
@@ -6091,7 +7047,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>341</v>
+        <v>141</v>
       </c>
       <c r="B102" s="8">
         <f>COUNTIF(History!A:C,A102)</f>
@@ -6108,7 +7064,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="B103" s="8">
         <f>COUNTIF(History!A:C,A103)</f>
@@ -6125,7 +7081,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B104" s="8">
         <f>COUNTIF(History!A:C,A104)</f>
@@ -6142,7 +7098,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="B105" s="8">
         <f>COUNTIF(History!A:C,A105)</f>
@@ -6159,7 +7115,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="B106" s="8">
         <f>COUNTIF(History!A:C,A106)</f>
@@ -6176,7 +7132,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="B107" s="8">
         <f>COUNTIF(History!A:C,A107)</f>
@@ -6193,7 +7149,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B108" s="8">
         <f>COUNTIF(History!A:C,A108)</f>
@@ -6210,7 +7166,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="B109" s="8">
         <f>COUNTIF(History!A:C,A109)</f>
@@ -6227,7 +7183,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="B110" s="8">
         <f>COUNTIF(History!A:C,A110)</f>
@@ -6244,7 +7200,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B111" s="8">
         <f>COUNTIF(History!A:C,A111)</f>
@@ -6261,7 +7217,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B112" s="8">
         <f>COUNTIF(History!A:C,A112)</f>
@@ -6278,7 +7234,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B113" s="8">
         <f>COUNTIF(History!A:C,A113)</f>
@@ -6295,7 +7251,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="B114" s="8">
         <f>COUNTIF(History!A:C,A114)</f>
@@ -6312,7 +7268,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="B115" s="8">
         <f>COUNTIF(History!A:C,A115)</f>
@@ -6329,7 +7285,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B116" s="8">
         <f>COUNTIF(History!A:C,A116)</f>
@@ -6346,7 +7302,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="B117" s="8">
         <f>COUNTIF(History!A:C,A117)</f>
@@ -6363,7 +7319,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B118" s="8">
         <f>COUNTIF(History!A:C,A118)</f>
@@ -6380,7 +7336,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B119" s="8">
         <f>COUNTIF(History!A:C,A119)</f>
@@ -6397,7 +7353,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="B120" s="8">
         <f>COUNTIF(History!A:C,A120)</f>
@@ -6414,7 +7370,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B121" s="8">
         <f>COUNTIF(History!A:C,A121)</f>
@@ -6431,7 +7387,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="B122" s="8">
         <f>COUNTIF(History!A:C,A122)</f>
@@ -6448,7 +7404,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="B123" s="8">
         <f>COUNTIF(History!A:C,A123)</f>
@@ -6465,7 +7421,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B124" s="8">
         <f>COUNTIF(History!A:C,A124)</f>
@@ -6482,7 +7438,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="B125" s="8">
         <f>COUNTIF(History!A:C,A125)</f>
@@ -6499,7 +7455,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="B126" s="8">
         <f>COUNTIF(History!A:C,A126)</f>
@@ -6516,7 +7472,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="B127" s="8">
         <f>COUNTIF(History!A:C,A127)</f>
@@ -6533,7 +7489,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="B128" s="8">
         <f>COUNTIF(History!A:C,A128)</f>
@@ -6550,7 +7506,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B129" s="8">
         <f>COUNTIF(History!A:C,A129)</f>
@@ -6567,7 +7523,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B130" s="8">
         <f>COUNTIF(History!A:C,A130)</f>
@@ -6584,7 +7540,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B131" s="8">
         <f>COUNTIF(History!A:C,A131)</f>
@@ -6601,7 +7557,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="B132" s="8">
         <f>COUNTIF(History!A:C,A132)</f>
@@ -6618,7 +7574,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B133" s="8">
         <f>COUNTIF(History!A:C,A133)</f>
@@ -6635,7 +7591,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c r="B134" s="8">
         <f>COUNTIF(History!A:C,A134)</f>
@@ -6652,7 +7608,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>344</v>
+        <v>175</v>
       </c>
       <c r="B135" s="8">
         <f>COUNTIF(History!A:C,A135)</f>
@@ -6669,7 +7625,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B136" s="8">
         <f>COUNTIF(History!A:C,A136)</f>
@@ -6686,7 +7642,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="B137" s="8">
         <f>COUNTIF(History!A:C,A137)</f>
@@ -6703,7 +7659,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B138" s="8">
         <f>COUNTIF(History!A:C,A138)</f>
@@ -6720,7 +7676,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>60</v>
+        <v>265</v>
       </c>
       <c r="B139" s="8">
         <f>COUNTIF(History!A:C,A139)</f>
@@ -6737,7 +7693,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="B140" s="8">
         <f>COUNTIF(History!A:C,A140)</f>
@@ -6754,7 +7710,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="B141" s="8">
         <f>COUNTIF(History!A:C,A141)</f>
@@ -6771,7 +7727,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B142" s="8">
         <f>COUNTIF(History!A:C,A142)</f>
@@ -6788,7 +7744,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B143" s="8">
         <f>COUNTIF(History!A:C,A143)</f>
@@ -6805,7 +7761,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B144" s="8">
         <f>COUNTIF(History!A:C,A144)</f>
@@ -6822,7 +7778,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B145" s="8">
         <f>COUNTIF(History!A:C,A145)</f>
@@ -6839,7 +7795,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B146" s="8">
         <f>COUNTIF(History!A:C,A146)</f>
@@ -6856,7 +7812,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="B147" s="8">
         <f>COUNTIF(History!A:C,A147)</f>
@@ -6873,14 +7829,14 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="B148" s="8">
-        <f>COUNTIF(History!A:C,#REF!)</f>
+        <f>COUNTIF(History!A:C,A148)</f>
         <v>0</v>
       </c>
       <c r="C148" s="8">
-        <f>COUNTIF(History!A:A,#REF!)</f>
+        <f>COUNTIF(History!A:A,A148)</f>
         <v>0</v>
       </c>
       <c r="D148" t="e">
@@ -6890,14 +7846,14 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="B149" s="8">
-        <f>COUNTIF(History!A:C,#REF!)</f>
+        <f>COUNTIF(History!A:C,A149)</f>
         <v>0</v>
       </c>
       <c r="C149" s="8">
-        <f>COUNTIF(History!A:A,#REF!)</f>
+        <f>COUNTIF(History!A:A,A149)</f>
         <v>0</v>
       </c>
       <c r="D149" t="e">
@@ -6907,7 +7863,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="B150" s="8">
         <f>COUNTIF(History!A:C,A150)</f>
@@ -6924,14 +7880,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="B151" s="8">
-        <f>COUNTIF(History!A:C,A151)</f>
+        <f>COUNTIF(History!A:C,#REF!)</f>
         <v>0</v>
       </c>
       <c r="C151" s="8">
-        <f>COUNTIF(History!A:A,A151)</f>
+        <f>COUNTIF(History!A:A,#REF!)</f>
         <v>0</v>
       </c>
       <c r="D151" t="e">
@@ -6941,14 +7897,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="B152" s="8">
-        <f>COUNTIF(History!A:C,A152)</f>
+        <f>COUNTIF(History!A:C,#REF!)</f>
         <v>0</v>
       </c>
       <c r="C152" s="8">
-        <f>COUNTIF(History!A:A,A152)</f>
+        <f>COUNTIF(History!A:A,#REF!)</f>
         <v>0</v>
       </c>
       <c r="D152" t="e">
@@ -6958,7 +7914,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="B153" s="8">
         <f>COUNTIF(History!A:C,A153)</f>
@@ -6975,7 +7931,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="B154" s="8">
         <f>COUNTIF(History!A:C,A154)</f>
@@ -6992,7 +7948,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B155" s="8">
         <f>COUNTIF(History!A:C,A155)</f>
@@ -7009,7 +7965,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="B156" s="8">
         <f>COUNTIF(History!A:C,A156)</f>
@@ -7026,7 +7982,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="B157" s="8">
         <f>COUNTIF(History!A:C,A157)</f>
@@ -7043,7 +7999,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B158" s="8">
         <f>COUNTIF(History!A:C,A158)</f>
@@ -7060,7 +8016,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B159" s="8">
         <f>COUNTIF(History!A:C,A159)</f>
@@ -7077,7 +8033,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="B160" s="8">
         <f>COUNTIF(History!A:C,A160)</f>
@@ -7094,7 +8050,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B161" s="8">
         <f>COUNTIF(History!A:C,A161)</f>
@@ -7111,7 +8067,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B162" s="8">
         <f>COUNTIF(History!A:C,A162)</f>
@@ -7128,7 +8084,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>276</v>
+        <v>147</v>
       </c>
       <c r="B163" s="8">
         <f>COUNTIF(History!A:C,A163)</f>
@@ -7145,7 +8101,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="B164" s="8">
         <f>COUNTIF(History!A:C,A164)</f>
@@ -7162,7 +8118,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="B165" s="8">
         <f>COUNTIF(History!A:C,A165)</f>
@@ -7179,7 +8135,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>138</v>
+        <v>345</v>
       </c>
       <c r="B166" s="8">
         <f>COUNTIF(History!A:C,A166)</f>
@@ -7196,7 +8152,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="B167" s="8">
         <f>COUNTIF(History!A:C,A167)</f>
@@ -7213,7 +8169,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="B168" s="8">
         <f>COUNTIF(History!A:C,A168)</f>
@@ -7230,7 +8186,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B169" s="8">
         <f>COUNTIF(History!A:C,A169)</f>
@@ -7247,7 +8203,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="B170" s="8">
         <f>COUNTIF(History!A:C,A170)</f>
@@ -7264,7 +8220,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="B171" s="8">
         <f>COUNTIF(History!A:C,A171)</f>
@@ -7281,7 +8237,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="B172" s="8">
         <f>COUNTIF(History!A:C,A172)</f>
@@ -7298,7 +8254,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B173" s="8">
         <f>COUNTIF(History!A:C,A173)</f>
@@ -7315,7 +8271,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B174" s="8">
         <f>COUNTIF(History!A:C,A174)</f>
@@ -7332,7 +8288,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B175" s="8">
         <f>COUNTIF(History!A:C,A175)</f>
@@ -7349,7 +8305,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="B176" s="8">
         <f>COUNTIF(History!A:C,A176)</f>
@@ -7366,7 +8322,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="B177" s="8">
         <f>COUNTIF(History!A:C,A177)</f>
@@ -7383,7 +8339,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B178" s="8">
         <f>COUNTIF(History!A:C,A178)</f>
@@ -7400,7 +8356,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="B179" s="8">
         <f>COUNTIF(History!A:C,A179)</f>
@@ -7417,7 +8373,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="B180" s="8">
         <f>COUNTIF(History!A:C,A180)</f>
@@ -7434,7 +8390,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>185</v>
+        <v>346</v>
       </c>
       <c r="B181" s="8">
         <f>COUNTIF(History!A:C,A181)</f>
@@ -7451,7 +8407,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="B182" s="8">
         <f>COUNTIF(History!A:C,A182)</f>
@@ -7468,7 +8424,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B183" s="8">
         <f>COUNTIF(History!A:C,A183)</f>
@@ -7485,7 +8441,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>292</v>
+        <v>145</v>
       </c>
       <c r="B184" s="8">
         <f>COUNTIF(History!A:C,A184)</f>
@@ -7502,7 +8458,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B185" s="8">
         <f>COUNTIF(History!A:C,A185)</f>
@@ -7519,7 +8475,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="B186" s="8">
         <f>COUNTIF(History!A:C,A186)</f>
@@ -7536,7 +8492,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="B187" s="8">
         <f>COUNTIF(History!A:C,A187)</f>
@@ -7553,7 +8509,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B188" s="8">
         <f>COUNTIF(History!A:C,A188)</f>
@@ -7570,7 +8526,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="B189" s="8">
         <f>COUNTIF(History!A:C,A189)</f>
@@ -7587,7 +8543,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B190" s="8">
         <f>COUNTIF(History!A:C,A190)</f>
@@ -7604,7 +8560,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>347</v>
+        <v>177</v>
       </c>
       <c r="B191" s="8">
         <f>COUNTIF(History!A:C,A191)</f>
@@ -7621,7 +8577,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="B192" s="8">
         <f>COUNTIF(History!A:C,A192)</f>
@@ -7638,7 +8594,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="B193" s="8">
         <f>COUNTIF(History!A:C,A193)</f>
@@ -7655,7 +8611,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="B194" s="8">
         <f>COUNTIF(History!A:C,A194)</f>
@@ -7672,7 +8628,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B195" s="8">
         <f>COUNTIF(History!A:C,A195)</f>
@@ -7689,7 +8645,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="B196" s="8">
         <f>COUNTIF(History!A:C,A196)</f>
@@ -7706,7 +8662,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="B197" s="8">
         <f>COUNTIF(History!A:C,A197)</f>
@@ -7723,7 +8679,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="B198" s="8">
         <f>COUNTIF(History!A:C,A198)</f>
@@ -7740,7 +8696,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B199" s="8">
         <f>COUNTIF(History!A:C,A199)</f>
@@ -7757,7 +8713,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="B200" s="8">
         <f>COUNTIF(History!A:C,A200)</f>
@@ -7774,7 +8730,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="B201" s="8">
         <f>COUNTIF(History!A:C,A201)</f>
@@ -7791,7 +8747,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B202" s="8">
         <f>COUNTIF(History!A:C,A202)</f>
@@ -7808,7 +8764,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="B203" s="8">
         <f>COUNTIF(History!A:C,A203)</f>
@@ -7825,7 +8781,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>284</v>
+        <v>180</v>
       </c>
       <c r="B204" s="8">
         <f>COUNTIF(History!A:C,A204)</f>
@@ -7842,7 +8798,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="B205" s="8">
         <f>COUNTIF(History!A:C,A205)</f>
@@ -7859,7 +8815,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="B206" s="8">
         <f>COUNTIF(History!A:C,A206)</f>
@@ -7876,7 +8832,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B207" s="8">
         <f>COUNTIF(History!A:C,A207)</f>
@@ -7893,7 +8849,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>348</v>
+        <v>93</v>
       </c>
       <c r="B208" s="8">
         <f>COUNTIF(History!A:C,A208)</f>
@@ -7910,7 +8866,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="B209" s="8">
         <f>COUNTIF(History!A:C,A209)</f>
@@ -7927,7 +8883,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="B210" s="8">
         <f>COUNTIF(History!A:C,A210)</f>
@@ -7944,7 +8900,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>349</v>
+        <v>243</v>
       </c>
       <c r="B211" s="8">
         <f>COUNTIF(History!A:C,A211)</f>
@@ -7961,7 +8917,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="B212" s="8">
         <f>COUNTIF(History!A:C,A212)</f>
@@ -7978,7 +8934,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B213" s="8">
         <f>COUNTIF(History!A:C,A213)</f>
@@ -7995,7 +8951,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>281</v>
+        <v>142</v>
       </c>
       <c r="B214" s="8">
         <f>COUNTIF(History!A:C,A214)</f>
@@ -8012,7 +8968,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="B215" s="8">
         <f>COUNTIF(History!A:C,A215)</f>
@@ -8029,7 +8985,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="B216" s="8">
         <f>COUNTIF(History!A:C,A216)</f>
@@ -8046,7 +9002,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="B217" s="8">
         <f>COUNTIF(History!A:C,A217)</f>
@@ -8063,7 +9019,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="B218" s="8">
         <f>COUNTIF(History!A:C,A218)</f>
@@ -8080,7 +9036,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="B219" s="8">
         <f>COUNTIF(History!A:C,A219)</f>
@@ -8097,7 +9053,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B220" s="8">
         <f>COUNTIF(History!A:C,A220)</f>
@@ -8114,7 +9070,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="B221" s="8">
         <f>COUNTIF(History!A:C,A221)</f>
@@ -8131,7 +9087,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B222" s="8">
         <f>COUNTIF(History!A:C,A222)</f>
@@ -8148,7 +9104,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="B223" s="8">
         <f>COUNTIF(History!A:C,A223)</f>
@@ -8165,7 +9121,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="B224" s="8">
         <f>COUNTIF(History!A:C,A224)</f>
@@ -8182,7 +9138,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B225" s="8">
         <f>COUNTIF(History!A:C,A225)</f>
@@ -8199,7 +9155,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B226" s="8">
         <f>COUNTIF(History!A:C,A226)</f>
@@ -8216,7 +9172,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
-        <v>273</v>
+        <v>126</v>
       </c>
       <c r="B227" s="8">
         <f>COUNTIF(History!A:C,A227)</f>
@@ -8233,7 +9189,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="B228" s="8">
         <f>COUNTIF(History!A:C,A228)</f>
@@ -8250,7 +9206,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B229" s="8">
         <f>COUNTIF(History!A:C,A229)</f>
@@ -8267,7 +9223,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="B230" s="8">
         <f>COUNTIF(History!A:C,A230)</f>
@@ -8284,7 +9240,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="B231" s="8">
         <f>COUNTIF(History!A:C,A231)</f>
@@ -8301,7 +9257,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="B232" s="8">
         <f>COUNTIF(History!A:C,A232)</f>
@@ -8318,7 +9274,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="B233" s="8">
         <f>COUNTIF(History!A:C,A233)</f>
@@ -8335,7 +9291,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
-        <v>198</v>
+        <v>350</v>
       </c>
       <c r="B234" s="8">
         <f>COUNTIF(History!A:C,A234)</f>
@@ -8352,7 +9308,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="B235" s="8">
         <f>COUNTIF(History!A:C,A235)</f>
@@ -8369,7 +9325,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="B236" s="8">
         <f>COUNTIF(History!A:C,A236)</f>
@@ -8386,7 +9342,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="B237" s="8">
         <f>COUNTIF(History!A:C,A237)</f>
@@ -8403,7 +9359,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="B238" s="8">
         <f>COUNTIF(History!A:C,A238)</f>
@@ -8420,7 +9376,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="B239" s="8">
         <f>COUNTIF(History!A:C,A239)</f>
@@ -8437,7 +9393,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="B240" s="8">
         <f>COUNTIF(History!A:C,A240)</f>
@@ -8454,7 +9410,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="B241" s="8">
         <f>COUNTIF(History!A:C,A241)</f>
@@ -8471,7 +9427,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="B242" s="8">
         <f>COUNTIF(History!A:C,A242)</f>
@@ -8488,7 +9444,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B243" s="8">
         <f>COUNTIF(History!A:C,A243)</f>
@@ -8505,7 +9461,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="B244" s="8">
         <f>COUNTIF(History!A:C,A244)</f>
@@ -8522,7 +9478,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="B245" s="8">
         <f>COUNTIF(History!A:C,A245)</f>
@@ -8539,7 +9495,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B246" s="8">
         <f>COUNTIF(History!A:C,A246)</f>
@@ -8556,7 +9512,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="B247" s="8">
         <f>COUNTIF(History!A:C,A247)</f>
@@ -8573,7 +9529,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="B248" s="8">
         <f>COUNTIF(History!A:C,A248)</f>
@@ -8590,7 +9546,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B249" s="8">
         <f>COUNTIF(History!A:C,A249)</f>
@@ -8607,7 +9563,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="B250" s="8">
         <f>COUNTIF(History!A:C,A250)</f>
@@ -8624,7 +9580,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="B251" s="8">
         <f>COUNTIF(History!A:C,A251)</f>
@@ -8641,7 +9597,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="B252" s="8">
         <f>COUNTIF(History!A:C,A252)</f>
@@ -8658,7 +9614,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
       <c r="B253" s="8">
         <f>COUNTIF(History!A:C,A253)</f>
@@ -8675,7 +9631,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="B254" s="8">
         <f>COUNTIF(History!A:C,A254)</f>
@@ -8692,7 +9648,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B255" s="8">
         <f>COUNTIF(History!A:C,A255)</f>
@@ -8709,7 +9665,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B256" s="8">
         <f>COUNTIF(History!A:C,A256)</f>
@@ -8726,7 +9682,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="B257" s="8">
         <f>COUNTIF(History!A:C,A257)</f>
@@ -8743,7 +9699,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
-        <v>264</v>
+        <v>137</v>
       </c>
       <c r="B258" s="8">
         <f>COUNTIF(History!A:C,A258)</f>
@@ -8760,7 +9716,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="B259" s="8">
         <f>COUNTIF(History!A:C,A259)</f>
@@ -8777,7 +9733,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="B260" s="8">
         <f>COUNTIF(History!A:C,A260)</f>
@@ -8794,7 +9750,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="B261" s="8">
         <f>COUNTIF(History!A:C,A261)</f>
@@ -8811,7 +9767,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="B262" s="8">
         <f>COUNTIF(History!A:C,A262)</f>
@@ -8828,7 +9784,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B263" s="8">
         <f>COUNTIF(History!A:C,A263)</f>
@@ -8845,7 +9801,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="B264" s="8">
         <f>COUNTIF(History!A:C,A264)</f>
@@ -8862,7 +9818,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="B265" s="8">
         <f>COUNTIF(History!A:C,A265)</f>
@@ -8879,7 +9835,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="B266" s="8">
         <f>COUNTIF(History!A:C,A266)</f>
@@ -8896,7 +9852,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="B267" s="8">
         <f>COUNTIF(History!A:C,A267)</f>
@@ -8913,7 +9869,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="B268" s="8">
         <f>COUNTIF(History!A:C,A268)</f>
@@ -8930,7 +9886,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="B269" s="8">
         <f>COUNTIF(History!A:C,A269)</f>
@@ -8947,7 +9903,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="B270" s="8">
         <f>COUNTIF(History!A:C,A270)</f>
@@ -8964,7 +9920,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="B271" s="8">
         <f>COUNTIF(History!A:C,A271)</f>
@@ -8981,7 +9937,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="B272" s="8">
         <f>COUNTIF(History!A:C,A272)</f>
@@ -8998,7 +9954,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="B273" s="8">
         <f>COUNTIF(History!A:C,A273)</f>
@@ -9015,7 +9971,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="B274" s="8">
         <f>COUNTIF(History!A:C,A274)</f>
@@ -9032,7 +9988,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="B275" s="8">
         <f>COUNTIF(History!A:C,A275)</f>
@@ -9049,7 +10005,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B276" s="8">
         <f>COUNTIF(History!A:C,A276)</f>
@@ -9066,7 +10022,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B277" s="8">
         <f>COUNTIF(History!A:C,A277)</f>
@@ -9083,7 +10039,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B278" s="8">
         <f>COUNTIF(History!A:C,A278)</f>
@@ -9100,7 +10056,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B279" s="8">
         <f>COUNTIF(History!A:C,A279)</f>
@@ -9117,7 +10073,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="B280" s="8">
         <f>COUNTIF(History!A:C,A280)</f>
@@ -9134,7 +10090,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="8" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="B281" s="8">
         <f>COUNTIF(History!A:C,A281)</f>
@@ -9151,7 +10107,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="B282" s="8">
         <f>COUNTIF(History!A:C,A282)</f>
@@ -9168,7 +10124,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="B283" s="8">
         <f>COUNTIF(History!A:C,A283)</f>
@@ -9185,7 +10141,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
-        <v>306</v>
+        <v>195</v>
       </c>
       <c r="B284" s="8">
         <f>COUNTIF(History!A:C,A284)</f>
@@ -9202,7 +10158,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B285" s="8">
         <f>COUNTIF(History!A:C,A285)</f>
@@ -9219,7 +10175,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B286" s="8">
         <f>COUNTIF(History!A:C,A286)</f>
@@ -9236,7 +10192,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="8" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="B287" s="8">
         <f>COUNTIF(History!A:C,A287)</f>
@@ -9253,7 +10209,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="s">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="B288" s="8">
         <f>COUNTIF(History!A:C,A288)</f>
@@ -9270,7 +10226,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="8" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B289" s="8">
         <f>COUNTIF(History!A:C,A289)</f>
@@ -9287,7 +10243,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="B290" s="8">
         <f>COUNTIF(History!A:C,A290)</f>
@@ -9304,7 +10260,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="8" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="B291" s="8">
         <f>COUNTIF(History!A:C,A291)</f>
@@ -9321,7 +10277,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="B292" s="8">
         <f>COUNTIF(History!A:C,A292)</f>
@@ -9338,7 +10294,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="B293" s="8">
         <f>COUNTIF(History!A:C,A293)</f>
@@ -9355,7 +10311,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B294" s="8">
         <f>COUNTIF(History!A:C,A294)</f>
@@ -9372,7 +10328,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="B295" s="8">
         <f>COUNTIF(History!A:C,A295)</f>
@@ -9389,7 +10345,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="B296" s="8">
         <f>COUNTIF(History!A:C,A296)</f>
@@ -9406,7 +10362,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B297" s="8">
         <f>COUNTIF(History!A:C,A297)</f>
@@ -9423,7 +10379,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B298" s="8">
         <f>COUNTIF(History!A:C,A298)</f>
@@ -9440,7 +10396,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="B299" s="8">
         <f>COUNTIF(History!A:C,A299)</f>
@@ -9457,7 +10413,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B300" s="8">
         <f>COUNTIF(History!A:C,A300)</f>
@@ -9474,7 +10430,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="8" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="B301" s="8">
         <f>COUNTIF(History!A:C,A301)</f>
@@ -9491,7 +10447,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="B302" s="8">
         <f>COUNTIF(History!A:C,A302)</f>
@@ -9508,7 +10464,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="B303" s="8">
         <f>COUNTIF(History!A:C,A303)</f>
@@ -9525,7 +10481,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B304" s="8">
         <f>COUNTIF(History!A:C,A304)</f>
@@ -9542,7 +10498,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="B305" s="8">
         <f>COUNTIF(History!A:C,A305)</f>
@@ -9559,7 +10515,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="B306" s="8">
         <f>COUNTIF(History!A:C,A306)</f>
@@ -9576,7 +10532,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="8" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="B307" s="8">
         <f>COUNTIF(History!A:C,A307)</f>
@@ -9593,7 +10549,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="B308" s="8">
         <f>COUNTIF(History!A:C,A308)</f>
@@ -9610,7 +10566,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="B309" s="8">
         <f>COUNTIF(History!A:C,A309)</f>
@@ -9627,7 +10583,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B310" s="8">
         <f>COUNTIF(History!A:C,A310)</f>
@@ -9644,7 +10600,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="B311" s="8">
         <f>COUNTIF(History!A:C,A311)</f>
@@ -9661,7 +10617,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="B312" s="8">
         <f>COUNTIF(History!A:C,A312)</f>
@@ -9678,7 +10634,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="B313" s="8">
         <f>COUNTIF(History!A:C,A313)</f>
@@ -9695,7 +10651,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="B314" s="8">
         <f>COUNTIF(History!A:C,A314)</f>
@@ -9712,7 +10668,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B315" s="8">
         <f>COUNTIF(History!A:C,A315)</f>
@@ -9729,7 +10685,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B316" s="8">
         <f>COUNTIF(History!A:C,A316)</f>
@@ -9746,7 +10702,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="8" t="s">
-        <v>172</v>
+        <v>320</v>
       </c>
       <c r="B317" s="8">
         <f>COUNTIF(History!A:C,A317)</f>
@@ -9763,7 +10719,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="s">
-        <v>298</v>
+        <v>172</v>
       </c>
       <c r="B318" s="8">
         <f>COUNTIF(History!A:C,A318)</f>
@@ -9780,7 +10736,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="B319" s="8">
         <f>COUNTIF(History!A:C,A319)</f>
@@ -9797,7 +10753,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="B320" s="8">
         <f>COUNTIF(History!A:C,A320)</f>
@@ -9814,7 +10770,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B321" s="8">
         <f>COUNTIF(History!A:C,A321)</f>
@@ -9831,7 +10787,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B322" s="8">
         <f>COUNTIF(History!A:C,A322)</f>
@@ -9848,7 +10804,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="8" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="B323" s="8">
         <f>COUNTIF(History!A:C,A323)</f>
@@ -9865,7 +10821,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B324" s="8">
         <f>COUNTIF(History!A:C,A324)</f>
@@ -9882,7 +10838,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B325" s="8">
         <f>COUNTIF(History!A:C,A325)</f>
@@ -9899,7 +10855,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B326" s="8">
         <f>COUNTIF(History!A:C,A326)</f>
@@ -9916,7 +10872,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="B327" s="8">
         <f>COUNTIF(History!A:C,A327)</f>
@@ -9933,7 +10889,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="B328" s="8">
         <f>COUNTIF(History!A:C,A328)</f>
@@ -9950,7 +10906,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B329" s="8">
         <f>COUNTIF(History!A:C,A329)</f>
@@ -9967,7 +10923,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="B330" s="8">
         <f>COUNTIF(History!A:C,A330)</f>
@@ -9984,7 +10940,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="B331" s="8">
         <f>COUNTIF(History!A:C,A331)</f>
@@ -10001,7 +10957,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="B332" s="8">
         <f>COUNTIF(History!A:C,A332)</f>
@@ -10018,7 +10974,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B333" s="8">
         <f>COUNTIF(History!A:C,A333)</f>
@@ -10035,7 +10991,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="B334" s="8">
         <f>COUNTIF(History!A:C,A334)</f>
@@ -10052,7 +11008,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
-        <v>239</v>
+        <v>328</v>
       </c>
       <c r="B335" s="8">
         <f>COUNTIF(History!A:C,A335)</f>
@@ -10069,7 +11025,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B336" s="8">
         <f>COUNTIF(History!A:C,A336)</f>
@@ -10086,7 +11042,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="B337" s="8">
         <f>COUNTIF(History!A:C,A337)</f>
@@ -10103,7 +11059,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B338" s="8">
         <f>COUNTIF(History!A:C,A338)</f>
@@ -10120,7 +11076,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B339" s="8">
         <f>COUNTIF(History!A:C,A339)</f>
@@ -10137,7 +11093,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B340" s="8">
         <f>COUNTIF(History!A:C,A340)</f>
@@ -10154,7 +11110,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B341" s="8">
         <f>COUNTIF(History!A:C,A341)</f>
@@ -10171,7 +11127,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="B342" s="8">
         <f>COUNTIF(History!A:C,A342)</f>
@@ -10188,7 +11144,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="8" t="s">
-        <v>170</v>
+        <v>329</v>
       </c>
       <c r="B343" s="8">
         <f>COUNTIF(History!A:C,A343)</f>
@@ -10203,9 +11159,26 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B344" s="8">
+        <f>COUNTIF(History!A:C,A344)</f>
+        <v>0</v>
+      </c>
+      <c r="C344" s="8">
+        <f>COUNTIF(History!A:A,A344)</f>
+        <v>0</v>
+      </c>
+      <c r="D344" t="e">
+        <f t="shared" ref="D344" si="6">C344*100/B344</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{B7BFFF1C-AC35-4424-B8F4-04250131A25E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C549">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C344">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
@@ -10219,7 +11192,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10238,151 +11211,151 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>cresselia:4</v>
+        <v>registeel:17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>cresselia:4,swampert_shadow:0</v>
+        <v>registeel:17,cresselia:16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0,venusaur_shadow:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0,venusaur_shadow:0,virizion:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0,venusaur_shadow:0,virizion:0,raikou_shadow:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:1</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:1,regice:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1,scizor:1</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:1,regice:0,clefable:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1,scizor:1,lucario:1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!C25)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:1,regice:0,clefable:0,meganium:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1,scizor:1,lucario:1,heracross:1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!C26)</f>
-        <v>cresselia:4,swampert_shadow:0,giratina_altered:3,swampert:3,registeel:4,articuno:0,mewtwo_armored:1,venusaur:0,lapras:2,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:0,machamp:0,regirock:0,snorlax:0,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:1,regice:0,clefable:0,meganium:0,escavalier:0</v>
+        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1,scizor:1,lucario:1,heracross:1,blaziken:1</v>
       </c>
     </row>
   </sheetData>
@@ -10396,7 +11369,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10412,151 +11385,151 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>cresselia:8</v>
+        <v>registeel:40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>cresselia:8,swampert_shadow:0</v>
+        <v>registeel:40,cresselia:41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3,venusaur_shadow:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3,venusaur_shadow:0,virizion:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3,venusaur_shadow:0,virizion:0,raikou_shadow:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:6</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:6,regice:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4,scizor:4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!B24,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:6,regice:0,clefable:1</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4,scizor:4,lucario:4</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!B25,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:6,regice:0,clefable:1,meganium:3</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4,scizor:4,lucario:4,heracross:1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!B26,)</f>
-        <v>cresselia:8,swampert_shadow:0,giratina_altered:8,swampert:10,registeel:7,articuno:2,mewtwo_armored:5,venusaur:0,lapras:3,zapdos_shadow:0,heracross:1,articuno_shadow:0,giratina_origin:1,machamp:0,regirock:0,snorlax:3,venusaur_shadow:0,virizion:0,raikou_shadow:0,hariyama:0,muk_alolan:6,regice:0,clefable:1,meganium:3,escavalier:0</v>
+        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4,scizor:4,lucario:4,heracross:1,blaziken:1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Ultra - Season 02.xlsx
+++ b/src/main/resources/data/Ultra - Season 02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E435495-8933-4E00-9615-2FA598FA332C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464E9223-D725-4AA4-AE76-7EA8C05A8DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="408">
   <si>
     <t>Lead</t>
   </si>
@@ -1241,6 +1241,30 @@
   </si>
   <si>
     <t>Infernape</t>
+  </si>
+  <si>
+    <t>Muk</t>
+  </si>
+  <si>
+    <t>Hariyama</t>
+  </si>
+  <si>
+    <t>Victreebel</t>
+  </si>
+  <si>
+    <t>Mew</t>
+  </si>
+  <si>
+    <t>Stunfisk</t>
+  </si>
+  <si>
+    <t>Cobalion</t>
+  </si>
+  <si>
+    <t>Glaceon</t>
+  </si>
+  <si>
+    <t>Lickilicky</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,6 +3892,15 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D131" s="9" t="s">
         <v>331</v>
       </c>
@@ -3876,6 +3909,15 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D132" s="9" t="s">
         <v>331</v>
       </c>
@@ -3884,14 +3926,32 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D133" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E133" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D134" s="9" t="s">
         <v>331</v>
       </c>
@@ -3900,22 +3960,49 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="D135" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E135" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D136" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E136" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D137" s="9" t="s">
         <v>331</v>
       </c>
@@ -3924,9 +4011,15 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
+      <c r="A138" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>366</v>
+      </c>
       <c r="D138" s="9" t="s">
         <v>331</v>
       </c>
@@ -3935,14 +4028,32 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D139" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E139" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="D140" s="9" t="s">
         <v>331</v>
       </c>
@@ -3951,22 +4062,49 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D141" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E141" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D142" s="9" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="E142" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D143" s="9" t="s">
         <v>331</v>
       </c>
@@ -3975,49 +4113,95 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D144" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E144" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="D145" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E145" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
+      <c r="A146" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>373</v>
+      </c>
       <c r="C146" s="8"/>
       <c r="D146" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E146" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D147" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E147" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D148" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E148" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D149" s="9" t="s">
         <v>331</v>
       </c>
@@ -4026,14 +4210,32 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="D150" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E150" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D151" s="9" t="s">
         <v>331</v>
       </c>
@@ -4042,6 +4244,15 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D152" s="9" t="s">
         <v>331</v>
       </c>
@@ -4050,6 +4261,15 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D153" s="9" t="s">
         <v>331</v>
       </c>
@@ -4058,9 +4278,15 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
+      <c r="A154" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="D154" s="9" t="s">
         <v>331</v>
       </c>
@@ -4069,14 +4295,32 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D155" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E155" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D156" s="9" t="s">
         <v>331</v>
       </c>
@@ -4085,25 +4329,49 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D157" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E157" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
+      <c r="A158" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="D158" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E158" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="D159" s="9" t="s">
         <v>331</v>
       </c>
@@ -4112,25 +4380,47 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="D160" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E160" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
+      <c r="A161" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="C161" s="8"/>
       <c r="D161" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E161" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D162" s="9" t="s">
         <v>331</v>
       </c>
@@ -4139,6 +4429,15 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D163" s="9" t="s">
         <v>331</v>
       </c>
@@ -4147,6 +4446,15 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D164" s="9" t="s">
         <v>331</v>
       </c>
@@ -4155,14 +4463,32 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D165" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E165" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="D166" s="9" t="s">
         <v>331</v>
       </c>
@@ -4171,6 +4497,15 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D167" s="9" t="s">
         <v>331</v>
       </c>
@@ -4179,9 +4514,15 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+      <c r="A168" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="D168" s="9" t="s">
         <v>331</v>
       </c>
@@ -4190,33 +4531,66 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D169" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E169" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D170" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E170" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
+      <c r="A171" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="D171" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E171" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D172" s="9" t="s">
         <v>331</v>
       </c>
@@ -4225,14 +4599,32 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D173" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E173" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D174" s="9" t="s">
         <v>331</v>
       </c>
@@ -4241,22 +4633,49 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D175" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E175" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D176" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E176" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D177" s="9" t="s">
         <v>331</v>
       </c>
@@ -4264,7 +4683,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D178" s="9" t="s">
         <v>331</v>
       </c>
@@ -4272,7 +4700,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D179" s="9" t="s">
         <v>331</v>
       </c>
@@ -4280,7 +4717,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D180" s="9" t="s">
         <v>331</v>
       </c>
@@ -4288,39 +4734,81 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D181" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E181" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D182" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E182" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D183" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E183" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="D184" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E184" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="D185" s="9" t="s">
         <v>331</v>
       </c>
@@ -4328,23 +4816,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D186" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E186" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D187" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E187" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D188" s="9" t="s">
         <v>331</v>
       </c>
@@ -4352,7 +4867,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="D189" s="9" t="s">
         <v>331</v>
       </c>
@@ -4360,7 +4884,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D190" s="9" t="s">
         <v>331</v>
       </c>
@@ -4368,15 +4901,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="D191" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E191" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D192" s="9" t="s">
         <v>331</v>
       </c>
@@ -4385,6 +4933,15 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D193" s="9" t="s">
         <v>331</v>
       </c>
@@ -4393,6 +4950,15 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D194" s="9" t="s">
         <v>331</v>
       </c>
@@ -4401,22 +4967,49 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D195" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E195" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D196" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E196" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D197" s="9" t="s">
         <v>331</v>
       </c>
@@ -4425,6 +5018,15 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D198" s="9" t="s">
         <v>331</v>
       </c>
@@ -4433,17 +5035,32 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D199" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E199" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
+      <c r="A200" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="D200" s="9" t="s">
         <v>331</v>
       </c>
@@ -4452,8 +5069,12 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
+      <c r="A201" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="C201" s="8"/>
       <c r="D201" s="9" t="s">
         <v>331</v>
@@ -4463,14 +5084,32 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D202" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E202" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D203" s="9" t="s">
         <v>331</v>
       </c>
@@ -4479,6 +5118,15 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D204" s="9" t="s">
         <v>331</v>
       </c>
@@ -4487,6 +5135,15 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D205" s="9" t="s">
         <v>331</v>
       </c>
@@ -4495,14 +5152,32 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D206" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E206" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D207" s="9" t="s">
         <v>331</v>
       </c>
@@ -4511,17 +5186,32 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D208" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E208" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
+      <c r="A209" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>381</v>
+      </c>
       <c r="D209" s="9" t="s">
         <v>331</v>
       </c>
@@ -4530,6 +5220,15 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D210" s="9" t="s">
         <v>331</v>
       </c>
@@ -4538,6 +5237,15 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D211" s="9" t="s">
         <v>331</v>
       </c>
@@ -4546,28 +5254,49 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
+      <c r="A212" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>376</v>
+      </c>
       <c r="D212" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E212" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D213" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E213" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
+      <c r="A214" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>386</v>
+      </c>
       <c r="D214" s="9" t="s">
         <v>331</v>
       </c>
@@ -4576,6 +5305,15 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D215" s="9" t="s">
         <v>331</v>
       </c>
@@ -4584,38 +5322,80 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D216" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E216" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="D217" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E217" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D218" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E218" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="D219" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E219" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D220" s="9" t="s">
         <v>331</v>
       </c>
@@ -4624,14 +5404,32 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="D221" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E221" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D222" s="9" t="s">
         <v>331</v>
       </c>
@@ -4640,6 +5438,15 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="D223" s="9" t="s">
         <v>331</v>
       </c>
@@ -4648,6 +5455,12 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D224" s="9" t="s">
         <v>331</v>
       </c>
@@ -4656,30 +5469,66 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D225" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E225" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D226" s="9" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="E226" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D227" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E227" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D228" s="9" t="s">
         <v>331</v>
       </c>
@@ -4688,8 +5537,15 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
+      <c r="A229" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D229" s="9" t="s">
         <v>331</v>
       </c>
@@ -4698,22 +5554,49 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D230" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E230" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="D231" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E231" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="D232" s="9" t="s">
         <v>331</v>
       </c>
@@ -4722,25 +5605,49 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="D233" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E233" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
+      <c r="A234" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>406</v>
+      </c>
       <c r="D234" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E234" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="D235" s="9" t="s">
         <v>331</v>
       </c>
@@ -4749,41 +5656,83 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D236" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E236" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
+      <c r="A237" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>407</v>
+      </c>
       <c r="D237" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E237" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D238" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E238" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="D239" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E239" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="D240" s="9" t="s">
         <v>331</v>
       </c>
@@ -4792,6 +5741,15 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D241" s="9" t="s">
         <v>331</v>
       </c>
@@ -4800,6 +5758,15 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D242" s="9" t="s">
         <v>331</v>
       </c>
@@ -4808,6 +5775,15 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D243" s="9" t="s">
         <v>331</v>
       </c>
@@ -4816,14 +5792,32 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D244" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E244" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="D245" s="9" t="s">
         <v>331</v>
       </c>
@@ -4832,6 +5826,15 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="D246" s="9" t="s">
         <v>331</v>
       </c>
@@ -4840,6 +5843,15 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D247" s="9" t="s">
         <v>331</v>
       </c>
@@ -4848,6 +5860,15 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D248" s="9" t="s">
         <v>331</v>
       </c>
@@ -4856,14 +5877,32 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D249" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E249" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="D250" s="9" t="s">
         <v>331</v>
       </c>
@@ -4872,6 +5911,15 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D251" s="9" t="s">
         <v>331</v>
       </c>
@@ -4880,6 +5928,15 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D252" s="9" t="s">
         <v>331</v>
       </c>
@@ -4888,17 +5945,32 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
+      <c r="A253" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="D253" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E253" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="D254" s="9" t="s">
         <v>331</v>
       </c>
@@ -4907,8 +5979,17 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D255" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E255" s="2">
         <v>9</v>
@@ -5300,7 +6381,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A543:A1048576 C206 A206 C215 A207:C214 A215 C274 A274 A141:B141 C395 A395 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 A142:C205 C262 A216:C261 A263:C273 A262 B339:C339 A275:C338 A340:C394 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 A74:A140 B107:C110 B111 C111:C112 B113:C140</xm:sqref>
+          <xm:sqref>A1 A543:A1048576 C206 A206 C274 A274 A141:B141 C395 A395 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A263:C273 A262 B339:C339 A275:C338 A340:C394 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A246:C261 A245</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5312,8 +6393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6F3C74-44B5-471F-AE13-9C8CA1826F77}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5347,181 +6428,181 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <f>C2*100/B2</f>
-        <v>42.5</v>
+        <v>25.252525252525253</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>334</v>
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">C3*100/B3</f>
-        <v>39.024390243902438</v>
+        <v>30.120481927710845</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>334</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>35.714285714285715</v>
+        <v>46.575342465753423</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>28.260869565217391</v>
+        <v>33.802816901408448</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>28.571428571428573</v>
+        <v>20.512820512820515</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>21.739130434782609</v>
+        <v>21.428571428571427</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>29.411764705882351</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>54.166666666666664</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>55.555555555555557</v>
+        <v>16.666666666666668</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
@@ -5529,101 +6610,101 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>44.444444444444443</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>57.142857142857146</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>38.095238095238095</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>335</v>
+        <v>21</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>58.823529411764703</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>51</v>
+        <v>394</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>394</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
@@ -5631,84 +6712,84 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>14.285714285714286</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>38.46153846153846</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>58.333333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
@@ -5716,50 +6797,50 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>77.777777777777771</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25" s="8">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>46</v>
+        <v>336</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C26" s="8">
         <f>COUNTIF(History!A:A,A26)</f>
@@ -5767,16 +6848,16 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>14.285714285714286</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
@@ -5784,71 +6865,71 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>16.666666666666668</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" s="8">
         <f>COUNTIF(History!A:A,A28)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>251</v>
+        <v>46</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" s="8">
         <f>COUNTIF(History!A:A,A29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="8">
         <f>COUNTIF(History!A:A,A30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="8">
         <f>COUNTIF(History!A:A,A31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -5857,15 +6938,15 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="8">
         <f>COUNTIF(History!A:A,A32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -5874,92 +6955,92 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" s="8">
         <f>COUNTIF(History!A:A,A33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" s="8">
         <f>COUNTIF(History!A:A,A34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="8">
         <f>COUNTIF(History!A:A,A35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="8">
         <f>COUNTIF(History!A:A,A36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="8">
         <f>COUNTIF(History!A:A,A37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
@@ -5967,16 +7048,16 @@
       </c>
       <c r="C38" s="8">
         <f>COUNTIF(History!A:A,A38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
@@ -5984,16 +7065,16 @@
       </c>
       <c r="C39" s="8">
         <f>COUNTIF(History!A:A,A39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -6001,16 +7082,16 @@
       </c>
       <c r="C40" s="8">
         <f>COUNTIF(History!A:A,A40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
@@ -6018,16 +7099,16 @@
       </c>
       <c r="C41" s="8">
         <f>COUNTIF(History!A:A,A41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -6035,118 +7116,118 @@
       </c>
       <c r="C42" s="8">
         <f>COUNTIF(History!A:A,A42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>343</v>
+        <v>66</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" s="8">
         <f>COUNTIF(History!A:A,A43)</f>
         <v>0</v>
       </c>
-      <c r="D43" t="e">
+      <c r="D43">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="8">
         <f>COUNTIF(History!A:A,A44)</f>
         <v>0</v>
       </c>
-      <c r="D44" t="e">
+      <c r="D44">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="8">
         <f>COUNTIF(History!A:A,A45)</f>
         <v>0</v>
       </c>
-      <c r="D45" t="e">
+      <c r="D45">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="8">
         <f>COUNTIF(History!A:A,A46)</f>
         <v>0</v>
       </c>
-      <c r="D46" t="e">
+      <c r="D46">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="8">
         <f>COUNTIF(History!A:A,A47)</f>
         <v>0</v>
       </c>
-      <c r="D47" t="e">
+      <c r="D47">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="8">
         <f>COUNTIF(History!A:A,A48)</f>
         <v>0</v>
       </c>
-      <c r="D48" t="e">
+      <c r="D48">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(History!A:C,A49)</f>
@@ -6163,7 +7244,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="B50" s="8">
         <f>COUNTIF(History!A:C,A50)</f>
@@ -6180,7 +7261,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="B51" s="8">
         <f>COUNTIF(History!A:C,A51)</f>
@@ -6197,7 +7278,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8">
         <f>COUNTIF(History!A:C,A52)</f>
@@ -6214,7 +7295,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B53" s="8">
         <f>COUNTIF(History!A:C,A53)</f>
@@ -6231,7 +7312,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="B54" s="8">
         <f>COUNTIF(History!A:C,A54)</f>
@@ -6248,7 +7329,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>27</v>
+        <v>337</v>
       </c>
       <c r="B55" s="8">
         <f>COUNTIF(History!A:C,A55)</f>
@@ -6265,7 +7346,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B56" s="8">
         <f>COUNTIF(History!A:C,A56)</f>
@@ -6282,7 +7363,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B57" s="8">
         <f>COUNTIF(History!A:C,A57)</f>
@@ -6299,24 +7380,24 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B58" s="8">
         <f>COUNTIF(History!A:C,A58)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="8">
         <f>COUNTIF(History!A:A,A58)</f>
         <v>0</v>
       </c>
-      <c r="D58" t="e">
+      <c r="D58">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B59" s="8">
         <f>COUNTIF(History!A:C,A59)</f>
@@ -6333,7 +7414,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B60" s="8">
         <f>COUNTIF(History!A:C,A60)</f>
@@ -6350,7 +7431,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B61" s="8">
         <f>COUNTIF(History!A:C,A61)</f>
@@ -6367,7 +7448,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B62" s="8">
         <f>COUNTIF(History!A:C,A62)</f>
@@ -6384,7 +7465,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B63" s="8">
         <f>COUNTIF(History!A:C,A63)</f>
@@ -6401,7 +7482,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B64" s="8">
         <f>COUNTIF(History!A:C,A64)</f>
@@ -6418,7 +7499,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8">
         <f>COUNTIF(History!A:C,A65)</f>
@@ -6435,7 +7516,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B66" s="8">
         <f>COUNTIF(History!A:C,A66)</f>
@@ -6452,7 +7533,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>338</v>
+        <v>55</v>
       </c>
       <c r="B67" s="8">
         <f>COUNTIF(History!A:C,A67)</f>
@@ -6469,7 +7550,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B68" s="8">
         <f>COUNTIF(History!A:C,A68)</f>
@@ -6486,7 +7567,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B69" s="8">
         <f>COUNTIF(History!A:C,A69)</f>
@@ -6503,7 +7584,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B70" s="8">
         <f>COUNTIF(History!A:C,A70)</f>
@@ -6520,7 +7601,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="B71" s="8">
         <f>COUNTIF(History!A:C,A71)</f>
@@ -6537,7 +7618,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B72" s="8">
         <f>COUNTIF(History!A:C,A72)</f>
@@ -6554,7 +7635,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B73" s="8">
         <f>COUNTIF(History!A:C,A73)</f>
@@ -6571,7 +7652,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B74" s="8">
         <f>COUNTIF(History!A:C,A74)</f>
@@ -6588,7 +7669,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B75" s="8">
         <f>COUNTIF(History!A:C,A75)</f>
@@ -6605,7 +7686,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B76" s="8">
         <f>COUNTIF(History!A:C,A76)</f>
@@ -6622,7 +7703,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B77" s="8">
         <f>COUNTIF(History!A:C,A77)</f>
@@ -6639,7 +7720,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="B78" s="8">
         <f>COUNTIF(History!A:C,A78)</f>
@@ -6656,7 +7737,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B79" s="8">
         <f>COUNTIF(History!A:C,A79)</f>
@@ -6673,7 +7754,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>339</v>
+        <v>61</v>
       </c>
       <c r="B80" s="8">
         <f>COUNTIF(History!A:C,A80)</f>
@@ -6690,7 +7771,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="B81" s="8">
         <f>COUNTIF(History!A:C,A81)</f>
@@ -6707,7 +7788,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="B82" s="8">
         <f>COUNTIF(History!A:C,A82)</f>
@@ -6724,7 +7805,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B83" s="8">
         <f>COUNTIF(History!A:C,A83)</f>
@@ -6741,7 +7822,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="B84" s="8">
         <f>COUNTIF(History!A:C,A84)</f>
@@ -6758,7 +7839,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="B85" s="8">
         <f>COUNTIF(History!A:C,A85)</f>
@@ -6775,7 +7856,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B86" s="8">
         <f>COUNTIF(History!A:C,A86)</f>
@@ -6792,7 +7873,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B87" s="8">
         <f>COUNTIF(History!A:C,A87)</f>
@@ -6809,7 +7890,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B88" s="8">
         <f>COUNTIF(History!A:C,A88)</f>
@@ -6826,7 +7907,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="B89" s="8">
         <f>COUNTIF(History!A:C,A89)</f>
@@ -6843,7 +7924,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B90" s="8">
         <f>COUNTIF(History!A:C,A90)</f>
@@ -6860,7 +7941,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="B91" s="8">
         <f>COUNTIF(History!A:C,A91)</f>
@@ -6877,7 +7958,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B92" s="8">
         <f>COUNTIF(History!A:C,A92)</f>
@@ -6894,7 +7975,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="B93" s="8">
         <f>COUNTIF(History!A:C,A93)</f>
@@ -6911,7 +7992,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="B94" s="8">
         <f>COUNTIF(History!A:C,A94)</f>
@@ -6928,7 +8009,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="B95" s="8">
         <f>COUNTIF(History!A:C,A95)</f>
@@ -6945,7 +8026,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B96" s="8">
         <f>COUNTIF(History!A:C,A96)</f>
@@ -6962,7 +8043,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="B97" s="8">
         <f>COUNTIF(History!A:C,A97)</f>
@@ -6979,7 +8060,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="B98" s="8">
         <f>COUNTIF(History!A:C,A98)</f>
@@ -6996,7 +8077,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="B99" s="8">
         <f>COUNTIF(History!A:C,A99)</f>
@@ -7013,7 +8094,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B100" s="8">
         <f>COUNTIF(History!A:C,A100)</f>
@@ -7030,7 +8111,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="B101" s="8">
         <f>COUNTIF(History!A:C,A101)</f>
@@ -7047,7 +8128,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="B102" s="8">
         <f>COUNTIF(History!A:C,A102)</f>
@@ -7064,7 +8145,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="B103" s="8">
         <f>COUNTIF(History!A:C,A103)</f>
@@ -7081,7 +8162,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B104" s="8">
         <f>COUNTIF(History!A:C,A104)</f>
@@ -7098,24 +8179,24 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="B105" s="8">
         <f>COUNTIF(History!A:C,A105)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="8">
         <f>COUNTIF(History!A:A,A105)</f>
         <v>0</v>
       </c>
-      <c r="D105" t="e">
+      <c r="D105">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="B106" s="8">
         <f>COUNTIF(History!A:C,A106)</f>
@@ -7132,7 +8213,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="B107" s="8">
         <f>COUNTIF(History!A:C,A107)</f>
@@ -7149,7 +8230,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B108" s="8">
         <f>COUNTIF(History!A:C,A108)</f>
@@ -7166,7 +8247,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B109" s="8">
         <f>COUNTIF(History!A:C,A109)</f>
@@ -7183,7 +8264,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="B110" s="8">
         <f>COUNTIF(History!A:C,A110)</f>
@@ -7200,7 +8281,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B111" s="8">
         <f>COUNTIF(History!A:C,A111)</f>
@@ -7217,7 +8298,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="B112" s="8">
         <f>COUNTIF(History!A:C,A112)</f>
@@ -7234,7 +8315,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="B113" s="8">
         <f>COUNTIF(History!A:C,A113)</f>
@@ -7251,7 +8332,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="B114" s="8">
         <f>COUNTIF(History!A:C,A114)</f>
@@ -7268,7 +8349,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B115" s="8">
         <f>COUNTIF(History!A:C,A115)</f>
@@ -7285,7 +8366,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B116" s="8">
         <f>COUNTIF(History!A:C,A116)</f>
@@ -7302,7 +8383,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="B117" s="8">
         <f>COUNTIF(History!A:C,A117)</f>
@@ -7319,7 +8400,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="B118" s="8">
         <f>COUNTIF(History!A:C,A118)</f>
@@ -7336,7 +8417,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B119" s="8">
         <f>COUNTIF(History!A:C,A119)</f>
@@ -7353,7 +8434,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="B120" s="8">
         <f>COUNTIF(History!A:C,A120)</f>
@@ -7370,7 +8451,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B121" s="8">
         <f>COUNTIF(History!A:C,A121)</f>
@@ -7387,7 +8468,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="B122" s="8">
         <f>COUNTIF(History!A:C,A122)</f>
@@ -7404,7 +8485,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="B123" s="8">
         <f>COUNTIF(History!A:C,A123)</f>
@@ -7421,7 +8502,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="B124" s="8">
         <f>COUNTIF(History!A:C,A124)</f>
@@ -7438,7 +8519,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="B125" s="8">
         <f>COUNTIF(History!A:C,A125)</f>
@@ -7455,7 +8536,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="B126" s="8">
         <f>COUNTIF(History!A:C,A126)</f>
@@ -7472,7 +8553,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="B127" s="8">
         <f>COUNTIF(History!A:C,A127)</f>
@@ -7489,7 +8570,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="B128" s="8">
         <f>COUNTIF(History!A:C,A128)</f>
@@ -7506,7 +8587,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B129" s="8">
         <f>COUNTIF(History!A:C,A129)</f>
@@ -7523,7 +8604,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="B130" s="8">
         <f>COUNTIF(History!A:C,A130)</f>
@@ -7540,7 +8621,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="B131" s="8">
         <f>COUNTIF(History!A:C,A131)</f>
@@ -7557,7 +8638,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B132" s="8">
         <f>COUNTIF(History!A:C,A132)</f>
@@ -7574,7 +8655,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="B133" s="8">
         <f>COUNTIF(History!A:C,A133)</f>
@@ -7591,7 +8672,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="B134" s="8">
         <f>COUNTIF(History!A:C,A134)</f>
@@ -7608,7 +8689,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="B135" s="8">
         <f>COUNTIF(History!A:C,A135)</f>
@@ -7625,7 +8706,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B136" s="8">
         <f>COUNTIF(History!A:C,A136)</f>
@@ -7642,7 +8723,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="B137" s="8">
         <f>COUNTIF(History!A:C,A137)</f>
@@ -7659,7 +8740,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="B138" s="8">
         <f>COUNTIF(History!A:C,A138)</f>
@@ -7676,7 +8757,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="B139" s="8">
         <f>COUNTIF(History!A:C,A139)</f>
@@ -7693,7 +8774,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="B140" s="8">
         <f>COUNTIF(History!A:C,A140)</f>
@@ -7710,7 +8791,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>130</v>
+        <v>344</v>
       </c>
       <c r="B141" s="8">
         <f>COUNTIF(History!A:C,A141)</f>
@@ -7727,7 +8808,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" s="8">
         <f>COUNTIF(History!A:C,A142)</f>
@@ -7744,7 +8825,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B143" s="8">
         <f>COUNTIF(History!A:C,A143)</f>
@@ -7761,7 +8842,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B144" s="8">
         <f>COUNTIF(History!A:C,A144)</f>
@@ -7778,7 +8859,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="B145" s="8">
         <f>COUNTIF(History!A:C,A145)</f>
@@ -7795,7 +8876,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B146" s="8">
         <f>COUNTIF(History!A:C,A146)</f>
@@ -7812,7 +8893,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B147" s="8">
         <f>COUNTIF(History!A:C,A147)</f>
@@ -7829,7 +8910,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B148" s="8">
         <f>COUNTIF(History!A:C,A148)</f>
@@ -7846,7 +8927,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="B149" s="8">
         <f>COUNTIF(History!A:C,A149)</f>
@@ -7863,7 +8944,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="B150" s="8">
         <f>COUNTIF(History!A:C,A150)</f>
@@ -7880,14 +8961,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="B151" s="8">
-        <f>COUNTIF(History!A:C,#REF!)</f>
+        <f>COUNTIF(History!A:C,A151)</f>
         <v>0</v>
       </c>
       <c r="C151" s="8">
-        <f>COUNTIF(History!A:A,#REF!)</f>
+        <f>COUNTIF(History!A:A,A151)</f>
         <v>0</v>
       </c>
       <c r="D151" t="e">
@@ -7897,7 +8978,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="B152" s="8">
         <f>COUNTIF(History!A:C,#REF!)</f>
@@ -7914,14 +8995,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="B153" s="8">
-        <f>COUNTIF(History!A:C,A153)</f>
+        <f>COUNTIF(History!A:C,#REF!)</f>
         <v>0</v>
       </c>
       <c r="C153" s="8">
-        <f>COUNTIF(History!A:A,A153)</f>
+        <f>COUNTIF(History!A:A,#REF!)</f>
         <v>0</v>
       </c>
       <c r="D153" t="e">
@@ -7931,7 +9012,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="B154" s="8">
         <f>COUNTIF(History!A:C,A154)</f>
@@ -7948,7 +9029,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="B155" s="8">
         <f>COUNTIF(History!A:C,A155)</f>
@@ -7965,7 +9046,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="B156" s="8">
         <f>COUNTIF(History!A:C,A156)</f>
@@ -7982,7 +9063,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="B157" s="8">
         <f>COUNTIF(History!A:C,A157)</f>
@@ -7999,7 +9080,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="B158" s="8">
         <f>COUNTIF(History!A:C,A158)</f>
@@ -8016,7 +9097,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="B159" s="8">
         <f>COUNTIF(History!A:C,A159)</f>
@@ -8033,7 +9114,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="B160" s="8">
         <f>COUNTIF(History!A:C,A160)</f>
@@ -8050,7 +9131,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="B161" s="8">
         <f>COUNTIF(History!A:C,A161)</f>
@@ -8067,7 +9148,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B162" s="8">
         <f>COUNTIF(History!A:C,A162)</f>
@@ -8084,7 +9165,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B163" s="8">
         <f>COUNTIF(History!A:C,A163)</f>
@@ -8101,7 +9182,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="B164" s="8">
         <f>COUNTIF(History!A:C,A164)</f>
@@ -8118,7 +9199,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B165" s="8">
         <f>COUNTIF(History!A:C,A165)</f>
@@ -8135,7 +9216,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="B166" s="8">
         <f>COUNTIF(History!A:C,A166)</f>
@@ -8152,7 +9233,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>87</v>
+        <v>345</v>
       </c>
       <c r="B167" s="8">
         <f>COUNTIF(History!A:C,A167)</f>
@@ -8169,7 +9250,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B168" s="8">
         <f>COUNTIF(History!A:C,A168)</f>
@@ -8186,7 +9267,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B169" s="8">
         <f>COUNTIF(History!A:C,A169)</f>
@@ -8203,7 +9284,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B170" s="8">
         <f>COUNTIF(History!A:C,A170)</f>
@@ -8220,7 +9301,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="B171" s="8">
         <f>COUNTIF(History!A:C,A171)</f>
@@ -8237,7 +9318,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="B172" s="8">
         <f>COUNTIF(History!A:C,A172)</f>
@@ -8254,7 +9335,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="B173" s="8">
         <f>COUNTIF(History!A:C,A173)</f>
@@ -8271,7 +9352,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B174" s="8">
         <f>COUNTIF(History!A:C,A174)</f>
@@ -8288,7 +9369,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B175" s="8">
         <f>COUNTIF(History!A:C,A175)</f>
@@ -8305,7 +9386,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B176" s="8">
         <f>COUNTIF(History!A:C,A176)</f>
@@ -8322,7 +9403,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="B177" s="8">
         <f>COUNTIF(History!A:C,A177)</f>
@@ -8339,7 +9420,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="B178" s="8">
         <f>COUNTIF(History!A:C,A178)</f>
@@ -8356,7 +9437,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B179" s="8">
         <f>COUNTIF(History!A:C,A179)</f>
@@ -8373,7 +9454,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="B180" s="8">
         <f>COUNTIF(History!A:C,A180)</f>
@@ -8390,7 +9471,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="B181" s="8">
         <f>COUNTIF(History!A:C,A181)</f>
@@ -8407,7 +9488,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>185</v>
+        <v>346</v>
       </c>
       <c r="B182" s="8">
         <f>COUNTIF(History!A:C,A182)</f>
@@ -8424,7 +9505,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="B183" s="8">
         <f>COUNTIF(History!A:C,A183)</f>
@@ -8441,7 +9522,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B184" s="8">
         <f>COUNTIF(History!A:C,A184)</f>
@@ -8458,7 +9539,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>292</v>
+        <v>145</v>
       </c>
       <c r="B185" s="8">
         <f>COUNTIF(History!A:C,A185)</f>
@@ -8475,7 +9556,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B186" s="8">
         <f>COUNTIF(History!A:C,A186)</f>
@@ -8492,7 +9573,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="B187" s="8">
         <f>COUNTIF(History!A:C,A187)</f>
@@ -8509,7 +9590,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="B188" s="8">
         <f>COUNTIF(History!A:C,A188)</f>
@@ -8526,7 +9607,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B189" s="8">
         <f>COUNTIF(History!A:C,A189)</f>
@@ -8543,7 +9624,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="B190" s="8">
         <f>COUNTIF(History!A:C,A190)</f>
@@ -8560,7 +9641,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B191" s="8">
         <f>COUNTIF(History!A:C,A191)</f>
@@ -8577,7 +9658,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>347</v>
+        <v>177</v>
       </c>
       <c r="B192" s="8">
         <f>COUNTIF(History!A:C,A192)</f>
@@ -8594,7 +9675,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="B193" s="8">
         <f>COUNTIF(History!A:C,A193)</f>
@@ -8611,7 +9692,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="B194" s="8">
         <f>COUNTIF(History!A:C,A194)</f>
@@ -8628,7 +9709,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="B195" s="8">
         <f>COUNTIF(History!A:C,A195)</f>
@@ -8645,7 +9726,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B196" s="8">
         <f>COUNTIF(History!A:C,A196)</f>
@@ -8662,7 +9743,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="B197" s="8">
         <f>COUNTIF(History!A:C,A197)</f>
@@ -8679,7 +9760,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="B198" s="8">
         <f>COUNTIF(History!A:C,A198)</f>
@@ -8696,7 +9777,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="B199" s="8">
         <f>COUNTIF(History!A:C,A199)</f>
@@ -8713,7 +9794,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B200" s="8">
         <f>COUNTIF(History!A:C,A200)</f>
@@ -8730,7 +9811,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="B201" s="8">
         <f>COUNTIF(History!A:C,A201)</f>
@@ -8747,7 +9828,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="B202" s="8">
         <f>COUNTIF(History!A:C,A202)</f>
@@ -8764,7 +9845,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B203" s="8">
         <f>COUNTIF(History!A:C,A203)</f>
@@ -8781,7 +9862,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="B204" s="8">
         <f>COUNTIF(History!A:C,A204)</f>
@@ -11179,7 +12260,7 @@
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{B7BFFF1C-AC35-4424-B8F4-04250131A25E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C344">
-      <sortCondition descending="1" ref="C1"/>
+      <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -11192,7 +12273,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11211,151 +12292,151 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>registeel:17</v>
+        <v>swampert:25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>registeel:17,cresselia:16</v>
+        <v>swampert:25,giratina_altered:25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1,scizor:1</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4,meganium:1</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1,scizor:1,lucario:1</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4,meganium:1,machamp:7</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!C25)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1,scizor:1,lucario:1,heracross:1</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4,meganium:1,machamp:7,lucario:2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!C26)</f>
-        <v>registeel:17,cresselia:16,giratina_altered:15,swampert:13,charizard:6,poliwrath:6,muk_alolan:5,snorlax:5,gyarados:5,escavalier:5,lapras:4,shiftry:4,empoleon:4,mewtwo_armored:3,articuno:2,melmetal:2,obstagoon:2,machamp:2,togekiss:1,clefable:1,giratina_origin:1,scizor:1,lucario:1,heracross:1,blaziken:1</v>
+        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4,meganium:1,machamp:7,lucario:2,giratina_origin:1</v>
       </c>
     </row>
   </sheetData>
@@ -11369,7 +12450,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11385,155 +12466,156 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>registeel:40</v>
+        <v>swampert:99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>registeel:40,cresselia:41</v>
+        <v>swampert:99,giratina_altered:83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4,scizor:4</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9,meganium:12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!B24,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4,scizor:4,lucario:4</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9,meganium:12,machamp:9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!B25,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4,scizor:4,lucario:4,heracross:1</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9,meganium:12,machamp:9,lucario:6</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!B26,)</f>
-        <v>registeel:40,cresselia:41,giratina_altered:42,swampert:46,charizard:21,poliwrath:16,muk_alolan:23,snorlax:17,gyarados:10,escavalier:9,lapras:9,shiftry:7,empoleon:6,mewtwo_armored:15,articuno:8,melmetal:5,obstagoon:3,machamp:2,togekiss:10,clefable:8,giratina_origin:4,scizor:4,lucario:4,heracross:1,blaziken:1</v>
+        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9,meganium:12,machamp:9,lucario:6,giratina_origin:7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/data/Ultra - Season 02.xlsx
+++ b/src/main/resources/data/Ultra - Season 02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464E9223-D725-4AA4-AE76-7EA8C05A8DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994BB305-7120-4A81-A71A-BF655A2C1ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="409">
   <si>
     <t>Lead</t>
   </si>
@@ -1265,6 +1265,9 @@
   </si>
   <si>
     <t>Lickilicky</t>
+  </si>
+  <si>
+    <t>Suicune</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,14 +5999,29 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D256" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E256" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D257" s="9" t="s">
         <v>331</v>
       </c>
@@ -6012,6 +6030,15 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D258" s="9" t="s">
         <v>331</v>
       </c>
@@ -6020,14 +6047,32 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="D259" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E259" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D260" s="9" t="s">
         <v>331</v>
       </c>
@@ -6036,9 +6081,15 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
+      <c r="A261" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="D261" s="9" t="s">
         <v>331</v>
       </c>
@@ -6047,14 +6098,32 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D262" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E262" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D263" s="9" t="s">
         <v>331</v>
       </c>
@@ -6063,22 +6132,49 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D264" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E264" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D265" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E265" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D266" s="9" t="s">
         <v>331</v>
       </c>
@@ -6087,6 +6183,15 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D267" s="9" t="s">
         <v>331</v>
       </c>
@@ -6095,6 +6200,15 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D268" s="9" t="s">
         <v>331</v>
       </c>
@@ -6103,30 +6217,66 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="D269" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E269" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D270" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E270" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D271" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E271" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D272" s="9" t="s">
         <v>331</v>
       </c>
@@ -6135,6 +6285,15 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D273" s="9" t="s">
         <v>331</v>
       </c>
@@ -6143,22 +6302,49 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D274" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E274" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D275" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E275" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D276" s="9" t="s">
         <v>331</v>
       </c>
@@ -6167,6 +6353,15 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D277" s="9" t="s">
         <v>331</v>
       </c>
@@ -6175,22 +6370,46 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="D278" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E278" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D279" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E279" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D280" s="9" t="s">
         <v>331</v>
       </c>
@@ -6367,6 +6586,598 @@
         <v>331</v>
       </c>
       <c r="E301" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D302" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E302" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D303" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E303" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D304" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E304" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D305" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E305" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D306" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E306" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D307" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E307" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D308" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E308" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D309" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E309" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D310" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E310" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D311" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E311" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D312" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E312" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D313" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E313" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D314" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E314" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D315" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E315" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D316" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E316" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D317" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E317" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D318" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E318" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D319" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E319" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D320" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E320" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D321" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E321" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D322" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E322" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D323" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E323" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D324" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E324" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D325" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E325" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D326" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E326" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D327" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E327" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D328" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E328" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D329" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E329" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D330" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E330" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D331" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E331" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D332" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E332" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D333" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E333" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D334" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E334" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D335" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E335" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D336" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E336" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D337" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E337" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D338" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E338" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D339" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E339" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D340" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E340" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D341" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E341" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D342" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E342" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D343" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E343" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D344" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E344" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D345" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E345" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D346" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E346" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D347" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E347" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D348" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E348" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D349" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E349" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D350" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E350" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D351" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E351" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D352" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E352" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D353" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E353" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D354" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E354" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D355" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E355" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D356" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E356" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D357" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E357" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D358" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E358" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D359" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E359" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D360" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E360" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D361" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E361" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D362" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E362" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D363" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E363" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D364" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E364" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D365" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E365" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D366" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E366" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D367" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E367" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D368" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E368" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D369" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E369" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D370" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E370" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D371" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E371" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D372" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E372" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D373" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E373" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D374" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E374" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D375" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E375" s="2">
         <v>9</v>
       </c>
     </row>
@@ -6381,7 +7192,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A543:A1048576 C206 A206 C274 A274 A141:B141 C395 A395 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A263:C273 A262 B339:C339 A275:C338 A340:C394 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A246:C261 A245</xm:sqref>
+          <xm:sqref>A1 A543:A1048576 C206 A206 A141:B141 C395 A395 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B339:C339 A340:C394 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A277:C338 A276</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6394,7 +7205,7 @@
   <dimension ref="A1:D344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6432,15 +7243,15 @@
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <f>C2*100/B2</f>
-        <v>25.252525252525253</v>
+        <v>24.770642201834864</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6449,15 +7260,15 @@
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">C3*100/B3</f>
-        <v>30.120481927710845</v>
+        <v>28.888888888888889</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,15 +7277,15 @@
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>46.575342465753423</v>
+        <v>48.101265822784811</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6483,15 +7294,15 @@
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>33.802816901408448</v>
+        <v>33.766233766233768</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6500,7 +7311,7 @@
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
@@ -6508,7 +7319,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>20.512820512820515</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6517,7 +7328,7 @@
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
@@ -6525,109 +7336,109 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>28.125</v>
+        <v>25.714285714285715</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>21.428571428571427</v>
+        <v>48.275862068965516</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>24.137931034482758</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>54.166666666666664</v>
+        <v>24.137931034482758</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>39.285714285714285</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>18.181818181818183</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>17.391304347826086</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6636,15 +7447,15 @@
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>38.095238095238095</v>
+        <v>40.909090909090907</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,32 +7464,32 @@
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>58.823529411764703</v>
+        <v>61.904761904761905</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>43.75</v>
+        <v>52.631578947368418</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6687,7 +7498,7 @@
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
@@ -6695,7 +7506,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>23.529411764705884</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6704,49 +7515,49 @@
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>14.285714285714286</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>38.46153846153846</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>46.666666666666664</v>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6768,36 +7579,36 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>44.444444444444443</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6819,19 +7630,19 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" s="8">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6840,20 +7651,20 @@
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="8">
         <f>COUNTIF(History!A:A,A26)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>14.285714285714286</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
@@ -6861,11 +7672,11 @@
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6955,7 +7766,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
@@ -6963,16 +7774,16 @@
       </c>
       <c r="C33" s="8">
         <f>COUNTIF(History!A:A,A33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -6989,7 +7800,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -7006,7 +7817,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
@@ -7014,50 +7825,50 @@
       </c>
       <c r="C36" s="8">
         <f>COUNTIF(History!A:A,A36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="8">
         <f>COUNTIF(History!A:A,A37)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="8">
         <f>COUNTIF(History!A:A,A38)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
@@ -7074,7 +7885,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -7091,7 +7902,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
@@ -7108,7 +7919,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -7125,24 +7936,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="8">
         <f>COUNTIF(History!A:A,A43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
@@ -7150,16 +7961,16 @@
       </c>
       <c r="C44" s="8">
         <f>COUNTIF(History!A:A,A44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
@@ -7176,7 +7987,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
@@ -7193,7 +8004,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
@@ -7210,7 +8021,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
@@ -7227,58 +8038,58 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(History!A:C,A49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="8">
         <f>COUNTIF(History!A:A,A49)</f>
         <v>0</v>
       </c>
-      <c r="D49" t="e">
+      <c r="D49">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B50" s="8">
         <f>COUNTIF(History!A:C,A50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="8">
         <f>COUNTIF(History!A:A,A50)</f>
         <v>0</v>
       </c>
-      <c r="D50" t="e">
+      <c r="D50">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B51" s="8">
         <f>COUNTIF(History!A:C,A51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="8">
         <f>COUNTIF(History!A:A,A51)</f>
         <v>0</v>
       </c>
-      <c r="D51" t="e">
+      <c r="D51">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>50</v>
+        <v>343</v>
       </c>
       <c r="B52" s="8">
         <f>COUNTIF(History!A:C,A52)</f>
@@ -7295,7 +8106,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B53" s="8">
         <f>COUNTIF(History!A:C,A53)</f>
@@ -7312,7 +8123,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B54" s="8">
         <f>COUNTIF(History!A:C,A54)</f>
@@ -7329,7 +8140,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>337</v>
+        <v>50</v>
       </c>
       <c r="B55" s="8">
         <f>COUNTIF(History!A:C,A55)</f>
@@ -7346,7 +8157,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B56" s="8">
         <f>COUNTIF(History!A:C,A56)</f>
@@ -7363,7 +8174,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="B57" s="8">
         <f>COUNTIF(History!A:C,A57)</f>
@@ -7380,24 +8191,24 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="B58" s="8">
         <f>COUNTIF(History!A:C,A58)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C58" s="8">
         <f>COUNTIF(History!A:A,A58)</f>
         <v>0</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B59" s="8">
         <f>COUNTIF(History!A:C,A59)</f>
@@ -7414,7 +8225,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B60" s="8">
         <f>COUNTIF(History!A:C,A60)</f>
@@ -7431,7 +8242,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B61" s="8">
         <f>COUNTIF(History!A:C,A61)</f>
@@ -7448,7 +8259,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B62" s="8">
         <f>COUNTIF(History!A:C,A62)</f>
@@ -7465,7 +8276,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B63" s="8">
         <f>COUNTIF(History!A:C,A63)</f>
@@ -7482,7 +8293,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B64" s="8">
         <f>COUNTIF(History!A:C,A64)</f>
@@ -7499,7 +8310,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B65" s="8">
         <f>COUNTIF(History!A:C,A65)</f>
@@ -7516,7 +8327,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B66" s="8">
         <f>COUNTIF(History!A:C,A66)</f>
@@ -7533,7 +8344,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B67" s="8">
         <f>COUNTIF(History!A:C,A67)</f>
@@ -7550,7 +8361,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B68" s="8">
         <f>COUNTIF(History!A:C,A68)</f>
@@ -7567,7 +8378,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B69" s="8">
         <f>COUNTIF(History!A:C,A69)</f>
@@ -7584,7 +8395,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B70" s="8">
         <f>COUNTIF(History!A:C,A70)</f>
@@ -7601,7 +8412,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="B71" s="8">
         <f>COUNTIF(History!A:C,A71)</f>
@@ -7618,7 +8429,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="B72" s="8">
         <f>COUNTIF(History!A:C,A72)</f>
@@ -7635,7 +8446,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B73" s="8">
         <f>COUNTIF(History!A:C,A73)</f>
@@ -7652,7 +8463,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B74" s="8">
         <f>COUNTIF(History!A:C,A74)</f>
@@ -7669,7 +8480,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B75" s="8">
         <f>COUNTIF(History!A:C,A75)</f>
@@ -7686,7 +8497,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B76" s="8">
         <f>COUNTIF(History!A:C,A76)</f>
@@ -7703,7 +8514,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B77" s="8">
         <f>COUNTIF(History!A:C,A77)</f>
@@ -7720,7 +8531,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B78" s="8">
         <f>COUNTIF(History!A:C,A78)</f>
@@ -7737,7 +8548,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B79" s="8">
         <f>COUNTIF(History!A:C,A79)</f>
@@ -7754,7 +8565,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B80" s="8">
         <f>COUNTIF(History!A:C,A80)</f>
@@ -7771,7 +8582,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B81" s="8">
         <f>COUNTIF(History!A:C,A81)</f>
@@ -7788,7 +8599,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B82" s="8">
         <f>COUNTIF(History!A:C,A82)</f>
@@ -7805,7 +8616,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="B83" s="8">
         <f>COUNTIF(History!A:C,A83)</f>
@@ -7822,7 +8633,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>339</v>
+        <v>6</v>
       </c>
       <c r="B84" s="8">
         <f>COUNTIF(History!A:C,A84)</f>
@@ -7839,7 +8650,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="B85" s="8">
         <f>COUNTIF(History!A:C,A85)</f>
@@ -7856,7 +8667,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>54</v>
+        <v>256</v>
       </c>
       <c r="B86" s="8">
         <f>COUNTIF(History!A:C,A86)</f>
@@ -7873,7 +8684,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B87" s="8">
         <f>COUNTIF(History!A:C,A87)</f>
@@ -7890,7 +8701,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B88" s="8">
         <f>COUNTIF(History!A:C,A88)</f>
@@ -7907,7 +8718,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="B89" s="8">
         <f>COUNTIF(History!A:C,A89)</f>
@@ -7924,7 +8735,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="B90" s="8">
         <f>COUNTIF(History!A:C,A90)</f>
@@ -7941,7 +8752,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B91" s="8">
         <f>COUNTIF(History!A:C,A91)</f>
@@ -7958,7 +8769,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B92" s="8">
         <f>COUNTIF(History!A:C,A92)</f>
@@ -7975,7 +8786,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="B93" s="8">
         <f>COUNTIF(History!A:C,A93)</f>
@@ -7992,7 +8803,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="B94" s="8">
         <f>COUNTIF(History!A:C,A94)</f>
@@ -8009,7 +8820,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B95" s="8">
         <f>COUNTIF(History!A:C,A95)</f>
@@ -8026,7 +8837,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="B96" s="8">
         <f>COUNTIF(History!A:C,A96)</f>
@@ -8043,7 +8854,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B97" s="8">
         <f>COUNTIF(History!A:C,A97)</f>
@@ -8060,7 +8871,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="B98" s="8">
         <f>COUNTIF(History!A:C,A98)</f>
@@ -8077,7 +8888,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="B99" s="8">
         <f>COUNTIF(History!A:C,A99)</f>
@@ -8094,7 +8905,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B100" s="8">
         <f>COUNTIF(History!A:C,A100)</f>
@@ -8111,7 +8922,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="B101" s="8">
         <f>COUNTIF(History!A:C,A101)</f>
@@ -8128,7 +8939,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="B102" s="8">
         <f>COUNTIF(History!A:C,A102)</f>
@@ -8145,7 +8956,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="B103" s="8">
         <f>COUNTIF(History!A:C,A103)</f>
@@ -8162,7 +8973,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B104" s="8">
         <f>COUNTIF(History!A:C,A104)</f>
@@ -8179,19 +8990,19 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B105" s="8">
         <f>COUNTIF(History!A:C,A105)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="8">
         <f>COUNTIF(History!A:A,A105)</f>
         <v>0</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -12292,151 +13103,151 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>swampert:25</v>
+        <v>swampert:27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>swampert:25,giratina_altered:25</v>
+        <v>swampert:27,giratina_altered:26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4,meganium:1</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1,granbull:2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4,meganium:1,machamp:7</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1,granbull:2,machamp:7</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!C25)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4,meganium:1,machamp:7,lucario:2</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1,granbull:2,machamp:7,shiftry:4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!C26)</f>
-        <v>swampert:25,giratina_altered:25,cresselia:34,registeel:24,muk_alolan:8,charizard:9,snorlax:6,poliwrath:10,escavalier:13,togekiss:4,mewtwo_armored:4,gyarados:9,articuno:8,melmetal:10,obstagoon:7,clefable:4,venusaur:2,empoleon:5,lapras:7,scizor:7,shiftry:4,meganium:1,machamp:7,lucario:2,giratina_origin:1</v>
+        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1,granbull:2,machamp:7,shiftry:4,giratina_origin:2</v>
       </c>
     </row>
   </sheetData>
@@ -12450,7 +13261,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A38" sqref="A38:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12466,151 +13277,151 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>swampert:99</v>
+        <v>swampert:109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>swampert:99,giratina_altered:83</v>
+        <v>swampert:109,giratina_altered:90</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9,meganium:12</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12,granbull:10</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!B24,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9,meganium:12,machamp:9</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12,granbull:10,machamp:9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!B25,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9,meganium:12,machamp:9,lucario:6</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12,granbull:10,machamp:9,shiftry:9</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!B26,)</f>
-        <v>swampert:99,giratina_altered:83,cresselia:73,registeel:71,muk_alolan:39,charizard:32,snorlax:28,poliwrath:25,escavalier:24,togekiss:24,mewtwo_armored:22,gyarados:18,articuno:21,melmetal:17,obstagoon:16,clefable:15,venusaur:14,empoleon:13,lapras:15,scizor:12,shiftry:9,meganium:12,machamp:9,lucario:6,giratina_origin:7</v>
+        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12,granbull:10,machamp:9,shiftry:9,giratina_origin:8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Ultra - Season 02.xlsx
+++ b/src/main/resources/data/Ultra - Season 02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994BB305-7120-4A81-A71A-BF655A2C1ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EA0D10-9C58-4F5C-8C9C-FE69745F797C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" activeTab="1" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="413">
   <si>
     <t>Lead</t>
   </si>
@@ -1268,6 +1268,18 @@
   </si>
   <si>
     <t>Suicune</t>
+  </si>
+  <si>
+    <t>Jirachi</t>
+  </si>
+  <si>
+    <t>perrserker</t>
+  </si>
+  <si>
+    <t>Perrserker</t>
+  </si>
+  <si>
+    <t>Torterra</t>
   </si>
 </sst>
 </file>
@@ -1679,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:E375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+    <sheetView topLeftCell="A319" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6418,17 +6430,32 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
+      <c r="A281" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>409</v>
+      </c>
       <c r="D281" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E281" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D282" s="9" t="s">
         <v>331</v>
       </c>
@@ -6437,6 +6464,15 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D283" s="9" t="s">
         <v>331</v>
       </c>
@@ -6445,6 +6481,15 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="D284" s="9" t="s">
         <v>331</v>
       </c>
@@ -6453,7 +6498,15 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C285" s="8"/>
+      <c r="A285" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="D285" s="9" t="s">
         <v>331</v>
       </c>
@@ -6462,14 +6515,32 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="D286" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E286" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="D287" s="9" t="s">
         <v>331</v>
       </c>
@@ -6478,14 +6549,32 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D288" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E288" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D289" s="9" t="s">
         <v>331</v>
       </c>
@@ -6493,7 +6582,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D290" s="9" t="s">
         <v>331</v>
       </c>
@@ -6501,15 +6599,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D291" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E291" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D292" s="9" t="s">
         <v>331</v>
       </c>
@@ -6517,7 +6633,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="D293" s="9" t="s">
         <v>331</v>
       </c>
@@ -6525,7 +6650,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D294" s="9" t="s">
         <v>331</v>
       </c>
@@ -6533,7 +6667,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D295" s="9" t="s">
         <v>331</v>
       </c>
@@ -6541,7 +6684,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D296" s="9" t="s">
         <v>331</v>
       </c>
@@ -6549,15 +6701,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D297" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E297" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D298" s="9" t="s">
         <v>331</v>
       </c>
@@ -6565,15 +6735,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D299" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E299" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D300" s="9" t="s">
         <v>331</v>
       </c>
@@ -6581,7 +6769,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D301" s="9" t="s">
         <v>331</v>
       </c>
@@ -6589,23 +6786,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D302" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E302" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D303" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E303" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D304" s="9" t="s">
         <v>331</v>
       </c>
@@ -6613,7 +6837,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D305" s="9" t="s">
         <v>331</v>
       </c>
@@ -6621,15 +6854,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D306" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E306" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D307" s="9" t="s">
         <v>331</v>
       </c>
@@ -6637,23 +6888,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D308" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E308" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D309" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E309" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D310" s="9" t="s">
         <v>331</v>
       </c>
@@ -6661,7 +6936,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D311" s="9" t="s">
         <v>331</v>
       </c>
@@ -6669,7 +6953,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D312" s="9" t="s">
         <v>331</v>
       </c>
@@ -6677,7 +6970,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D313" s="9" t="s">
         <v>331</v>
       </c>
@@ -6685,7 +6987,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="D314" s="9" t="s">
         <v>331</v>
       </c>
@@ -6693,23 +7004,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D315" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E315" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D316" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E316" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D317" s="9" t="s">
         <v>331</v>
       </c>
@@ -6717,23 +7055,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D318" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E318" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D319" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E319" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="D320" s="9" t="s">
         <v>331</v>
       </c>
@@ -6741,15 +7106,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D321" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E321" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D322" s="9" t="s">
         <v>331</v>
       </c>
@@ -6757,23 +7140,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D323" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E323" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D324" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E324" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D325" s="9" t="s">
         <v>331</v>
       </c>
@@ -6781,7 +7191,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D326" s="9" t="s">
         <v>331</v>
       </c>
@@ -6789,7 +7208,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D327" s="9" t="s">
         <v>331</v>
       </c>
@@ -6797,7 +7225,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D328" s="9" t="s">
         <v>331</v>
       </c>
@@ -6805,23 +7242,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="D329" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E329" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D330" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E330" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D331" s="9" t="s">
         <v>331</v>
       </c>
@@ -6829,23 +7293,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D332" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E332" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="D333" s="9" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="E333" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="D334" s="9" t="s">
         <v>331</v>
       </c>
@@ -6853,7 +7344,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D335" s="9" t="s">
         <v>331</v>
       </c>
@@ -6861,7 +7361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D336" s="9" t="s">
         <v>331</v>
       </c>
@@ -7192,7 +7692,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A543:A1048576 C206 A206 A141:B141 C395 A395 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B339:C339 A340:C394 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A277:C338 A276</xm:sqref>
+          <xm:sqref>A1 A543:A1048576 C206 A206 A141:B141 C395 A395 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 A340:C394 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 B301:C309 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B331:C339 B330</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7202,10 +7702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6F3C74-44B5-471F-AE13-9C8CA1826F77}">
-  <dimension ref="A1:D344"/>
+  <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7239,126 +7739,126 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <f>C2*100/B2</f>
-        <v>24.770642201834864</v>
+        <v>45.263157894736842</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">C3*100/B3</f>
-        <v>28.888888888888889</v>
+        <v>24.21875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>48.101265822784811</v>
+        <v>35.227272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>5</v>
+        <v>334</v>
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>33.766233766233768</v>
+        <v>26.785714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>47.368421052631582</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>25.714285714285715</v>
+        <v>57.692307692307693</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>48.275862068965516</v>
+        <v>38.70967741935484</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>35</v>
+        <v>394</v>
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
@@ -7366,37 +7866,37 @@
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>24.137931034482758</v>
+        <v>41.379310344827587</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>24.137931034482758</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
@@ -7404,126 +7904,126 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>39.285714285714285</v>
+        <v>26.829268292682926</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>394</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>17.391304347826086</v>
+        <v>28.571428571428573</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>40.909090909090907</v>
+        <v>52.631578947368418</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>61.904761904761905</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>52.631578947368418</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>23.529411764705884</v>
+        <v>40.909090909090907</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>18.75</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7532,7 +8032,7 @@
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
@@ -7540,118 +8040,118 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>46.666666666666664</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>35.714285714285715</v>
+        <v>26.086956521739129</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
+        <v>17.391304347826086</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23.529411764705884</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>77.777777777777771</v>
+        <v>21.428571428571427</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="8">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>44.444444444444443</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="8">
         <f>COUNTIF(History!A:A,A26)</f>
@@ -7659,16 +8159,16 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28.571428571428573</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
@@ -7676,33 +8176,33 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" s="8">
         <f>COUNTIF(History!A:A,A28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="8">
         <f>COUNTIF(History!A:A,A29)</f>
@@ -7710,33 +8210,33 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="8">
         <f>COUNTIF(History!A:A,A30)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C31" s="8">
         <f>COUNTIF(History!A:A,A31)</f>
@@ -7744,16 +8244,16 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>15.384615384615385</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="8">
         <f>COUNTIF(History!A:A,A32)</f>
@@ -7761,12 +8261,12 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
@@ -7783,7 +8283,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -7791,16 +8291,16 @@
       </c>
       <c r="C34" s="8">
         <f>COUNTIF(History!A:A,A34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -7834,41 +8334,41 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="8">
         <f>COUNTIF(History!A:A,A37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="8">
         <f>COUNTIF(History!A:A,A38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
@@ -7885,7 +8385,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -7902,70 +8402,70 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C41" s="8">
         <f>COUNTIF(History!A:A,A41)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" s="8">
         <f>COUNTIF(History!A:A,A42)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="8">
         <f>COUNTIF(History!A:A,A43)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="8">
         <f>COUNTIF(History!A:A,A44)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8756,15 +9256,15 @@
       </c>
       <c r="B91" s="8">
         <f>COUNTIF(History!A:C,A91)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="8">
         <f>COUNTIF(History!A:A,A91)</f>
         <v>0</v>
       </c>
-      <c r="D91" t="e">
+      <c r="D91">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -8773,15 +9273,15 @@
       </c>
       <c r="B92" s="8">
         <f>COUNTIF(History!A:C,A92)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="8">
         <f>COUNTIF(History!A:A,A92)</f>
         <v>0</v>
       </c>
-      <c r="D92" t="e">
+      <c r="D92">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -13068,10 +13568,27 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B345" s="8">
+        <f>COUNTIF(History!A:C,A345)</f>
+        <v>1</v>
+      </c>
+      <c r="C345" s="8">
+        <f>COUNTIF(History!A:A,A345)</f>
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <f t="shared" ref="D345" si="7">C345*100/B345</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{B7BFFF1C-AC35-4424-B8F4-04250131A25E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C344">
-      <sortCondition descending="1" ref="B1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C345">
+      <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -13084,7 +13601,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13103,151 +13620,151 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>swampert:27</v>
+        <v>cresselia:43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>swampert:27,giratina_altered:26</v>
+        <v>cresselia:43,swampert:31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38</v>
+        <v>cresselia:43,swampert:31,registeel:31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9,muk_alolan:8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9,muk_alolan:8,lapras:7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9,muk_alolan:8,lapras:7,clefable:6</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,shiftry:4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1,granbull:2</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,shiftry:4,venusaur:4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1,granbull:2,machamp:7</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,shiftry:4,venusaur:4,granbull:3</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!C25)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1,granbull:2,machamp:7,shiftry:4</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,shiftry:4,venusaur:4,granbull:3,giratina_origin:2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!C26)</f>
-        <v>swampert:27,giratina_altered:26,cresselia:38,registeel:26,muk_alolan:8,charizard:9,escavalier:14,snorlax:7,togekiss:7,poliwrath:11,obstagoon:9,mewtwo_armored:4,articuno:9,melmetal:13,gyarados:10,clefable:4,venusaur:3,lapras:7,empoleon:5,scizor:7,meganium:1,granbull:2,machamp:7,shiftry:4,giratina_origin:2</v>
+        <v>cresselia:43,swampert:31,registeel:31,giratina_altered:30,escavalier:18,melmetal:15,poliwrath:12,obstagoon:12,gyarados:12,charizard:11,togekiss:10,snorlax:10,scizor:10,articuno:9,machamp:9,empoleon:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,shiftry:4,venusaur:4,granbull:3,giratina_origin:2,lucario:2</v>
       </c>
     </row>
   </sheetData>
@@ -13277,151 +13794,151 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>swampert:109</v>
+        <v>cresselia:95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>swampert:109,giratina_altered:90</v>
+        <v>cresselia:95,swampert:128</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79</v>
+        <v>cresselia:95,swampert:128,registeel:88</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22,muk_alolan:44</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22,muk_alolan:44,lapras:16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22,muk_alolan:44,lapras:16,clefable:23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22,muk_alolan:44,lapras:16,clefable:23,mewtwo_armored:23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22,muk_alolan:44,lapras:16,clefable:23,mewtwo_armored:23,shiftry:9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12,granbull:10</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22,muk_alolan:44,lapras:16,clefable:23,mewtwo_armored:23,shiftry:9,venusaur:17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!B24,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12,granbull:10,machamp:9</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22,muk_alolan:44,lapras:16,clefable:23,mewtwo_armored:23,shiftry:9,venusaur:17,granbull:14</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!B25,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12,granbull:10,machamp:9,shiftry:9</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22,muk_alolan:44,lapras:16,clefable:23,mewtwo_armored:23,shiftry:9,venusaur:17,granbull:14,giratina_origin:8</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!B26,)</f>
-        <v>swampert:109,giratina_altered:90,cresselia:79,registeel:77,muk_alolan:40,charizard:35,escavalier:29,snorlax:29,togekiss:29,poliwrath:28,obstagoon:24,mewtwo_armored:23,articuno:22,melmetal:21,gyarados:19,clefable:17,venusaur:16,lapras:15,empoleon:14,scizor:12,meganium:12,granbull:10,machamp:9,shiftry:9,giratina_origin:8</v>
+        <v>cresselia:95,swampert:128,registeel:88,giratina_altered:112,escavalier:38,melmetal:26,poliwrath:31,obstagoon:29,gyarados:24,charizard:41,togekiss:40,snorlax:35,scizor:19,articuno:25,machamp:12,empoleon:22,muk_alolan:44,lapras:16,clefable:23,mewtwo_armored:23,shiftry:9,venusaur:17,granbull:14,giratina_origin:8,lucario:7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Ultra - Season 02.xlsx
+++ b/src/main/resources/data/Ultra - Season 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1DEC94-BDAB-40FF-96FC-B96BF6609E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907667FD-868F-451F-B798-AD13EF8989E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="Totals" sheetId="8" r:id="rId2"/>
     <sheet name="LeadsString" sheetId="9" r:id="rId3"/>
     <sheet name="OcurrencesString" sheetId="11" r:id="rId4"/>
-    <sheet name="Planilha1" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="BackString" sheetId="12" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="10" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">History!$A$1:$E$515</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="427">
   <si>
     <t>Lead</t>
   </si>
@@ -1310,6 +1311,18 @@
   </si>
   <si>
     <t>Lead 401-500</t>
+  </si>
+  <si>
+    <t>Pokémon in the back</t>
+  </si>
+  <si>
+    <t>Gardevoir</t>
+  </si>
+  <si>
+    <t>Roserade</t>
+  </si>
+  <si>
+    <t>Moltres</t>
   </si>
 </sst>
 </file>
@@ -1719,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
-  <dimension ref="A1:E375"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView topLeftCell="A384" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7902,6 +7915,15 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D366" s="9" t="s">
         <v>330</v>
       </c>
@@ -7910,38 +7932,83 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D367" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E367" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="D368" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E368" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="D369" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E369" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="D370" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E370" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D371" s="9" t="s">
         <v>330</v>
       </c>
@@ -7949,7 +8016,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="D372" s="9" t="s">
         <v>330</v>
       </c>
@@ -7957,7 +8033,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D373" s="9" t="s">
         <v>330</v>
       </c>
@@ -7965,19 +8050,627 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D374" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E374" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D375" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E375" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E376" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E377" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E378" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E379" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E380" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D381" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E381" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D382" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E382" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D383" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E383" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D384" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E384" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E385" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D386" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E386" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D387" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E387" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D388" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E388" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D389" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E389" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D390" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E390" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D391" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E391" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D392" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E392" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D393" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E393" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D394" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E394" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D395" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E395" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D396" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E396" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D397" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E397" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D398" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E398" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D399" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E399" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D400" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E400" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D401" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E401" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D402" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E402" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D403" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E403" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D404" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E404" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D405" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E405" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D406" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E406" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D407" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E407" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D408" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E408" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D409" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E409" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D410" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E410" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D411" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E411" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D412" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E412" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D413" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E413" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D414" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E414" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D415" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E415" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D416" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E416" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D417" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E417" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D418" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E418" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D419" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E419" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D420" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E420" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D421" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E421" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D422" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E422" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D423" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E423" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D424" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E424" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D425" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E425" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D426" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E426" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D427" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E427" s="2">
         <v>9</v>
       </c>
     </row>
@@ -7992,7 +8685,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A543:A1048576 C206 A206 A141:B141 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 B301:C309 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A353:B354 B362:B394 B356:B357 B360 C339:C395 A356:A363 A365:A395</xm:sqref>
+          <xm:sqref>A1 A543:A1048576 C206 A206 A141:B141 C435 A396:C434 A435 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A482:C542 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 B301:C309 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A353:B354 B356:B357 B360 A356:A363 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8005,7 +8698,7 @@
   <dimension ref="A1:S345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8096,15 +8789,15 @@
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>46.296296296296298</v>
+        <v>44.827586206896555</v>
       </c>
       <c r="E2" s="8">
         <f>COUNTIF(History!A2:C101,A2)</f>
@@ -8144,15 +8837,15 @@
       </c>
       <c r="N2" s="2">
         <f>COUNTIF(History!A302:C401,A2)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
         <f>COUNTIF(History!A302:A401,A2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <f>O2*100/N2</f>
-        <v>44</v>
+        <v>39.393939393939391</v>
       </c>
       <c r="Q2" s="2">
         <f>COUNTIF(History!A402:C501,A2)</f>
@@ -8173,15 +8866,15 @@
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>29.365079365079364</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="E3" s="8">
         <f>COUNTIF(History!A3:C102,A3)</f>
@@ -8221,15 +8914,15 @@
       </c>
       <c r="N3" s="2">
         <f>COUNTIF(History!A303:C402,A3)</f>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O3" s="2">
         <f>COUNTIF(History!A303:A402,A3)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <f>O3*100/N3</f>
-        <v>28.571428571428573</v>
+        <v>38.095238095238095</v>
       </c>
       <c r="Q3" s="2">
         <f>COUNTIF(History!A403:C502,A3)</f>
@@ -8250,15 +8943,15 @@
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>23.571428571428573</v>
+        <v>23.529411764705884</v>
       </c>
       <c r="E4" s="8">
         <f>COUNTIF(History!A4:C103,A4)</f>
@@ -8298,15 +8991,15 @@
       </c>
       <c r="N4" s="2">
         <f>COUNTIF(History!A304:C403,A4)</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2">
         <f>COUNTIF(History!A304:A403,A4)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P4" s="2">
         <f>O4*100/N4</f>
-        <v>20</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="Q4" s="2">
         <f>COUNTIF(History!A404:C503,A4)</f>
@@ -8327,15 +9020,15 @@
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>32.653061224489797</v>
+        <v>32.710280373831779</v>
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(History!A5:C104,A5)</f>
@@ -8375,15 +9068,15 @@
       </c>
       <c r="N5" s="2">
         <f>COUNTIF(History!A305:C404,A5)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O5" s="2">
         <f>COUNTIF(History!A305:A404,A5)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P5" s="2">
         <f>O5*100/N5</f>
-        <v>31.25</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2">
         <f>COUNTIF(History!A405:C504,A5)</f>
@@ -8404,15 +9097,15 @@
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>47.5</v>
+        <v>51.162790697674417</v>
       </c>
       <c r="E6" s="8">
         <f>COUNTIF(History!A6:C105,A6)</f>
@@ -8452,15 +9145,15 @@
       </c>
       <c r="N6" s="2">
         <f>COUNTIF(History!A306:C405,A6)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O6" s="2">
         <f>COUNTIF(History!A306:A405,A6)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P6" s="2">
         <f>O6*100/N6</f>
-        <v>50</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="Q6" s="2">
         <f>COUNTIF(History!A406:C505,A6)</f>
@@ -8477,74 +9170,74 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>51.724137931034484</v>
+        <v>44.736842105263158</v>
       </c>
       <c r="E7" s="8">
-        <f>COUNTIF(History!A7:C106,A7)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A8:C107,A7)</f>
+        <v>2</v>
       </c>
       <c r="F7" s="8">
-        <f>COUNTIF(History!A7:A106,A7)</f>
+        <f>COUNTIF(History!A8:A107,A7)</f>
         <v>2</v>
       </c>
       <c r="G7" s="2">
         <f>F7*100/E7</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2">
-        <f>COUNTIF(History!A107:C206,A7)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A108:C207,A7)</f>
+        <v>10</v>
       </c>
       <c r="I7" s="2">
-        <f>COUNTIF(History!A107:A206,A7)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A108:A207,A7)</f>
+        <v>4</v>
       </c>
       <c r="J7" s="2">
         <f>I7*100/H7</f>
-        <v>87.5</v>
+        <v>40</v>
       </c>
       <c r="K7" s="2">
-        <f>COUNTIF(History!A207:C306,A7)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A208:C307,A7)</f>
+        <v>15</v>
       </c>
       <c r="L7" s="2">
-        <f>COUNTIF(History!A207:A306,A7)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A208:A307,A7)</f>
+        <v>6</v>
       </c>
       <c r="M7" s="2">
         <f>L7*100/K7</f>
         <v>40</v>
       </c>
       <c r="N7" s="2">
-        <f>COUNTIF(History!A307:C406,A7)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A308:C407,A7)</f>
+        <v>11</v>
       </c>
       <c r="O7" s="2">
-        <f>COUNTIF(History!A307:A406,A7)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A308:A407,A7)</f>
+        <v>5</v>
       </c>
       <c r="P7" s="2">
         <f>O7*100/N7</f>
-        <v>33.333333333333336</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="Q7" s="2">
-        <f>COUNTIF(History!A407:C506,A7)</f>
+        <f>COUNTIF(History!A408:C507,A7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="2">
-        <f>COUNTIF(History!A407:A506,A7)</f>
+        <f>COUNTIF(History!A408:A507,A7)</f>
         <v>0</v>
       </c>
       <c r="S7" s="2" t="e">
@@ -8554,74 +9247,74 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>42.424242424242422</v>
+        <v>48.387096774193552</v>
       </c>
       <c r="E8" s="8">
-        <f>COUNTIF(History!A8:C107,A8)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A7:C106,A8)</f>
+        <v>4</v>
       </c>
       <c r="F8" s="8">
-        <f>COUNTIF(History!A8:A107,A8)</f>
+        <f>COUNTIF(History!A7:A106,A8)</f>
         <v>2</v>
       </c>
       <c r="G8" s="2">
         <f>F8*100/E8</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
-        <f>COUNTIF(History!A108:C207,A8)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A107:C206,A8)</f>
+        <v>8</v>
       </c>
       <c r="I8" s="2">
-        <f>COUNTIF(History!A108:A207,A8)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A107:A206,A8)</f>
+        <v>7</v>
       </c>
       <c r="J8" s="2">
         <f>I8*100/H8</f>
-        <v>40</v>
+        <v>87.5</v>
       </c>
       <c r="K8" s="2">
-        <f>COUNTIF(History!A208:C307,A8)</f>
-        <v>15</v>
+        <f>COUNTIF(History!A207:C306,A8)</f>
+        <v>10</v>
       </c>
       <c r="L8" s="2">
-        <f>COUNTIF(History!A208:A307,A8)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A207:A306,A8)</f>
+        <v>4</v>
       </c>
       <c r="M8" s="2">
         <f>L8*100/K8</f>
         <v>40</v>
       </c>
       <c r="N8" s="2">
-        <f>COUNTIF(History!A308:C407,A8)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A307:C406,A8)</f>
+        <v>8</v>
       </c>
       <c r="O8" s="2">
-        <f>COUNTIF(History!A308:A407,A8)</f>
+        <f>COUNTIF(History!A307:A406,A8)</f>
         <v>2</v>
       </c>
       <c r="P8" s="2">
         <f>O8*100/N8</f>
-        <v>33.333333333333336</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="2">
-        <f>COUNTIF(History!A408:C507,A8)</f>
+        <f>COUNTIF(History!A407:C506,A8)</f>
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <f>COUNTIF(History!A408:A507,A8)</f>
+        <f>COUNTIF(History!A407:A506,A8)</f>
         <v>0</v>
       </c>
       <c r="S8" s="2" t="e">
@@ -8631,74 +9324,74 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>50</v>
+        <v>38.888888888888886</v>
       </c>
       <c r="E9" s="8">
-        <f>COUNTIF(History!A10:C109,A9)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A9:C108,A9)</f>
+        <v>9</v>
       </c>
       <c r="F9" s="8">
-        <f>COUNTIF(History!A10:A109,A9)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A9:A108,A9)</f>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
         <f>F9*100/E9</f>
-        <v>57.142857142857146</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H9" s="2">
-        <f>COUNTIF(History!A110:C209,A9)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A109:C208,A9)</f>
+        <v>13</v>
       </c>
       <c r="I9" s="2">
-        <f>COUNTIF(History!A110:A209,A9)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A109:A208,A9)</f>
+        <v>6</v>
       </c>
       <c r="J9" s="2">
         <f>I9*100/H9</f>
-        <v>62.5</v>
+        <v>46.153846153846153</v>
       </c>
       <c r="K9" s="2">
-        <f>COUNTIF(History!A210:C309,A9)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A209:C308,A9)</f>
+        <v>6</v>
       </c>
       <c r="L9" s="2">
-        <f>COUNTIF(History!A210:A309,A9)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A209:A308,A9)</f>
+        <v>2</v>
       </c>
       <c r="M9" s="2">
         <f>L9*100/K9</f>
-        <v>25</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N9" s="2">
-        <f>COUNTIF(History!A310:C409,A9)</f>
+        <f>COUNTIF(History!A309:C408,A9)</f>
         <v>6</v>
       </c>
       <c r="O9" s="2">
-        <f>COUNTIF(History!A310:A409,A9)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A309:A408,A9)</f>
+        <v>2</v>
       </c>
       <c r="P9" s="2">
         <f>O9*100/N9</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Q9" s="2">
-        <f>COUNTIF(History!A410:C509,A9)</f>
+        <f>COUNTIF(History!A409:C508,A9)</f>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f>COUNTIF(History!A410:A509,A9)</f>
+        <f>COUNTIF(History!A409:A508,A9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="2" t="e">
@@ -8708,11 +9401,11 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
@@ -8720,62 +9413,62 @@
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>39.393939393939391</v>
+        <v>28.260869565217391</v>
       </c>
       <c r="E10" s="8">
-        <f>COUNTIF(History!A9:C108,A10)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A12:C111,A10)</f>
+        <v>7</v>
       </c>
       <c r="F10" s="8">
-        <f>COUNTIF(History!A9:A108,A10)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A12:A111,A10)</f>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <f>F10*100/E10</f>
-        <v>33.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f>COUNTIF(History!A109:C208,A10)</f>
-        <v>13</v>
+        <f>COUNTIF(History!A112:C211,A10)</f>
+        <v>12</v>
       </c>
       <c r="I10" s="2">
-        <f>COUNTIF(History!A109:A208,A10)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A112:A211,A10)</f>
+        <v>3</v>
       </c>
       <c r="J10" s="2">
         <f>I10*100/H10</f>
-        <v>46.153846153846153</v>
+        <v>25</v>
       </c>
       <c r="K10" s="2">
-        <f>COUNTIF(History!A209:C308,A10)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A212:C311,A10)</f>
+        <v>18</v>
       </c>
       <c r="L10" s="2">
-        <f>COUNTIF(History!A209:A308,A10)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A212:A311,A10)</f>
+        <v>7</v>
       </c>
       <c r="M10" s="2">
         <f>L10*100/K10</f>
-        <v>33.333333333333336</v>
+        <v>38.888888888888886</v>
       </c>
       <c r="N10" s="2">
-        <f>COUNTIF(History!A309:C408,A10)</f>
+        <f>COUNTIF(History!A312:C411,A10)</f>
+        <v>9</v>
+      </c>
+      <c r="O10" s="2">
+        <f>COUNTIF(History!A312:A411,A10)</f>
         <v>3</v>
-      </c>
-      <c r="O10" s="2">
-        <f>COUNTIF(History!A309:A408,A10)</f>
-        <v>1</v>
       </c>
       <c r="P10" s="2">
         <f>O10*100/N10</f>
         <v>33.333333333333336</v>
       </c>
       <c r="Q10" s="2">
-        <f>COUNTIF(History!A409:C508,A10)</f>
+        <f>COUNTIF(History!A412:C511,A10)</f>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f>COUNTIF(History!A409:A508,A10)</f>
+        <f>COUNTIF(History!A412:A511,A10)</f>
         <v>0</v>
       </c>
       <c r="S10" s="2" t="e">
@@ -8785,74 +9478,74 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
-        <v>27.906976744186046</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8">
-        <f>COUNTIF(History!A12:C111,A11)</f>
+        <f>COUNTIF(History!A10:C109,A11)</f>
         <v>7</v>
       </c>
       <c r="F11" s="8">
-        <f>COUNTIF(History!A12:A111,A11)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A10:A109,A11)</f>
+        <v>4</v>
       </c>
       <c r="G11" s="2">
         <f>F11*100/E11</f>
-        <v>0</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="H11" s="2">
-        <f>COUNTIF(History!A112:C211,A11)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A110:C209,A11)</f>
+        <v>8</v>
       </c>
       <c r="I11" s="2">
-        <f>COUNTIF(History!A112:A211,A11)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A110:A209,A11)</f>
+        <v>5</v>
       </c>
       <c r="J11" s="2">
         <f>I11*100/H11</f>
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="K11" s="2">
-        <f>COUNTIF(History!A212:C311,A11)</f>
-        <v>18</v>
+        <f>COUNTIF(History!A210:C309,A11)</f>
+        <v>4</v>
       </c>
       <c r="L11" s="2">
-        <f>COUNTIF(History!A212:A311,A11)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A210:A309,A11)</f>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <f>L11*100/K11</f>
-        <v>38.888888888888886</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2">
-        <f>COUNTIF(History!A312:C411,A11)</f>
+        <f>COUNTIF(History!A310:C409,A11)</f>
         <v>6</v>
       </c>
       <c r="O11" s="2">
-        <f>COUNTIF(History!A312:A411,A11)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A310:A409,A11)</f>
+        <v>3</v>
       </c>
       <c r="P11" s="2">
         <f>O11*100/N11</f>
-        <v>33.333333333333336</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="2">
-        <f>COUNTIF(History!A412:C511,A11)</f>
+        <f>COUNTIF(History!A410:C509,A11)</f>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f>COUNTIF(History!A412:A511,A11)</f>
+        <f>COUNTIF(History!A410:A509,A11)</f>
         <v>0</v>
       </c>
       <c r="S11" s="2" t="e">
@@ -8866,7 +9559,7 @@
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
@@ -8874,7 +9567,7 @@
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>27.906976744186046</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="E12" s="8">
         <f>COUNTIF(History!A11:C110,A12)</f>
@@ -8914,7 +9607,7 @@
       </c>
       <c r="N12" s="2">
         <f>COUNTIF(History!A311:C410,A12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O12" s="2">
         <f>COUNTIF(History!A311:A410,A12)</f>
@@ -8922,7 +9615,7 @@
       </c>
       <c r="P12" s="2">
         <f>O12*100/N12</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Q12" s="2">
         <f>COUNTIF(History!A411:C510,A12)</f>
@@ -9016,74 +9709,74 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>27.027027027027028</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="E14" s="8">
-        <f>COUNTIF(History!A14:C113,A14)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A15:C114,A14)</f>
+        <v>3</v>
       </c>
       <c r="F14" s="8">
-        <f>COUNTIF(History!A14:A113,A14)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A15:A114,A14)</f>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <f>F14*100/E14</f>
-        <v>25</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H14" s="2">
-        <f>COUNTIF(History!A114:C213,A14)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A115:C214,A14)</f>
+        <v>8</v>
       </c>
       <c r="I14" s="2">
-        <f>COUNTIF(History!A114:A213,A14)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A115:A214,A14)</f>
+        <v>5</v>
       </c>
       <c r="J14" s="2">
         <f>I14*100/H14</f>
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="K14" s="2">
-        <f>COUNTIF(History!A214:C313,A14)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A215:C314,A14)</f>
+        <v>4</v>
       </c>
       <c r="L14" s="2">
-        <f>COUNTIF(History!A214:A313,A14)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A215:A314,A14)</f>
+        <v>2</v>
       </c>
       <c r="M14" s="2">
         <f>L14*100/K14</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N14" s="2">
-        <f>COUNTIF(History!A314:C413,A14)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A315:C414,A14)</f>
+        <v>7</v>
       </c>
       <c r="O14" s="2">
-        <f>COUNTIF(History!A314:A413,A14)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A315:A414,A14)</f>
+        <v>4</v>
       </c>
       <c r="P14" s="2">
         <f>O14*100/N14</f>
-        <v>50</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="Q14" s="2">
-        <f>COUNTIF(History!A414:C513,A14)</f>
+        <f>COUNTIF(History!A415:C514,A14)</f>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>COUNTIF(History!A414:A513,A14)</f>
+        <f>COUNTIF(History!A415:A514,A14)</f>
         <v>0</v>
       </c>
       <c r="S14" s="2" t="e">
@@ -9093,11 +9786,11 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
@@ -9105,62 +9798,62 @@
       </c>
       <c r="D15" s="2">
         <f>C15*100/B15</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E15" s="8">
-        <f>COUNTIF(History!A15:C114,A15)</f>
+        <f>COUNTIF(History!A14:C113,A15)</f>
+        <v>12</v>
+      </c>
+      <c r="F15" s="8">
+        <f>COUNTIF(History!A14:A113,A15)</f>
         <v>3</v>
-      </c>
-      <c r="F15" s="8">
-        <f>COUNTIF(History!A15:A114,A15)</f>
-        <v>1</v>
       </c>
       <c r="G15" s="2">
         <f>F15*100/E15</f>
-        <v>33.333333333333336</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2">
-        <f>COUNTIF(History!A115:C214,A15)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A114:C213,A15)</f>
+        <v>12</v>
       </c>
       <c r="I15" s="2">
-        <f>COUNTIF(History!A115:A214,A15)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A114:A213,A15)</f>
+        <v>3</v>
       </c>
       <c r="J15" s="2">
         <f>I15*100/H15</f>
-        <v>62.5</v>
+        <v>25</v>
       </c>
       <c r="K15" s="2">
-        <f>COUNTIF(History!A215:C314,A15)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A214:C313,A15)</f>
+        <v>5</v>
       </c>
       <c r="L15" s="2">
-        <f>COUNTIF(History!A215:A314,A15)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A214:A313,A15)</f>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <f>L15*100/K15</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N15" s="2">
-        <f>COUNTIF(History!A315:C414,A15)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A314:C413,A15)</f>
+        <v>9</v>
       </c>
       <c r="O15" s="2">
-        <f>COUNTIF(History!A315:A414,A15)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A314:A413,A15)</f>
+        <v>3</v>
       </c>
       <c r="P15" s="2">
         <f>O15*100/N15</f>
-        <v>40</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Q15" s="2">
-        <f>COUNTIF(History!A415:C514,A15)</f>
+        <f>COUNTIF(History!A414:C513,A15)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>COUNTIF(History!A415:A514,A15)</f>
+        <f>COUNTIF(History!A414:A513,A15)</f>
         <v>0</v>
       </c>
       <c r="S15" s="2" t="e">
@@ -9174,7 +9867,7 @@
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
@@ -9182,7 +9875,7 @@
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>43.478260869565219</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="E16" s="8">
         <f>COUNTIF(History!A16:C115,A16)</f>
@@ -9222,7 +9915,7 @@
       </c>
       <c r="N16" s="2">
         <f>COUNTIF(History!A316:C415,A16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" s="2">
         <f>COUNTIF(History!A316:A415,A16)</f>
@@ -9230,7 +9923,7 @@
       </c>
       <c r="P16" s="2">
         <f>O16*100/N16</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Q16" s="2">
         <f>COUNTIF(History!A416:C515,A16)</f>
@@ -9328,7 +10021,7 @@
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
@@ -9336,7 +10029,7 @@
       </c>
       <c r="D18" s="2">
         <f>C18*100/B18</f>
-        <v>17.777777777777779</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="E18" s="8">
         <f>COUNTIF(History!A18:C117,A18)</f>
@@ -9376,7 +10069,7 @@
       </c>
       <c r="N18" s="2">
         <f>COUNTIF(History!A318:C417,A18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" s="2">
         <f>COUNTIF(History!A318:A417,A18)</f>
@@ -9405,7 +10098,7 @@
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
@@ -9413,7 +10106,7 @@
       </c>
       <c r="D19" s="2">
         <f>C19*100/B19</f>
-        <v>41.176470588235297</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E19" s="8">
         <f>COUNTIF(History!A19:C118,A19)</f>
@@ -9453,7 +10146,7 @@
       </c>
       <c r="N19" s="2">
         <f>COUNTIF(History!A319:C418,A19)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O19" s="2">
         <f>COUNTIF(History!A319:A418,A19)</f>
@@ -9482,7 +10175,7 @@
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
@@ -9490,7 +10183,7 @@
       </c>
       <c r="D20" s="2">
         <f>C20*100/B20</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="E20" s="8">
         <f>COUNTIF(History!A20:C119,A20)</f>
@@ -9530,7 +10223,7 @@
       </c>
       <c r="N20" s="2">
         <f>COUNTIF(History!A320:C419,A20)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O20" s="2">
         <f>COUNTIF(History!A320:A419,A20)</f>
@@ -9538,7 +10231,7 @@
       </c>
       <c r="P20" s="2">
         <f>O20*100/N20</f>
-        <v>20</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="Q20" s="2">
         <f>COUNTIF(History!A420:C519,A20)</f>
@@ -9555,74 +10248,74 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>334</v>
+        <v>9</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2">
         <f>C21*100/B21</f>
-        <v>16.666666666666668</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="E21" s="8">
-        <f>COUNTIF(History!A21:C120,A21)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A22:C121,A21)</f>
+        <v>3</v>
       </c>
       <c r="F21" s="8">
-        <f>COUNTIF(History!A21:A120,A21)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A22:A121,A21)</f>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
         <f>F21*100/E21</f>
-        <v>11.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>COUNTIF(History!A121:C220,A21)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A122:C221,A21)</f>
+        <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f>COUNTIF(History!A121:A220,A21)</f>
+        <f>COUNTIF(History!A122:A221,A21)</f>
         <v>2</v>
       </c>
       <c r="J21" s="2">
         <f>I21*100/H21</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2">
-        <f>COUNTIF(History!A221:C320,A21)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A222:C321,A21)</f>
+        <v>4</v>
       </c>
       <c r="L21" s="2">
-        <f>COUNTIF(History!A221:A320,A21)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A222:A321,A21)</f>
+        <v>2</v>
       </c>
       <c r="M21" s="2">
         <f>L21*100/K21</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N21" s="2">
-        <f>COUNTIF(History!A321:C420,A21)</f>
+        <f>COUNTIF(History!A322:C421,A21)</f>
         <v>1</v>
       </c>
       <c r="O21" s="2">
-        <f>COUNTIF(History!A321:A420,A21)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A322:A421,A21)</f>
+        <v>1</v>
       </c>
       <c r="P21" s="2">
         <f>O21*100/N21</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="2">
-        <f>COUNTIF(History!A421:C520,A21)</f>
+        <f>COUNTIF(History!A422:C521,A21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>COUNTIF(History!A421:A520,A21)</f>
+        <f>COUNTIF(History!A422:A521,A21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="2" t="e">
@@ -9632,11 +10325,11 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
@@ -9644,62 +10337,62 @@
       </c>
       <c r="D22" s="2">
         <f>C22*100/B22</f>
-        <v>23.529411764705884</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="E22" s="8">
-        <f>COUNTIF(History!A22:C121,A22)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A21:C120,A22)</f>
+        <v>9</v>
       </c>
       <c r="F22" s="8">
-        <f>COUNTIF(History!A22:A121,A22)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A21:A120,A22)</f>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <f>F22*100/E22</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H22" s="2">
-        <f>COUNTIF(History!A122:C221,A22)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A121:C220,A22)</f>
+        <v>5</v>
       </c>
       <c r="I22" s="2">
-        <f>COUNTIF(History!A122:A221,A22)</f>
+        <f>COUNTIF(History!A121:A220,A22)</f>
         <v>2</v>
       </c>
       <c r="J22" s="2">
         <f>I22*100/H22</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K22" s="2">
-        <f>COUNTIF(History!A222:C321,A22)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A221:C320,A22)</f>
+        <v>5</v>
       </c>
       <c r="L22" s="2">
-        <f>COUNTIF(History!A222:A321,A22)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A221:A320,A22)</f>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <f>L22*100/K22</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
-        <f>COUNTIF(History!A322:C421,A22)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A321:C420,A22)</f>
+        <v>3</v>
       </c>
       <c r="O22" s="2">
-        <f>COUNTIF(History!A322:A421,A22)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="2" t="e">
+        <f>COUNTIF(History!A321:A420,A22)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
         <f>O22*100/N22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <f>COUNTIF(History!A422:C521,A22)</f>
+        <f>COUNTIF(History!A421:C520,A22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>COUNTIF(History!A422:A521,A22)</f>
+        <f>COUNTIF(History!A421:A520,A22)</f>
         <v>0</v>
       </c>
       <c r="S22" s="2" t="e">
@@ -9709,11 +10402,11 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
@@ -9721,26 +10414,26 @@
       </c>
       <c r="D23" s="2">
         <f>C23*100/B23</f>
-        <v>44.444444444444443</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="E23" s="8">
-        <f>COUNTIF(History!A23:C122,A23)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A24:C123,A23)</f>
+        <v>4</v>
       </c>
       <c r="F23" s="8">
-        <f>COUNTIF(History!A23:A122,A23)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A24:A123,A23)</f>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <f>F23*100/E23</f>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <f>COUNTIF(History!A123:C222,A23)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A124:C223,A23)</f>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
-        <f>COUNTIF(History!A123:A222,A23)</f>
+        <f>COUNTIF(History!A124:A223,A23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="2">
@@ -9748,35 +10441,35 @@
         <v>0</v>
       </c>
       <c r="K23" s="2">
-        <f>COUNTIF(History!A223:C322,A23)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A224:C323,A23)</f>
+        <v>9</v>
       </c>
       <c r="L23" s="2">
-        <f>COUNTIF(History!A223:A322,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="e">
+        <f>COUNTIF(History!A224:A323,A23)</f>
+        <v>3</v>
+      </c>
+      <c r="M23" s="2">
         <f>L23*100/K23</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N23" s="2">
-        <f>COUNTIF(History!A323:C422,A23)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A324:C423,A23)</f>
+        <v>5</v>
       </c>
       <c r="O23" s="2">
-        <f>COUNTIF(History!A323:A422,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="2" t="e">
+        <f>COUNTIF(History!A324:A423,A23)</f>
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
         <f>O23*100/N23</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2">
-        <f>COUNTIF(History!A423:C522,A23)</f>
+        <f>COUNTIF(History!A424:C523,A23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>COUNTIF(History!A423:A522,A23)</f>
+        <f>COUNTIF(History!A424:A523,A23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="2" t="e">
@@ -9786,38 +10479,38 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
         <f>C24*100/B24</f>
-        <v>16.666666666666668</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="E24" s="8">
-        <f>COUNTIF(History!A24:C123,A24)</f>
+        <f>COUNTIF(History!A23:C122,A24)</f>
+        <v>6</v>
+      </c>
+      <c r="F24" s="8">
+        <f>COUNTIF(History!A23:A122,A24)</f>
         <v>4</v>
-      </c>
-      <c r="F24" s="8">
-        <f>COUNTIF(History!A24:A123,A24)</f>
-        <v>0</v>
       </c>
       <c r="G24" s="2">
         <f>F24*100/E24</f>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H24" s="2">
-        <f>COUNTIF(History!A124:C223,A24)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A123:C222,A24)</f>
+        <v>3</v>
       </c>
       <c r="I24" s="2">
-        <f>COUNTIF(History!A124:A223,A24)</f>
+        <f>COUNTIF(History!A123:A222,A24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="2">
@@ -9825,35 +10518,35 @@
         <v>0</v>
       </c>
       <c r="K24" s="2">
-        <f>COUNTIF(History!A224:C323,A24)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A223:C322,A24)</f>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <f>COUNTIF(History!A224:A323,A24)</f>
-        <v>3</v>
-      </c>
-      <c r="M24" s="2">
+        <f>COUNTIF(History!A223:A322,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="e">
         <f>L24*100/K24</f>
-        <v>33.333333333333336</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N24" s="2">
-        <f>COUNTIF(History!A324:C423,A24)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A323:C422,A24)</f>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f>COUNTIF(History!A324:A423,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
+        <f>COUNTIF(History!A323:A422,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="e">
         <f>O24*100/N24</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="2">
-        <f>COUNTIF(History!A424:C523,A24)</f>
+        <f>COUNTIF(History!A423:C522,A24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <f>COUNTIF(History!A424:A523,A24)</f>
+        <f>COUNTIF(History!A423:A522,A24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="2" t="e">
@@ -9867,15 +10560,15 @@
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="8">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
         <f>C25*100/B25</f>
-        <v>33.333333333333336</v>
+        <v>40</v>
       </c>
       <c r="E25" s="8">
         <f>COUNTIF(History!A25:C124,A25)</f>
@@ -9915,11 +10608,11 @@
       </c>
       <c r="N25" s="2">
         <f>COUNTIF(History!A325:C424,A25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" s="2">
         <f>COUNTIF(History!A325:A424,A25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="2">
         <f>O25*100/N25</f>
@@ -9940,74 +10633,74 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C26" s="8">
         <f>COUNTIF(History!A:A,A26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
         <f>C26*100/B26</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E26" s="8">
-        <f>COUNTIF(History!A27:C126,A26)</f>
+        <f>COUNTIF(History!A28:C127,A26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <f>COUNTIF(History!A28:A127,A26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="e">
+        <f>F26*100/E26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="2">
+        <f>COUNTIF(History!A128:C227,A26)</f>
         <v>2</v>
       </c>
-      <c r="F26" s="8">
-        <f>COUNTIF(History!A27:A126,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <f>F26*100/E26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <f>COUNTIF(History!A127:C226,A26)</f>
-        <v>4</v>
-      </c>
       <c r="I26" s="2">
-        <f>COUNTIF(History!A127:A226,A26)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A128:A227,A26)</f>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
         <f>I26*100/H26</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
-        <f>COUNTIF(History!A227:C326,A26)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A228:C327,A26)</f>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <f>COUNTIF(History!A227:A326,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="2" t="e">
+        <f>COUNTIF(History!A228:A327,A26)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
         <f>L26*100/K26</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="N26" s="2">
-        <f>COUNTIF(History!A327:C426,A26)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A328:C427,A26)</f>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
-        <f>COUNTIF(History!A327:A426,A26)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A328:A427,A26)</f>
+        <v>1</v>
       </c>
       <c r="P26" s="2">
         <f>O26*100/N26</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="2">
-        <f>COUNTIF(History!A427:C526,A26)</f>
+        <f>COUNTIF(History!A428:C527,A26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <f>COUNTIF(History!A427:A526,A26)</f>
+        <f>COUNTIF(History!A428:A527,A26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="e">
@@ -10021,7 +10714,7 @@
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
@@ -10029,7 +10722,7 @@
       </c>
       <c r="D27" s="2">
         <f>C27*100/B27</f>
-        <v>14.285714285714286</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="E27" s="8">
         <f>COUNTIF(History!A26:C125,A27)</f>
@@ -10069,7 +10762,7 @@
       </c>
       <c r="N27" s="2">
         <f>COUNTIF(History!A326:C425,A27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" s="2">
         <f>COUNTIF(History!A326:A425,A27)</f>
@@ -10094,11 +10787,11 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C28" s="8">
         <f>COUNTIF(History!A:A,A28)</f>
@@ -10106,62 +10799,62 @@
       </c>
       <c r="D28" s="2">
         <f>C28*100/B28</f>
-        <v>50</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="E28" s="8">
-        <f>COUNTIF(History!A28:C127,A28)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A27:C126,A28)</f>
+        <v>2</v>
       </c>
       <c r="F28" s="8">
-        <f>COUNTIF(History!A28:A127,A28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="e">
+        <f>COUNTIF(History!A27:A126,A28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
         <f>F28*100/E28</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A128:C227,A28)</f>
+        <f>COUNTIF(History!A127:C226,A28)</f>
+        <v>4</v>
+      </c>
+      <c r="I28" s="2">
+        <f>COUNTIF(History!A127:A226,A28)</f>
         <v>2</v>
-      </c>
-      <c r="I28" s="2">
-        <f>COUNTIF(History!A128:A227,A28)</f>
-        <v>0</v>
       </c>
       <c r="J28" s="2">
         <f>I28*100/H28</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A228:C327,A28)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A227:C326,A28)</f>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>COUNTIF(History!A228:A327,A28)</f>
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
+        <f>COUNTIF(History!A227:A326,A28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="e">
         <f>L28*100/K28</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N28" s="2">
-        <f>COUNTIF(History!A328:C427,A28)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A327:C426,A28)</f>
+        <v>5</v>
       </c>
       <c r="O28" s="2">
-        <f>COUNTIF(History!A328:A427,A28)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="2" t="e">
+        <f>COUNTIF(History!A327:A426,A28)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <f>O28*100/N28</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <f>COUNTIF(History!A428:C527,A28)</f>
+        <f>COUNTIF(History!A427:C526,A28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>COUNTIF(History!A428:A527,A28)</f>
+        <f>COUNTIF(History!A427:A526,A28)</f>
         <v>0</v>
       </c>
       <c r="S28" s="2" t="e">
@@ -11330,7 +12023,7 @@
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="8">
         <f>COUNTIF(History!A:A,A44)</f>
@@ -11378,15 +12071,15 @@
       </c>
       <c r="N44" s="2">
         <f>COUNTIF(History!A344:C443,A44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="2">
         <f>COUNTIF(History!A344:A443,A44)</f>
         <v>0</v>
       </c>
-      <c r="P44" s="2" t="e">
+      <c r="P44" s="2">
         <f>O44*100/N44</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="2">
         <f>COUNTIF(History!A444:C543,A44)</f>
@@ -12023,7 +12716,7 @@
       </c>
       <c r="B53" s="8">
         <f>COUNTIF(History!A:C,A53)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="8">
         <f>COUNTIF(History!A:A,A53)</f>
@@ -12071,15 +12764,15 @@
       </c>
       <c r="N53" s="2">
         <f>COUNTIF(History!A353:C452,A53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="2">
         <f>COUNTIF(History!A353:A452,A53)</f>
         <v>0</v>
       </c>
-      <c r="P53" s="2" t="e">
+      <c r="P53" s="2">
         <f>O53*100/N53</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="2">
         <f>COUNTIF(History!A453:C552,A53)</f>
@@ -14256,15 +14949,15 @@
       </c>
       <c r="B82" s="8">
         <f>COUNTIF(History!A:C,A82)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="8">
         <f>COUNTIF(History!A:A,A82)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="2" t="e">
+      <c r="D82" s="2">
         <f>C82*100/B82</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E82" s="8">
         <f>COUNTIF(History!A82:C181,A82)</f>
@@ -14292,15 +14985,15 @@
       </c>
       <c r="K82" s="2">
         <f>COUNTIF(History!A282:C381,A82)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="2">
         <f>COUNTIF(History!A282:A381,A82)</f>
         <v>0</v>
       </c>
-      <c r="M82" s="2" t="e">
+      <c r="M82" s="2">
         <f>L82*100/K82</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N82" s="2">
         <f>COUNTIF(History!A382:C481,A82)</f>
@@ -19261,15 +19954,15 @@
       </c>
       <c r="B147" s="8">
         <f>COUNTIF(History!A:C,A147)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" s="8">
         <f>COUNTIF(History!A:A,A147)</f>
         <v>0</v>
       </c>
-      <c r="D147" s="2" t="e">
+      <c r="D147" s="2">
         <f>C147*100/B147</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E147" s="8">
         <f>COUNTIF(History!A147:C246,A147)</f>
@@ -19297,15 +19990,15 @@
       </c>
       <c r="K147" s="2">
         <f>COUNTIF(History!A347:C446,A147)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" s="2">
         <f>COUNTIF(History!A347:A446,A147)</f>
         <v>0</v>
       </c>
-      <c r="M147" s="2" t="e">
+      <c r="M147" s="2">
         <f>L147*100/K147</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N147" s="2">
         <f>COUNTIF(History!A447:C546,A147)</f>
@@ -24035,15 +24728,15 @@
       </c>
       <c r="B209" s="8">
         <f>COUNTIF(History!A:C,A209)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" s="8">
         <f>COUNTIF(History!A:A,A209)</f>
         <v>0</v>
       </c>
-      <c r="D209" s="2" t="e">
+      <c r="D209" s="2">
         <f>C209*100/B209</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E209" s="8">
         <f>COUNTIF(History!A209:C308,A209)</f>
@@ -24059,15 +24752,15 @@
       </c>
       <c r="H209" s="2">
         <f>COUNTIF(History!A309:C408,A209)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" s="2">
         <f>COUNTIF(History!A309:A408,A209)</f>
         <v>0</v>
       </c>
-      <c r="J209" s="2" t="e">
+      <c r="J209" s="2">
         <f>I209*100/H209</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K209" s="2">
         <f>COUNTIF(History!A409:C508,A209)</f>
@@ -34591,10 +35284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3ACB55-5D50-44AC-A914-44229FBE70D8}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34613,151 +35306,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>cresselia:50</v>
+        <v>cresselia:52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>cresselia:50,giratina_altered:37</v>
+        <v>cresselia:52,giratina_altered:45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10,empoleon:10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10,empoleon:10,machamp:9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9,muk_alolan:8</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10,empoleon:10,machamp:9,muk_alolan:8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,venusaur:5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,venusaur:4</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,venusaur:5,mewtwo_armored:4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,venusaur:4,shiftry:4</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,venusaur:5,mewtwo_armored:4,granbull:4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,venusaur:4,shiftry:4,granbull:3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!C25)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,venusaur:4,shiftry:4,granbull:3,giratina_origin:3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!C26)</f>
-        <v>cresselia:50,giratina_altered:37,swampert:33,registeel:32,escavalier:19,melmetal:15,obstagoon:14,gyarados:13,poliwrath:13,togekiss:12,charizard:12,articuno:12,snorlax:10,scizor:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,mewtwo_armored:4,venusaur:4,shiftry:4,granbull:3,giratina_origin:3,lucario:2</v>
+        <v>cresselia:52,giratina_altered:45,swampert:36,registeel:35,escavalier:22,obstagoon:17,melmetal:15,poliwrath:14,togekiss:13,gyarados:13,charizard:12,articuno:12,scizor:12,snorlax:10,empoleon:10,machamp:9,muk_alolan:8,lapras:7,clefable:6,venusaur:5,mewtwo_armored:4,granbull:4,shiftry:4</v>
       </c>
     </row>
   </sheetData>
@@ -34768,10 +35449,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB1052-0E2A-4C9F-80C2-7E88CECBAD0B}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34787,151 +35468,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>cresselia:108</v>
+        <v>cresselia:116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>cresselia:108,giratina_altered:126</v>
+        <v>cresselia:116,giratina_altered:140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22,snorlax:40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22,snorlax:40,empoleon:24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22,snorlax:40,empoleon:24,machamp:12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12,muk_alolan:45</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22,snorlax:40,empoleon:24,machamp:12,muk_alolan:46</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12,muk_alolan:45,lapras:17</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22,snorlax:40,empoleon:24,machamp:12,muk_alolan:46,lapras:21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12,muk_alolan:45,lapras:17,clefable:24</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22,snorlax:40,empoleon:24,machamp:12,muk_alolan:46,lapras:21,clefable:26</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12,muk_alolan:45,lapras:17,clefable:24,mewtwo_armored:24</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22,snorlax:40,empoleon:24,machamp:12,muk_alolan:46,lapras:21,clefable:26,venusaur:18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12,muk_alolan:45,lapras:17,clefable:24,mewtwo_armored:24,venusaur:17</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22,snorlax:40,empoleon:24,machamp:12,muk_alolan:46,lapras:21,clefable:26,venusaur:18,mewtwo_armored:26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12,muk_alolan:45,lapras:17,clefable:24,mewtwo_armored:24,venusaur:17,shiftry:9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!B24,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12,muk_alolan:45,lapras:17,clefable:24,mewtwo_armored:24,venusaur:17,shiftry:9,granbull:18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!B25,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12,muk_alolan:45,lapras:17,clefable:24,mewtwo_armored:24,venusaur:17,shiftry:9,granbull:18,giratina_origin:9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>CONCATENATE(A25, ",",Totals!A26, ":", Totals!B26,)</f>
-        <v>cresselia:108,giratina_altered:126,swampert:140,registeel:98,escavalier:40,melmetal:29,obstagoon:33,gyarados:26,poliwrath:33,togekiss:43,charizard:43,articuno:28,snorlax:37,scizor:20,empoleon:23,machamp:12,muk_alolan:45,lapras:17,clefable:24,mewtwo_armored:24,venusaur:17,shiftry:9,granbull:18,giratina_origin:9,lucario:10</v>
+        <v>cresselia:116,giratina_altered:140,swampert:153,registeel:107,escavalier:43,obstagoon:38,melmetal:31,poliwrath:36,togekiss:46,gyarados:26,charizard:45,articuno:28,scizor:22,snorlax:40,empoleon:24,machamp:12,muk_alolan:46,lapras:21,clefable:26,venusaur:18,mewtwo_armored:26,granbull:19</v>
       </c>
     </row>
   </sheetData>
@@ -34941,6 +35604,162 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD94D32-7C9E-4573-8CF8-2958F19276CB}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
+        <v>cresselia:64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
+        <v>cresselia:64,giratina_altered:95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10,snorlax:30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10,snorlax:30,empoleon:14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10,snorlax:30,empoleon:14,machamp:3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10,snorlax:30,empoleon:14,machamp:3,muk_alolan:38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10,snorlax:30,empoleon:14,machamp:3,muk_alolan:38,lapras:14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10,snorlax:30,empoleon:14,machamp:3,muk_alolan:38,lapras:14,clefable:20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10,snorlax:30,empoleon:14,machamp:3,muk_alolan:38,lapras:14,clefable:20,venusaur:13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10,snorlax:30,empoleon:14,machamp:3,muk_alolan:38,lapras:14,clefable:20,venusaur:13,mewtwo_armored:22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
+        <v>cresselia:64,giratina_altered:95,swampert:117,registeel:72,escavalier:21,obstagoon:21,melmetal:16,poliwrath:22,togekiss:33,gyarados:13,charizard:33,articuno:16,scizor:10,snorlax:30,empoleon:14,machamp:3,muk_alolan:38,lapras:14,clefable:20,venusaur:13,mewtwo_armored:22,granbull:15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BBE29-5DDD-4AF4-8C9F-F07F937B2276}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/main/resources/data/Ultra - Season 02.xlsx
+++ b/src/main/resources/data/Ultra - Season 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7439314C-6DCB-479D-91B8-BC5D4E65E3DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D71EAA-E9A8-48F1-8FC9-788160452B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" activeTab="1" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="433">
   <si>
     <t>Lead</t>
   </si>
@@ -1338,6 +1338,9 @@
   </si>
   <si>
     <t>Scrafty</t>
+  </si>
+  <si>
+    <t>Drifblim</t>
   </si>
 </sst>
 </file>
@@ -1747,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
-  <dimension ref="A1:E551"/>
+  <dimension ref="A1:E654"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D536" sqref="D536"/>
+    <sheetView topLeftCell="A542" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B574" sqref="B574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10802,6 +10805,15 @@
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D536" s="9" t="s">
         <v>330</v>
       </c>
@@ -10810,14 +10822,32 @@
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="D537" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E537" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="D538" s="9" t="s">
         <v>330</v>
       </c>
@@ -10826,6 +10856,15 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D539" s="9" t="s">
         <v>330</v>
       </c>
@@ -10834,14 +10873,32 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="D540" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E540" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D541" s="9" t="s">
         <v>330</v>
       </c>
@@ -10850,14 +10907,32 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D542" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E542" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D543" s="9" t="s">
         <v>330</v>
       </c>
@@ -10866,14 +10941,32 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D544" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E544" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D545" s="9" t="s">
         <v>330</v>
       </c>
@@ -10881,7 +10974,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="546" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="D546" s="9" t="s">
         <v>330</v>
       </c>
@@ -10889,15 +10991,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="547" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="D547" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E547" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="548" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D548" s="9" t="s">
         <v>330</v>
       </c>
@@ -10905,15 +11025,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="549" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D549" s="9" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E549" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="550" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D550" s="9" t="s">
         <v>330</v>
       </c>
@@ -10921,11 +11059,970 @@
         <v>9</v>
       </c>
     </row>
-    <row r="551" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="D551" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E551" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D552" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E552" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D553" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E553" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D554" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E554" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D555" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E551" s="2">
+      <c r="E555" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D556" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E556" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D557" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E557" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D558" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E558" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D559" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E559" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D560" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E560" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D561" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E561" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D562" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E562" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D563" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E563" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D564" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E564" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D565" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E565" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D566" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E566" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D567" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E567" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D568" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E568" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D569" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E569" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D570" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E570" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D571" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E571" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D572" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E572" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D573" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E573" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D574" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E574" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D575" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E575" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D576" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E576" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D577" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E577" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="578" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D578" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E578" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="579" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D579" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E579" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="580" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D580" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E580" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="581" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D581" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E581" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="582" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D582" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E582" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="583" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D583" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E583" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D584" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E584" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D585" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E585" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="586" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D586" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E586" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="587" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D587" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E587" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D588" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E588" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D589" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E589" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D590" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E590" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D591" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E591" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="592" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D592" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E592" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D593" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E593" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D594" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E594" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="595" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D595" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E595" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="596" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D596" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E596" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D597" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E597" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D598" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E598" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D599" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E599" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D600" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E600" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D601" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E601" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D602" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E602" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D603" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E603" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="604" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D604" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E604" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D605" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E605" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="606" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D606" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E606" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D607" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E607" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D608" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E608" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="609" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D609" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E609" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="610" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D610" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E610" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D611" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E611" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D612" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E612" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D613" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E613" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D614" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E614" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="615" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D615" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E615" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="616" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D616" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E616" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="617" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D617" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E617" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="618" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D618" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E618" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D619" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E619" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D620" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E620" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D621" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E621" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D622" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E622" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D623" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E623" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D624" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E624" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D625" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E625" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D626" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E626" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D627" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E627" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="628" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D628" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E628" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="629" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D629" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E629" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D630" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E630" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="631" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D631" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E631" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D632" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E632" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D633" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E633" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="634" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D634" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E634" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D635" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E635" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D636" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E636" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D637" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E637" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="638" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D638" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E638" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D639" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E639" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D640" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E640" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D641" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E641" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D642" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E642" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D643" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E643" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D644" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E644" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D645" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E645" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D646" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E646" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="647" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D647" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E647" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D648" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E648" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D649" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E649" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="650" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D650" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E650" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="651" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D651" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E651" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="652" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D652" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E652" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="653" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D653" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E653" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="654" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D654" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E654" s="2">
         <v>9</v>
       </c>
     </row>
@@ -10940,7 +12037,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 C545 B544:C544 B666:C1048576 C554 B546:C553 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 B301:C309 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A353:B354 B356:B357 B360 A356:A363 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 A516:A1048576 C535 B520:C534 B536:C542</xm:sqref>
+          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 B544:C544 B666:C1048576 C665 B555:C664 C19 A20:C20 A21 A22:C33 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 B9:C18 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 B301:C309 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A353:B354 B356:B357 B360 A356:A363 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 C535 B520:C534 A516:A536 B541:C542 C540 B536:C539 A538:A540 B548:B553 C545:C554 A542:A548 A550 A553:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11040,67 +12137,67 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>44.303797468354432</v>
+        <v>35.885167464114829</v>
       </c>
       <c r="E2" s="8">
-        <f>COUNTIF(History!A2:C101,A2)</f>
-        <v>34</v>
+        <f>COUNTIF(History!A3:C102,A2)</f>
+        <v>30</v>
       </c>
       <c r="F2" s="8">
-        <f>COUNTIF(History!A2:A101,A2)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A3:A102,A2)</f>
+        <v>11</v>
       </c>
       <c r="G2" s="2">
         <f>F2*100/E2</f>
-        <v>35.294117647058826</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="H2" s="2">
-        <f>COUNTIF(History!A102:C201,A2)</f>
-        <v>21</v>
+        <f>COUNTIF(History!A103:C202,A2)</f>
+        <v>37</v>
       </c>
       <c r="I2" s="2">
-        <f>COUNTIF(History!A102:A201,A2)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A103:A202,A2)</f>
+        <v>11</v>
       </c>
       <c r="J2" s="2">
         <f>I2*100/H2</f>
-        <v>57.142857142857146</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="K2" s="2">
-        <f>COUNTIF(History!A202:C301,A2)</f>
-        <v>28</v>
+        <f>COUNTIF(History!A203:C302,A2)</f>
+        <v>31</v>
       </c>
       <c r="L2" s="2">
-        <f>COUNTIF(History!A202:A301,A2)</f>
-        <v>15</v>
+        <f>COUNTIF(History!A203:A302,A2)</f>
+        <v>7</v>
       </c>
       <c r="M2" s="2">
         <f>L2*100/K2</f>
-        <v>53.571428571428569</v>
+        <v>22.580645161290324</v>
       </c>
       <c r="N2" s="2">
-        <f>COUNTIF(History!A302:C399,A2)</f>
-        <v>35</v>
+        <f>COUNTIF(History!A303:C399,A2)</f>
+        <v>44</v>
       </c>
       <c r="O2" s="2">
-        <f>COUNTIF(History!A302:A399,A2)</f>
-        <v>14</v>
+        <f>COUNTIF(History!A303:A399,A2)</f>
+        <v>18</v>
       </c>
       <c r="P2" s="2">
         <f>O2*100/N2</f>
-        <v>40</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="Q2" s="2" t="e">
         <f>COUNTIF(History!#REF!,A2)</f>
@@ -11117,67 +12214,67 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>34.848484848484851</v>
+        <v>41.618497109826592</v>
       </c>
       <c r="E3" s="8">
-        <f>COUNTIF(History!A3:C102,A3)</f>
-        <v>30</v>
+        <f>COUNTIF(History!A2:C101,A3)</f>
+        <v>34</v>
       </c>
       <c r="F3" s="8">
-        <f>COUNTIF(History!A3:A102,A3)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A2:A101,A3)</f>
+        <v>12</v>
       </c>
       <c r="G3" s="2">
         <f>F3*100/E3</f>
-        <v>36.666666666666664</v>
+        <v>35.294117647058826</v>
       </c>
       <c r="H3" s="2">
-        <f>COUNTIF(History!A103:C202,A3)</f>
-        <v>37</v>
+        <f>COUNTIF(History!A102:C201,A3)</f>
+        <v>21</v>
       </c>
       <c r="I3" s="2">
-        <f>COUNTIF(History!A103:A202,A3)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A102:A201,A3)</f>
+        <v>12</v>
       </c>
       <c r="J3" s="2">
         <f>I3*100/H3</f>
-        <v>29.72972972972973</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="K3" s="2">
-        <f>COUNTIF(History!A203:C302,A3)</f>
-        <v>31</v>
+        <f>COUNTIF(History!A202:C301,A3)</f>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
-        <f>COUNTIF(History!A203:A302,A3)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A202:A301,A3)</f>
+        <v>15</v>
       </c>
       <c r="M3" s="2">
         <f>L3*100/K3</f>
-        <v>22.580645161290324</v>
+        <v>53.571428571428569</v>
       </c>
       <c r="N3" s="2">
-        <f>COUNTIF(History!A303:C399,A3)</f>
-        <v>44</v>
+        <f>COUNTIF(History!A302:C399,A3)</f>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <f>COUNTIF(History!A303:A399,A3)</f>
-        <v>18</v>
+        <f>COUNTIF(History!A302:A399,A3)</f>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <f>O3*100/N3</f>
-        <v>40.909090909090907</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="2" t="e">
         <f>COUNTIF(History!#REF!,A3)</f>
@@ -11198,15 +12295,15 @@
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>23.316062176165804</v>
+        <v>23.152709359605911</v>
       </c>
       <c r="E4" s="8">
         <f>COUNTIF(History!A4:C103,A4)</f>
@@ -11275,15 +12372,15 @@
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>32.374100719424462</v>
+        <v>31.125827814569536</v>
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(History!A5:C104,A5)</f>
@@ -11352,15 +12449,15 @@
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>53.448275862068968</v>
+        <v>52.459016393442624</v>
       </c>
       <c r="E6" s="8">
         <f>COUNTIF(History!A6:C105,A6)</f>
@@ -11425,74 +12522,74 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>44.444444444444443</v>
+        <v>52.083333333333336</v>
       </c>
       <c r="E7" s="8">
-        <f>COUNTIF(History!A8:C107,A7)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A7:C106,A7)</f>
+        <v>4</v>
       </c>
       <c r="F7" s="8">
-        <f>COUNTIF(History!A8:A107,A7)</f>
+        <f>COUNTIF(History!A7:A106,A7)</f>
         <v>2</v>
       </c>
       <c r="G7" s="2">
         <f>F7*100/E7</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
-        <f>COUNTIF(History!A108:C207,A7)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A107:C206,A7)</f>
+        <v>8</v>
       </c>
       <c r="I7" s="2">
-        <f>COUNTIF(History!A108:A207,A7)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A107:A206,A7)</f>
+        <v>7</v>
       </c>
       <c r="J7" s="2">
         <f>I7*100/H7</f>
-        <v>40</v>
+        <v>87.5</v>
       </c>
       <c r="K7" s="2">
-        <f>COUNTIF(History!A208:C307,A7)</f>
-        <v>15</v>
+        <f>COUNTIF(History!A207:C306,A7)</f>
+        <v>10</v>
       </c>
       <c r="L7" s="2">
-        <f>COUNTIF(History!A208:A307,A7)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A207:A306,A7)</f>
+        <v>4</v>
       </c>
       <c r="M7" s="2">
         <f>L7*100/K7</f>
         <v>40</v>
       </c>
       <c r="N7" s="2">
-        <f>COUNTIF(History!A308:C399,A7)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A307:C399,A7)</f>
+        <v>8</v>
       </c>
       <c r="O7" s="2">
-        <f>COUNTIF(History!A308:A399,A7)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A307:A399,A7)</f>
+        <v>2</v>
       </c>
       <c r="P7" s="2">
         <f>O7*100/N7</f>
-        <v>45.454545454545453</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="2">
-        <f>COUNTIF(History!A506:C507,A7)</f>
+        <f>COUNTIF(History!A506:C506,A7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="2">
-        <f>COUNTIF(History!A506:A507,A7)</f>
+        <f>COUNTIF(History!A506:A506,A7)</f>
         <v>0</v>
       </c>
       <c r="S7" s="2" t="e">
@@ -11502,74 +12599,74 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>48.888888888888886</v>
+        <v>43.636363636363633</v>
       </c>
       <c r="E8" s="8">
-        <f>COUNTIF(History!A7:C106,A8)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A8:C107,A8)</f>
+        <v>2</v>
       </c>
       <c r="F8" s="8">
-        <f>COUNTIF(History!A7:A106,A8)</f>
+        <f>COUNTIF(History!A8:A107,A8)</f>
         <v>2</v>
       </c>
       <c r="G8" s="2">
         <f>F8*100/E8</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2">
-        <f>COUNTIF(History!A107:C206,A8)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A108:C207,A8)</f>
+        <v>10</v>
       </c>
       <c r="I8" s="2">
-        <f>COUNTIF(History!A107:A206,A8)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A108:A207,A8)</f>
+        <v>4</v>
       </c>
       <c r="J8" s="2">
         <f>I8*100/H8</f>
-        <v>87.5</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2">
-        <f>COUNTIF(History!A207:C306,A8)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A208:C307,A8)</f>
+        <v>15</v>
       </c>
       <c r="L8" s="2">
-        <f>COUNTIF(History!A207:A306,A8)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A208:A307,A8)</f>
+        <v>6</v>
       </c>
       <c r="M8" s="2">
         <f>L8*100/K8</f>
         <v>40</v>
       </c>
       <c r="N8" s="2">
-        <f>COUNTIF(History!A307:C399,A8)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A308:C399,A8)</f>
+        <v>11</v>
       </c>
       <c r="O8" s="2">
-        <f>COUNTIF(History!A307:A399,A8)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A308:A399,A8)</f>
+        <v>5</v>
       </c>
       <c r="P8" s="2">
         <f>O8*100/N8</f>
-        <v>25</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="Q8" s="2">
-        <f>COUNTIF(History!A506:C506,A8)</f>
+        <f>COUNTIF(History!A506:C507,A8)</f>
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <f>COUNTIF(History!A506:A506,A8)</f>
+        <f>COUNTIF(History!A506:A507,A8)</f>
         <v>0</v>
       </c>
       <c r="S8" s="2" t="e">
@@ -11583,15 +12680,15 @@
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>51.219512195121951</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="E9" s="8">
         <f>COUNTIF(History!A16:C115,A9)</f>
@@ -11660,7 +12757,7 @@
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
@@ -11668,7 +12765,7 @@
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>27.142857142857142</v>
+        <v>26.027397260273972</v>
       </c>
       <c r="E10" s="8">
         <f>COUNTIF(History!A11:C110,A10)</f>
@@ -11737,15 +12834,15 @@
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
-        <v>40.476190476190474</v>
+        <v>43.18181818181818</v>
       </c>
       <c r="E11" s="8">
         <f>COUNTIF(History!A9:C108,A11)</f>
@@ -11814,15 +12911,15 @@
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>21.917808219178081</v>
+        <v>22.5</v>
       </c>
       <c r="E12" s="8">
         <f>COUNTIF(History!A12:C111,A12)</f>
@@ -11891,7 +12988,7 @@
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
@@ -11899,7 +12996,7 @@
       </c>
       <c r="D13" s="2">
         <f>C13*100/B13</f>
-        <v>44.444444444444443</v>
+        <v>43.243243243243242</v>
       </c>
       <c r="E13" s="8">
         <f>COUNTIF(History!A13:C112,A13)</f>
@@ -11968,15 +13065,15 @@
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>36.111111111111114</v>
+        <v>35.897435897435898</v>
       </c>
       <c r="E14" s="8">
         <f>COUNTIF(History!A10:C109,A14)</f>
@@ -12118,74 +13215,74 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>21.05263157894737</v>
+        <v>81.25</v>
       </c>
       <c r="E16" s="8">
-        <f>COUNTIF(History!A14:C113,A16)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A17:C116,A16)</f>
+        <v>2</v>
       </c>
       <c r="F16" s="8">
-        <f>COUNTIF(History!A14:A113,A16)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A17:A116,A16)</f>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <f>F16*100/E16</f>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2">
-        <f>COUNTIF(History!A114:C213,A16)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A117:C216,A16)</f>
+        <v>4</v>
       </c>
       <c r="I16" s="2">
-        <f>COUNTIF(History!A114:A213,A16)</f>
+        <f>COUNTIF(History!A117:A216,A16)</f>
         <v>3</v>
       </c>
       <c r="J16" s="2">
         <f>I16*100/H16</f>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2">
-        <f>COUNTIF(History!A214:C313,A16)</f>
+        <f>COUNTIF(History!A217:C316,A16)</f>
         <v>5</v>
       </c>
       <c r="L16" s="2">
-        <f>COUNTIF(History!A214:A313,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A217:A316,A16)</f>
+        <v>4</v>
       </c>
       <c r="M16" s="2">
         <f>L16*100/K16</f>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N16" s="2">
-        <f>COUNTIF(History!A314:C399,A16)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A317:C399,A16)</f>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
-        <f>COUNTIF(History!A314:A399,A16)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A317:A399,A16)</f>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
         <f>O16*100/N16</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <f>COUNTIF(History!A506:C513,A16)</f>
+        <f>COUNTIF(History!A506:C516,A16)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>COUNTIF(History!A506:A513,A16)</f>
+        <f>COUNTIF(History!A506:A516,A16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2" t="e">
@@ -12195,11 +13292,11 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
@@ -12207,62 +13304,62 @@
       </c>
       <c r="D17" s="2">
         <f>C17*100/B17</f>
-        <v>80</v>
+        <v>20.338983050847457</v>
       </c>
       <c r="E17" s="8">
-        <f>COUNTIF(History!A17:C116,A17)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A14:C113,A17)</f>
+        <v>12</v>
       </c>
       <c r="F17" s="8">
-        <f>COUNTIF(History!A17:A116,A17)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A14:A113,A17)</f>
+        <v>3</v>
       </c>
       <c r="G17" s="2">
         <f>F17*100/E17</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2">
-        <f>COUNTIF(History!A117:C216,A17)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A114:C213,A17)</f>
+        <v>12</v>
       </c>
       <c r="I17" s="2">
-        <f>COUNTIF(History!A117:A216,A17)</f>
+        <f>COUNTIF(History!A114:A213,A17)</f>
         <v>3</v>
       </c>
       <c r="J17" s="2">
         <f>I17*100/H17</f>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K17" s="2">
-        <f>COUNTIF(History!A217:C316,A17)</f>
+        <f>COUNTIF(History!A214:C313,A17)</f>
         <v>5</v>
       </c>
       <c r="L17" s="2">
-        <f>COUNTIF(History!A217:A316,A17)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A214:A313,A17)</f>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <f>L17*100/K17</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N17" s="2">
-        <f>COUNTIF(History!A317:C399,A17)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A314:C399,A17)</f>
+        <v>10</v>
       </c>
       <c r="O17" s="2">
-        <f>COUNTIF(History!A317:A399,A17)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A314:A399,A17)</f>
+        <v>3</v>
       </c>
       <c r="P17" s="2">
         <f>O17*100/N17</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="2">
-        <f>COUNTIF(History!A506:C516,A17)</f>
+        <f>COUNTIF(History!A506:C513,A17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f>COUNTIF(History!A506:A516,A17)</f>
+        <f>COUNTIF(History!A506:A513,A17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="2" t="e">
@@ -12276,15 +13373,15 @@
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
         <f>C18*100/B18</f>
-        <v>27.272727272727273</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="E18" s="8">
         <f>COUNTIF(History!A19:C118,A18)</f>
@@ -12353,7 +13450,7 @@
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
@@ -12361,7 +13458,7 @@
       </c>
       <c r="D19" s="2">
         <f>C19*100/B19</f>
-        <v>15.09433962264151</v>
+        <v>14.814814814814815</v>
       </c>
       <c r="E19" s="8">
         <f>COUNTIF(History!A18:C117,A19)</f>
@@ -12430,7 +13527,7 @@
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
@@ -12438,7 +13535,7 @@
       </c>
       <c r="D20" s="2">
         <f>C20*100/B20</f>
-        <v>19.512195121951219</v>
+        <v>18.604651162790699</v>
       </c>
       <c r="E20" s="8">
         <f>COUNTIF(History!A20:C119,A20)</f>
@@ -12661,15 +13758,15 @@
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
         <f>C23*100/B23</f>
-        <v>41.666666666666664</v>
+        <v>46.153846153846153</v>
       </c>
       <c r="E23" s="8">
         <f>COUNTIF(History!A25:C124,A23)</f>
@@ -12734,88 +13831,88 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2">
         <f>C24*100/B24</f>
-        <v>12.903225806451612</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="E24" s="8">
-        <f>COUNTIF(History!A21:C120,A24)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A77:C176,A24)</f>
+        <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f>COUNTIF(History!A21:A120,A24)</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
+        <f>COUNTIF(History!A77:A176,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="e">
         <f>F24*100/E24</f>
-        <v>11.111111111111111</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H24" s="2">
-        <f>COUNTIF(History!A121:C220,A24)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A177:C276,A24)</f>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f>COUNTIF(History!A121:A220,A24)</f>
-        <v>2</v>
-      </c>
-      <c r="J24" s="2">
+        <f>COUNTIF(History!A177:A276,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="e">
         <f>I24*100/H24</f>
-        <v>40</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K24" s="2">
-        <f>COUNTIF(History!A221:C320,A24)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A277:C376,A24)</f>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <f>COUNTIF(History!A221:A320,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+        <f>COUNTIF(History!A277:A376,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="e">
         <f>L24*100/K24</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N24" s="2">
-        <f>COUNTIF(History!A321:C399,A24)</f>
+        <f>COUNTIF(History!A377:C399,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <f>COUNTIF(History!A377:A399,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="e">
+        <f>O24*100/N24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>COUNTIF(History!A506:C576,A24)</f>
+        <v>4</v>
+      </c>
+      <c r="R24" s="2">
+        <f>COUNTIF(History!A506:A576,A24)</f>
         <v>3</v>
       </c>
-      <c r="O24" s="2">
-        <f>COUNTIF(History!A321:A399,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <f>O24*100/N24</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <f>COUNTIF(History!A506:C520,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <f>COUNTIF(History!A506:A520,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="2" t="e">
+      <c r="S24" s="2">
         <f>R24*100/Q24</f>
-        <v>#DIV/0!</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8">
         <f>COUNTIF(History!A:A,A25)</f>
@@ -12823,62 +13920,62 @@
       </c>
       <c r="D25" s="2">
         <f>C25*100/B25</f>
-        <v>18.181818181818183</v>
+        <v>12.903225806451612</v>
       </c>
       <c r="E25" s="8">
-        <f>COUNTIF(History!A24:C123,A25)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A21:C120,A25)</f>
+        <v>9</v>
       </c>
       <c r="F25" s="8">
-        <f>COUNTIF(History!A24:A123,A25)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A21:A120,A25)</f>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
         <f>F25*100/E25</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H25" s="2">
-        <f>COUNTIF(History!A124:C223,A25)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A121:C220,A25)</f>
+        <v>5</v>
       </c>
       <c r="I25" s="2">
-        <f>COUNTIF(History!A124:A223,A25)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A121:A220,A25)</f>
+        <v>2</v>
       </c>
       <c r="J25" s="2">
         <f>I25*100/H25</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K25" s="2">
-        <f>COUNTIF(History!A224:C323,A25)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A221:C320,A25)</f>
+        <v>5</v>
       </c>
       <c r="L25" s="2">
-        <f>COUNTIF(History!A224:A323,A25)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A221:A320,A25)</f>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <f>L25*100/K25</f>
-        <v>33.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
-        <f>COUNTIF(History!A324:C399,A25)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A321:C399,A25)</f>
+        <v>3</v>
       </c>
       <c r="O25" s="2">
-        <f>COUNTIF(History!A324:A399,A25)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A321:A399,A25)</f>
+        <v>0</v>
       </c>
       <c r="P25" s="2">
         <f>O25*100/N25</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <f>COUNTIF(History!A506:C523,A25)</f>
+        <f>COUNTIF(History!A506:C520,A25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>COUNTIF(History!A506:A523,A25)</f>
+        <f>COUNTIF(History!A506:A520,A25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="2" t="e">
@@ -12888,11 +13985,11 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C26" s="8">
         <f>COUNTIF(History!A:A,A26)</f>
@@ -12900,26 +13997,26 @@
       </c>
       <c r="D26" s="2">
         <f>C26*100/B26</f>
-        <v>44.444444444444443</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="E26" s="8">
-        <f>COUNTIF(History!A23:C122,A26)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A24:C123,A26)</f>
+        <v>4</v>
       </c>
       <c r="F26" s="8">
-        <f>COUNTIF(History!A23:A122,A26)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A24:A123,A26)</f>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
         <f>F26*100/E26</f>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTIF(History!A123:C222,A26)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A124:C223,A26)</f>
+        <v>1</v>
       </c>
       <c r="I26" s="2">
-        <f>COUNTIF(History!A123:A222,A26)</f>
+        <f>COUNTIF(History!A124:A223,A26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="2">
@@ -12927,35 +14024,35 @@
         <v>0</v>
       </c>
       <c r="K26" s="2">
-        <f>COUNTIF(History!A223:C322,A26)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A224:C323,A26)</f>
+        <v>9</v>
       </c>
       <c r="L26" s="2">
-        <f>COUNTIF(History!A223:A322,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="2" t="e">
+        <f>COUNTIF(History!A224:A323,A26)</f>
+        <v>3</v>
+      </c>
+      <c r="M26" s="2">
         <f>L26*100/K26</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N26" s="2">
-        <f>COUNTIF(History!A323:C399,A26)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A324:C399,A26)</f>
+        <v>5</v>
       </c>
       <c r="O26" s="2">
-        <f>COUNTIF(History!A323:A399,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="2" t="e">
+        <f>COUNTIF(History!A324:A399,A26)</f>
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
         <f>O26*100/N26</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="2">
-        <f>COUNTIF(History!A506:C522,A26)</f>
+        <f>COUNTIF(History!A506:C523,A26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <f>COUNTIF(History!A506:A522,A26)</f>
+        <f>COUNTIF(History!A506:A523,A26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="e">
@@ -12965,11 +14062,11 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
@@ -12977,38 +14074,38 @@
       </c>
       <c r="D27" s="2">
         <f>C27*100/B27</f>
-        <v>100</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="E27" s="8">
-        <f>COUNTIF(History!A32:C131,A27)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A23:C122,A27)</f>
+        <v>6</v>
       </c>
       <c r="F27" s="8">
-        <f>COUNTIF(History!A32:A131,A27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="e">
+        <f>COUNTIF(History!A23:A122,A27)</f>
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
         <f>F27*100/E27</f>
-        <v>#DIV/0!</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H27" s="2">
-        <f>COUNTIF(History!A132:C231,A27)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A123:C222,A27)</f>
+        <v>3</v>
       </c>
       <c r="I27" s="2">
-        <f>COUNTIF(History!A132:A231,A27)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A123:A222,A27)</f>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
         <f>I27*100/H27</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
-        <f>COUNTIF(History!A232:C331,A27)</f>
+        <f>COUNTIF(History!A223:C322,A27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>COUNTIF(History!A232:A331,A27)</f>
+        <f>COUNTIF(History!A223:A322,A27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="e">
@@ -13016,11 +14113,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="2">
-        <f>COUNTIF(History!A332:C399,A27)</f>
+        <f>COUNTIF(History!A323:C399,A27)</f>
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f>COUNTIF(History!A332:A399,A27)</f>
+        <f>COUNTIF(History!A323:A399,A27)</f>
         <v>0</v>
       </c>
       <c r="P27" s="2" t="e">
@@ -13028,11 +14125,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="2">
-        <f>COUNTIF(History!A506:C531,A27)</f>
+        <f>COUNTIF(History!A506:C522,A27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <f>COUNTIF(History!A506:A531,A27)</f>
+        <f>COUNTIF(History!A506:A522,A27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="2" t="e">
@@ -13042,11 +14139,11 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="8">
         <f>COUNTIF(History!A:A,A28)</f>
@@ -13054,14 +14151,14 @@
       </c>
       <c r="D28" s="2">
         <f>C28*100/B28</f>
-        <v>66.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="E28" s="8">
-        <f>COUNTIF(History!A77:C176,A28)</f>
+        <f>COUNTIF(History!A32:C131,A28)</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>COUNTIF(History!A77:A176,A28)</f>
+        <f>COUNTIF(History!A32:A131,A28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="2" t="e">
@@ -13069,23 +14166,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A177:C276,A28)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A132:C231,A28)</f>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
-        <f>COUNTIF(History!A177:A276,A28)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="e">
+        <f>COUNTIF(History!A132:A231,A28)</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
         <f>I28*100/H28</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A277:C376,A28)</f>
+        <f>COUNTIF(History!A232:C331,A28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>COUNTIF(History!A277:A376,A28)</f>
+        <f>COUNTIF(History!A232:A331,A28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="e">
@@ -13093,11 +14190,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="2">
-        <f>COUNTIF(History!A377:C399,A28)</f>
+        <f>COUNTIF(History!A332:C399,A28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f>COUNTIF(History!A377:A399,A28)</f>
+        <f>COUNTIF(History!A332:A399,A28)</f>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="e">
@@ -13105,16 +14202,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="2">
-        <f>COUNTIF(History!A506:C576,A28)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A506:C531,A28)</f>
+        <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>COUNTIF(History!A506:A576,A28)</f>
-        <v>2</v>
-      </c>
-      <c r="S28" s="2">
+        <f>COUNTIF(History!A506:A531,A28)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="2" t="e">
         <f>R28*100/Q28</f>
-        <v>66.666666666666671</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -13123,15 +14220,15 @@
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="8">
         <f>COUNTIF(History!A:A,A29)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
         <f>C29*100/B29</f>
-        <v>25</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="E29" s="8">
         <f>COUNTIF(History!A27:C126,A29)</f>
@@ -13585,7 +14682,7 @@
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="8">
         <f>COUNTIF(History!A:A,A35)</f>
@@ -13593,7 +14690,7 @@
       </c>
       <c r="D35" s="2">
         <f>C35*100/B35</f>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E35" s="8">
         <f>COUNTIF(History!A33:C132,A35)</f>
@@ -14351,74 +15448,74 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C45" s="8">
         <f>COUNTIF(History!A:A,A45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2">
         <f>C45*100/B45</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E45" s="8">
-        <f>COUNTIF(History!A42:C141,A45)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A46:C145,A45)</f>
+        <v>1</v>
       </c>
       <c r="F45" s="8">
-        <f>COUNTIF(History!A42:A141,A45)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="2" t="e">
+        <f>COUNTIF(History!A46:A145,A45)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
         <f>F45*100/E45</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2">
-        <f>COUNTIF(History!A142:C241,A45)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A146:C245,A45)</f>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>COUNTIF(History!A142:A241,A45)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
+        <f>COUNTIF(History!A146:A245,A45)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="e">
         <f>I45*100/H45</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K45" s="2">
-        <f>COUNTIF(History!A242:C341,A45)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A246:C345,A45)</f>
+        <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f>COUNTIF(History!A242:A341,A45)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
+        <f>COUNTIF(History!A246:A345,A45)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2" t="e">
         <f>L45*100/K45</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N45" s="2">
-        <f>COUNTIF(History!A342:C399,A45)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A346:C399,A45)</f>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f>COUNTIF(History!A342:A399,A45)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
+        <f>COUNTIF(History!A346:A399,A45)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="2" t="e">
         <f>O45*100/N45</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="2">
-        <f>COUNTIF(History!A506:C541,A45)</f>
+        <f>COUNTIF(History!A506:C545,A45)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>COUNTIF(History!A506:A541,A45)</f>
+        <f>COUNTIF(History!A506:A545,A45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="2" t="e">
@@ -14428,11 +15525,11 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="8">
         <f>COUNTIF(History!A:A,A46)</f>
@@ -14443,23 +15540,23 @@
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <f>COUNTIF(History!A41:C140,A46)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A42:C141,A46)</f>
+        <v>0</v>
       </c>
       <c r="F46" s="8">
-        <f>COUNTIF(History!A41:A140,A46)</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
+        <f>COUNTIF(History!A42:A141,A46)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="e">
         <f>F46*100/E46</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H46" s="2">
-        <f>COUNTIF(History!A141:C240,A46)</f>
+        <f>COUNTIF(History!A142:C241,A46)</f>
         <v>1</v>
       </c>
       <c r="I46" s="2">
-        <f>COUNTIF(History!A141:A240,A46)</f>
+        <f>COUNTIF(History!A142:A241,A46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2">
@@ -14467,35 +15564,35 @@
         <v>0</v>
       </c>
       <c r="K46" s="2">
-        <f>COUNTIF(History!A241:C340,A46)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A242:C341,A46)</f>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <f>COUNTIF(History!A241:A340,A46)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="2" t="e">
+        <f>COUNTIF(History!A242:A341,A46)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
         <f>L46*100/K46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2">
-        <f>COUNTIF(History!A341:C399,A46)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A342:C399,A46)</f>
+        <v>1</v>
       </c>
       <c r="O46" s="2">
-        <f>COUNTIF(History!A341:A399,A46)</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="2" t="e">
+        <f>COUNTIF(History!A342:A399,A46)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
         <f>O46*100/N46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2">
-        <f>COUNTIF(History!A506:C540,A46)</f>
+        <f>COUNTIF(History!A506:C541,A46)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>COUNTIF(History!A506:A540,A46)</f>
+        <f>COUNTIF(History!A506:A541,A46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="2" t="e">
@@ -14505,11 +15602,11 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C47" s="8">
         <f>COUNTIF(History!A:A,A47)</f>
@@ -14520,47 +15617,47 @@
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <f>COUNTIF(History!A43:C142,A47)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A41:C140,A47)</f>
+        <v>3</v>
       </c>
       <c r="F47" s="8">
-        <f>COUNTIF(History!A43:A142,A47)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="2" t="e">
+        <f>COUNTIF(History!A41:A140,A47)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
         <f>F47*100/E47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
-        <f>COUNTIF(History!A143:C242,A47)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A141:C240,A47)</f>
+        <v>1</v>
       </c>
       <c r="I47" s="2">
-        <f>COUNTIF(History!A143:A242,A47)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="e">
+        <f>COUNTIF(History!A141:A240,A47)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
         <f>I47*100/H47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
-        <f>COUNTIF(History!A243:C342,A47)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A241:C340,A47)</f>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>COUNTIF(History!A243:A342,A47)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+        <f>COUNTIF(History!A241:A340,A47)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="2" t="e">
         <f>L47*100/K47</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N47" s="2">
-        <f>COUNTIF(History!A343:C399,A47)</f>
+        <f>COUNTIF(History!A341:C399,A47)</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f>COUNTIF(History!A343:A399,A47)</f>
+        <f>COUNTIF(History!A341:A399,A47)</f>
         <v>0</v>
       </c>
       <c r="P47" s="2" t="e">
@@ -14568,11 +15665,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q47" s="2">
-        <f>COUNTIF(History!A506:C542,A47)</f>
+        <f>COUNTIF(History!A506:C540,A47)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>COUNTIF(History!A506:A542,A47)</f>
+        <f>COUNTIF(History!A506:A540,A47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="2" t="e">
@@ -14582,11 +15679,11 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="8">
         <f>COUNTIF(History!A:A,A48)</f>
@@ -14597,11 +15694,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <f>COUNTIF(History!A44:C143,A48)</f>
+        <f>COUNTIF(History!A43:C142,A48)</f>
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <f>COUNTIF(History!A44:A143,A48)</f>
+        <f>COUNTIF(History!A43:A142,A48)</f>
         <v>0</v>
       </c>
       <c r="G48" s="2" t="e">
@@ -14609,47 +15706,47 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H48" s="2">
-        <f>COUNTIF(History!A144:C243,A48)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A143:C242,A48)</f>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>COUNTIF(History!A144:A243,A48)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
+        <f>COUNTIF(History!A143:A242,A48)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="e">
         <f>I48*100/H48</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K48" s="2">
-        <f>COUNTIF(History!A244:C343,A48)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A243:C342,A48)</f>
+        <v>1</v>
       </c>
       <c r="L48" s="2">
-        <f>COUNTIF(History!A244:A343,A48)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="2" t="e">
+        <f>COUNTIF(History!A243:A342,A48)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
         <f>L48*100/K48</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2">
-        <f>COUNTIF(History!A344:C399,A48)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A343:C399,A48)</f>
+        <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f>COUNTIF(History!A344:A399,A48)</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
+        <f>COUNTIF(History!A343:A399,A48)</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="2" t="e">
         <f>O48*100/N48</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q48" s="2">
-        <f>COUNTIF(History!A506:C543,A48)</f>
+        <f>COUNTIF(History!A506:C542,A48)</f>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f>COUNTIF(History!A506:A543,A48)</f>
+        <f>COUNTIF(History!A506:A542,A48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="2" t="e">
@@ -14659,11 +15756,11 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>281</v>
+        <v>30</v>
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(History!A:C,A49)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" s="8">
         <f>COUNTIF(History!A:A,A49)</f>
@@ -14674,35 +15771,35 @@
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <f>COUNTIF(History!A45:C144,A49)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A44:C143,A49)</f>
+        <v>0</v>
       </c>
       <c r="F49" s="8">
-        <f>COUNTIF(History!A45:A144,A49)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
+        <f>COUNTIF(History!A44:A143,A49)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="e">
         <f>F49*100/E49</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H49" s="2">
-        <f>COUNTIF(History!A145:C244,A49)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A144:C243,A49)</f>
+        <v>2</v>
       </c>
       <c r="I49" s="2">
-        <f>COUNTIF(History!A145:A244,A49)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="e">
+        <f>COUNTIF(History!A144:A243,A49)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
         <f>I49*100/H49</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2">
-        <f>COUNTIF(History!A245:C344,A49)</f>
+        <f>COUNTIF(History!A244:C343,A49)</f>
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <f>COUNTIF(History!A245:A344,A49)</f>
+        <f>COUNTIF(History!A244:A343,A49)</f>
         <v>0</v>
       </c>
       <c r="M49" s="2" t="e">
@@ -14710,23 +15807,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N49" s="2">
-        <f>COUNTIF(History!A345:C399,A49)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A344:C399,A49)</f>
+        <v>1</v>
       </c>
       <c r="O49" s="2">
-        <f>COUNTIF(History!A345:A399,A49)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="2" t="e">
+        <f>COUNTIF(History!A344:A399,A49)</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
         <f>O49*100/N49</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <f>COUNTIF(History!A506:C544,A49)</f>
+        <f>COUNTIF(History!A506:C543,A49)</f>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f>COUNTIF(History!A506:A544,A49)</f>
+        <f>COUNTIF(History!A506:A543,A49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="2" t="e">
@@ -14736,7 +15833,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>281</v>
       </c>
       <c r="B50" s="8">
         <f>COUNTIF(History!A:C,A50)</f>
@@ -14751,11 +15848,11 @@
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <f>COUNTIF(History!A46:C145,A50)</f>
+        <f>COUNTIF(History!A45:C144,A50)</f>
         <v>1</v>
       </c>
       <c r="F50" s="8">
-        <f>COUNTIF(History!A46:A145,A50)</f>
+        <f>COUNTIF(History!A45:A144,A50)</f>
         <v>0</v>
       </c>
       <c r="G50" s="2">
@@ -14763,11 +15860,11 @@
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <f>COUNTIF(History!A146:C245,A50)</f>
+        <f>COUNTIF(History!A145:C244,A50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>COUNTIF(History!A146:A245,A50)</f>
+        <f>COUNTIF(History!A145:A244,A50)</f>
         <v>0</v>
       </c>
       <c r="J50" s="2" t="e">
@@ -14775,11 +15872,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K50" s="2">
-        <f>COUNTIF(History!A246:C345,A50)</f>
+        <f>COUNTIF(History!A245:C344,A50)</f>
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <f>COUNTIF(History!A246:A345,A50)</f>
+        <f>COUNTIF(History!A245:A344,A50)</f>
         <v>0</v>
       </c>
       <c r="M50" s="2" t="e">
@@ -14787,11 +15884,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N50" s="2">
-        <f>COUNTIF(History!A346:C399,A50)</f>
+        <f>COUNTIF(History!A345:C399,A50)</f>
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <f>COUNTIF(History!A346:A399,A50)</f>
+        <f>COUNTIF(History!A345:A399,A50)</f>
         <v>0</v>
       </c>
       <c r="P50" s="2" t="e">
@@ -14799,11 +15896,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" s="2">
-        <f>COUNTIF(History!A506:C545,A50)</f>
+        <f>COUNTIF(History!A506:C544,A50)</f>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f>COUNTIF(History!A506:A545,A50)</f>
+        <f>COUNTIF(History!A506:A544,A50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="2" t="e">
@@ -15356,7 +16453,7 @@
       </c>
       <c r="B58" s="8">
         <f>COUNTIF(History!A:C,A58)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="8">
         <f>COUNTIF(History!A:A,A58)</f>
@@ -23287,15 +24384,15 @@
       </c>
       <c r="B161" s="8">
         <f>COUNTIF(History!A:C,A161)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" s="8">
         <f>COUNTIF(History!A:A,A161)</f>
         <v>0</v>
       </c>
-      <c r="D161" s="2" t="e">
+      <c r="D161" s="2">
         <f>C161*100/B161</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E161" s="8">
         <f>COUNTIF(History!A161:C260,A161)</f>
@@ -23335,15 +24432,15 @@
       </c>
       <c r="N161" s="2">
         <f>COUNTIF(History!A506:C560,A161)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" s="2">
         <f>COUNTIF(History!A506:A560,A161)</f>
         <v>0</v>
       </c>
-      <c r="P161" s="2" t="e">
+      <c r="P161" s="2">
         <f>O161*100/N161</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q161" s="2">
         <f>COUNTIF(History!A561:C660,A161)</f>
@@ -37561,139 +38658,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>cresselia:70</v>
+        <v>giratina_altered:75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>cresselia:70,giratina_altered:69</v>
+        <v>giratina_altered:75,cresselia:72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13,snorlax:12</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13,machamp:13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13,snorlax:12,machamp:12</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13,machamp:13,snorlax:12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13,snorlax:12,machamp:12,lapras:9</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13,machamp:13,snorlax:12,lapras:10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13,snorlax:12,machamp:12,lapras:9,muk_alolan:8</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13,machamp:13,snorlax:12,lapras:10,muk_alolan:8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13,snorlax:12,machamp:12,lapras:9,muk_alolan:8,clefable:8</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13,machamp:13,snorlax:12,lapras:10,muk_alolan:8,clefable:8</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13,snorlax:12,machamp:12,lapras:9,muk_alolan:8,clefable:8,venusaur:6</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13,machamp:13,snorlax:12,lapras:10,muk_alolan:8,clefable:8,venusaur:6</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13,snorlax:12,machamp:12,lapras:9,muk_alolan:8,clefable:8,venusaur:6,blaziken:6</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13,machamp:13,snorlax:12,lapras:10,muk_alolan:8,clefable:8,venusaur:6,blaziken:6</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13,snorlax:12,machamp:12,lapras:9,muk_alolan:8,clefable:8,venusaur:6,blaziken:6,giratina_origin:5</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13,machamp:13,snorlax:12,lapras:10,muk_alolan:8,clefable:8,venusaur:6,blaziken:6,giratina_origin:6</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>cresselia:70,giratina_altered:69,swampert:45,registeel:45,escavalier:31,obstagoon:24,melmetal:22,empoleon:21,charizard:19,poliwrath:17,togekiss:16,articuno:16,gyarados:13,scizor:13,snorlax:12,machamp:12,lapras:9,muk_alolan:8,clefable:8,venusaur:6,blaziken:6,giratina_origin:5,mewtwo_armored:4</v>
+        <v>giratina_altered:75,cresselia:72,swampert:47,registeel:47,escavalier:32,melmetal:25,obstagoon:24,empoleon:24,charizard:19,poliwrath:19,togekiss:18,articuno:16,gyarados:14,scizor:13,machamp:13,snorlax:12,lapras:10,muk_alolan:8,clefable:8,venusaur:6,blaziken:6,giratina_origin:6,blastoise:5</v>
       </c>
     </row>
   </sheetData>
@@ -37723,133 +38820,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>cresselia:158</v>
+        <v>giratina_altered:209</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>cresselia:158,giratina_altered:198</v>
+        <v>giratina_altered:209,cresselia:173</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36,scizor:28</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39,scizor:28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36,scizor:28,snorlax:57</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39,scizor:28,machamp:16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36,scizor:28,snorlax:57,machamp:15</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39,scizor:28,machamp:16,snorlax:59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36,scizor:28,snorlax:57,machamp:15,lapras:33</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39,scizor:28,machamp:16,snorlax:59,lapras:35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36,scizor:28,snorlax:57,machamp:15,lapras:33,muk_alolan:53</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39,scizor:28,machamp:16,snorlax:59,lapras:35,muk_alolan:54</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36,scizor:28,snorlax:57,machamp:15,lapras:33,muk_alolan:53,clefable:41</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39,scizor:28,machamp:16,snorlax:59,lapras:35,muk_alolan:54,clefable:43</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36,scizor:28,snorlax:57,machamp:15,lapras:33,muk_alolan:53,clefable:41,venusaur:21</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39,scizor:28,machamp:16,snorlax:59,lapras:35,muk_alolan:54,clefable:43,venusaur:21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36,scizor:28,snorlax:57,machamp:15,lapras:33,muk_alolan:53,clefable:41,venusaur:21,blaziken:8</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39,scizor:28,machamp:16,snorlax:59,lapras:35,muk_alolan:54,clefable:43,venusaur:21,blaziken:8</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>cresselia:158,giratina_altered:198,swampert:193,registeel:139,escavalier:58,obstagoon:54,melmetal:45,empoleon:41,charizard:70,poliwrath:42,togekiss:73,articuno:36,gyarados:36,scizor:28,snorlax:57,machamp:15,lapras:33,muk_alolan:53,clefable:41,venusaur:21,blaziken:8,giratina_origin:12</v>
+        <v>giratina_altered:209,cresselia:173,swampert:203,registeel:151,escavalier:61,melmetal:48,obstagoon:55,empoleon:44,charizard:73,poliwrath:44,togekiss:80,articuno:37,gyarados:39,scizor:28,machamp:16,snorlax:59,lapras:35,muk_alolan:54,clefable:43,venusaur:21,blaziken:8,giratina_origin:13</v>
       </c>
     </row>
   </sheetData>
@@ -37879,133 +38976,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>cresselia:88</v>
+        <v>giratina_altered:134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>cresselia:88,giratina_altered:129</v>
+        <v>giratina_altered:134,cresselia:101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23,scizor:15</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25,scizor:15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23,scizor:15,snorlax:45</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25,scizor:15,machamp:3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23,scizor:15,snorlax:45,machamp:3</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25,scizor:15,machamp:3,snorlax:47</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23,scizor:15,snorlax:45,machamp:3,lapras:24</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25,scizor:15,machamp:3,snorlax:47,lapras:25</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23,scizor:15,snorlax:45,machamp:3,lapras:24,muk_alolan:45</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25,scizor:15,machamp:3,snorlax:47,lapras:25,muk_alolan:46</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23,scizor:15,snorlax:45,machamp:3,lapras:24,muk_alolan:45,clefable:33</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25,scizor:15,machamp:3,snorlax:47,lapras:25,muk_alolan:46,clefable:35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23,scizor:15,snorlax:45,machamp:3,lapras:24,muk_alolan:45,clefable:33,venusaur:15</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25,scizor:15,machamp:3,snorlax:47,lapras:25,muk_alolan:46,clefable:35,venusaur:15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23,scizor:15,snorlax:45,machamp:3,lapras:24,muk_alolan:45,clefable:33,venusaur:15,blaziken:2</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25,scizor:15,machamp:3,snorlax:47,lapras:25,muk_alolan:46,clefable:35,venusaur:15,blaziken:2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>cresselia:88,giratina_altered:129,swampert:148,registeel:94,escavalier:27,obstagoon:30,melmetal:23,empoleon:20,charizard:51,poliwrath:25,togekiss:57,articuno:20,gyarados:23,scizor:15,snorlax:45,machamp:3,lapras:24,muk_alolan:45,clefable:33,venusaur:15,blaziken:2,giratina_origin:7</v>
+        <v>giratina_altered:134,cresselia:101,swampert:156,registeel:104,escavalier:29,melmetal:23,obstagoon:31,empoleon:20,charizard:54,poliwrath:25,togekiss:62,articuno:21,gyarados:25,scizor:15,machamp:3,snorlax:47,lapras:25,muk_alolan:46,clefable:35,venusaur:15,blaziken:2,giratina_origin:7</v>
       </c>
     </row>
   </sheetData>
